--- a/000-要件定義/WBS/0905/003-WBS.xlsx
+++ b/000-要件定義/WBS/0905/003-WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\disstrg\業務処理\戦略本部\01_一般用\Ｊａｖａ選抜研修\新人・強化研修_2025\参加メンバー\新卒メンバー\三浦隆宇輝\98_レビュー用\000-要件定義\WBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\演習プロジェクト\000-要件定義\WBS\0905\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA68841-0E60-48D3-BB09-CEE8F87784CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EC9BAA-C60E-4657-AC4D-B168FB3871FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必須機能スケジュール (テンプレート)" sheetId="11" r:id="rId1"/>
@@ -2843,32 +2843,53 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2878,78 +2899,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2987,119 +2936,68 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3128,68 +3026,116 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -3227,8 +3173,20 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3236,14 +3194,56 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4105,10 +4105,10 @@
   <dimension ref="A1:BR324"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D232" sqref="D232"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -4124,10 +4124,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="9.6">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="207" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="83" t="s">
@@ -4136,82 +4136,82 @@
       <c r="D1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="227" t="s">
+      <c r="E1" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="215">
+      <c r="F1" s="194">
         <v>45901</v>
       </c>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
-      <c r="K1" s="216"/>
-      <c r="L1" s="216"/>
-      <c r="M1" s="216"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="216"/>
-      <c r="P1" s="216"/>
-      <c r="Q1" s="216"/>
-      <c r="R1" s="216"/>
-      <c r="S1" s="216"/>
-      <c r="T1" s="216"/>
-      <c r="U1" s="216"/>
-      <c r="V1" s="216"/>
-      <c r="W1" s="216"/>
-      <c r="X1" s="216"/>
-      <c r="Y1" s="216"/>
-      <c r="Z1" s="216"/>
-      <c r="AA1" s="216"/>
-      <c r="AB1" s="216"/>
-      <c r="AC1" s="216"/>
-      <c r="AD1" s="216"/>
-      <c r="AE1" s="216"/>
-      <c r="AF1" s="216"/>
-      <c r="AG1" s="216"/>
-      <c r="AH1" s="216"/>
-      <c r="AI1" s="220"/>
-      <c r="AJ1" s="215">
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="195"/>
+      <c r="S1" s="195"/>
+      <c r="T1" s="195"/>
+      <c r="U1" s="195"/>
+      <c r="V1" s="195"/>
+      <c r="W1" s="195"/>
+      <c r="X1" s="195"/>
+      <c r="Y1" s="195"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="195"/>
+      <c r="AB1" s="195"/>
+      <c r="AC1" s="195"/>
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="195"/>
+      <c r="AG1" s="195"/>
+      <c r="AH1" s="195"/>
+      <c r="AI1" s="203"/>
+      <c r="AJ1" s="194">
         <v>45931</v>
       </c>
-      <c r="AK1" s="216"/>
-      <c r="AL1" s="216"/>
-      <c r="AM1" s="216"/>
-      <c r="AN1" s="216"/>
-      <c r="AO1" s="216"/>
-      <c r="AP1" s="216"/>
-      <c r="AQ1" s="216"/>
-      <c r="AR1" s="216"/>
-      <c r="AS1" s="216"/>
-      <c r="AT1" s="216"/>
-      <c r="AU1" s="216"/>
-      <c r="AV1" s="216"/>
-      <c r="AW1" s="216"/>
-      <c r="AX1" s="216"/>
-      <c r="AY1" s="216"/>
-      <c r="AZ1" s="216"/>
-      <c r="BA1" s="216"/>
-      <c r="BB1" s="216"/>
-      <c r="BC1" s="216"/>
-      <c r="BD1" s="216"/>
-      <c r="BE1" s="216"/>
-      <c r="BF1" s="216"/>
-      <c r="BG1" s="216"/>
-      <c r="BH1" s="216"/>
-      <c r="BI1" s="216"/>
-      <c r="BJ1" s="216"/>
-      <c r="BK1" s="216"/>
-      <c r="BL1" s="216"/>
-      <c r="BM1" s="216"/>
+      <c r="AK1" s="195"/>
+      <c r="AL1" s="195"/>
+      <c r="AM1" s="195"/>
+      <c r="AN1" s="195"/>
+      <c r="AO1" s="195"/>
+      <c r="AP1" s="195"/>
+      <c r="AQ1" s="195"/>
+      <c r="AR1" s="195"/>
+      <c r="AS1" s="195"/>
+      <c r="AT1" s="195"/>
+      <c r="AU1" s="195"/>
+      <c r="AV1" s="195"/>
+      <c r="AW1" s="195"/>
+      <c r="AX1" s="195"/>
+      <c r="AY1" s="195"/>
+      <c r="AZ1" s="195"/>
+      <c r="BA1" s="195"/>
+      <c r="BB1" s="195"/>
+      <c r="BC1" s="195"/>
+      <c r="BD1" s="195"/>
+      <c r="BE1" s="195"/>
+      <c r="BF1" s="195"/>
+      <c r="BG1" s="195"/>
+      <c r="BH1" s="195"/>
+      <c r="BI1" s="195"/>
+      <c r="BJ1" s="195"/>
+      <c r="BK1" s="195"/>
+      <c r="BL1" s="195"/>
+      <c r="BM1" s="195"/>
       <c r="BN1" s="66"/>
       <c r="BO1" s="3"/>
     </row>
     <row r="2" spans="1:67" ht="9.6">
-      <c r="A2" s="222"/>
-      <c r="B2" s="225"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="208"/>
       <c r="C2" s="84"/>
       <c r="D2" s="88"/>
-      <c r="E2" s="228"/>
+      <c r="E2" s="211"/>
       <c r="F2" s="46">
         <v>42156</v>
       </c>
@@ -4398,11 +4398,11 @@
       <c r="BO2" s="3"/>
     </row>
     <row r="3" spans="1:67" s="2" customFormat="1" ht="9.6">
-      <c r="A3" s="223"/>
-      <c r="B3" s="226"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="209"/>
       <c r="C3" s="84"/>
       <c r="D3" s="88"/>
-      <c r="E3" s="229"/>
+      <c r="E3" s="212"/>
       <c r="F3" s="48" t="s">
         <v>5</v>
       </c>
@@ -4589,7 +4589,7 @@
       <c r="BO3" s="45"/>
     </row>
     <row r="4" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A4" s="200">
+      <c r="A4" s="182">
         <v>1</v>
       </c>
       <c r="B4" s="70" t="s">
@@ -4598,10 +4598,10 @@
       <c r="C4" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="210" t="s">
+      <c r="D4" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="212"/>
+      <c r="E4" s="217"/>
       <c r="F4" s="71"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -4667,16 +4667,16 @@
       <c r="BN4" s="59"/>
     </row>
     <row r="5" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A5" s="201"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="70"/>
       <c r="C5" s="90"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="213"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="218"/>
       <c r="F5" s="116"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="117"/>
-      <c r="J5" s="25"/>
+      <c r="J5" s="33"/>
       <c r="K5" s="26"/>
       <c r="L5" s="27"/>
       <c r="M5" s="25"/>
@@ -4735,7 +4735,7 @@
       <c r="BN5" s="60"/>
     </row>
     <row r="6" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A6" s="200">
+      <c r="A6" s="182">
         <v>2</v>
       </c>
       <c r="B6" s="68" t="s">
@@ -4744,10 +4744,10 @@
       <c r="C6" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="210" t="s">
+      <c r="D6" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="217"/>
+      <c r="E6" s="184"/>
       <c r="F6" s="37"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
@@ -4811,11 +4811,11 @@
       <c r="BN6" s="61"/>
     </row>
     <row r="7" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A7" s="201"/>
+      <c r="A7" s="183"/>
       <c r="B7" s="69"/>
       <c r="C7" s="92"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="203"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="185"/>
       <c r="F7" s="53"/>
       <c r="G7" s="117"/>
       <c r="H7" s="42"/>
@@ -4879,7 +4879,7 @@
       <c r="BN7" s="62"/>
     </row>
     <row r="8" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A8" s="200">
+      <c r="A8" s="182">
         <v>3</v>
       </c>
       <c r="B8" s="79" t="s">
@@ -4888,10 +4888,10 @@
       <c r="C8" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="210" t="s">
+      <c r="D8" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="217" t="s">
+      <c r="E8" s="184" t="s">
         <v>147</v>
       </c>
       <c r="F8" s="37"/>
@@ -4959,11 +4959,11 @@
       <c r="BN8" s="61"/>
     </row>
     <row r="9" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A9" s="201"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="81"/>
       <c r="C9" s="86"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="203"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="185"/>
       <c r="F9" s="53"/>
       <c r="G9" s="117"/>
       <c r="H9" s="117"/>
@@ -5027,7 +5027,7 @@
       <c r="BN9" s="62"/>
     </row>
     <row r="10" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A10" s="200">
+      <c r="A10" s="182">
         <v>4</v>
       </c>
       <c r="B10" s="79" t="s">
@@ -5036,10 +5036,10 @@
       <c r="C10" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="210" t="s">
+      <c r="D10" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="217" t="s">
+      <c r="E10" s="184" t="s">
         <v>147</v>
       </c>
       <c r="F10" s="37"/>
@@ -5107,16 +5107,16 @@
       <c r="BN10" s="61"/>
     </row>
     <row r="11" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A11" s="201"/>
+      <c r="A11" s="183"/>
       <c r="B11" s="81"/>
       <c r="C11" s="86"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="203"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="185"/>
       <c r="F11" s="53"/>
       <c r="G11" s="117"/>
       <c r="H11" s="117"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
       <c r="K11" s="43"/>
       <c r="L11" s="44"/>
       <c r="M11" s="42"/>
@@ -5175,7 +5175,7 @@
       <c r="BN11" s="62"/>
     </row>
     <row r="12" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A12" s="200">
+      <c r="A12" s="182">
         <v>5</v>
       </c>
       <c r="B12" s="79" t="s">
@@ -5184,10 +5184,10 @@
       <c r="C12" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="210" t="s">
+      <c r="D12" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="217"/>
+      <c r="E12" s="184"/>
       <c r="F12" s="37"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -5253,11 +5253,11 @@
       <c r="BN12" s="61"/>
     </row>
     <row r="13" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A13" s="201"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="81"/>
       <c r="C13" s="86"/>
-      <c r="D13" s="211"/>
-      <c r="E13" s="203"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="185"/>
       <c r="F13" s="53"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
@@ -5321,19 +5321,19 @@
       <c r="BN13" s="62"/>
     </row>
     <row r="14" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A14" s="200">
+      <c r="A14" s="182">
         <v>6</v>
       </c>
-      <c r="B14" s="230" t="s">
+      <c r="B14" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="233" t="s">
+      <c r="C14" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="214" t="s">
+      <c r="D14" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="217"/>
+      <c r="E14" s="184"/>
       <c r="F14" s="37"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -5399,11 +5399,11 @@
       <c r="BN14" s="61"/>
     </row>
     <row r="15" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A15" s="201"/>
-      <c r="B15" s="231"/>
-      <c r="C15" s="190"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="204"/>
+      <c r="A15" s="183"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="216"/>
+      <c r="E15" s="186"/>
       <c r="F15" s="52"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -5467,15 +5467,15 @@
       <c r="BN15" s="60"/>
     </row>
     <row r="16" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A16" s="200">
+      <c r="A16" s="182">
         <v>7</v>
       </c>
-      <c r="B16" s="231"/>
-      <c r="C16" s="190"/>
-      <c r="D16" s="205" t="s">
+      <c r="B16" s="188"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="215" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="202"/>
+      <c r="E16" s="190"/>
       <c r="F16" s="51"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -5541,11 +5541,11 @@
       <c r="BN16" s="63"/>
     </row>
     <row r="17" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A17" s="201"/>
-      <c r="B17" s="231"/>
-      <c r="C17" s="190"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="204"/>
+      <c r="A17" s="183"/>
+      <c r="B17" s="188"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="186"/>
       <c r="F17" s="52"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -5609,15 +5609,15 @@
       <c r="BN17" s="60"/>
     </row>
     <row r="18" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A18" s="200">
+      <c r="A18" s="182">
         <v>8</v>
       </c>
-      <c r="B18" s="231"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="205" t="s">
+      <c r="B18" s="188"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="215" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="202"/>
+      <c r="E18" s="190"/>
       <c r="F18" s="51"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -5683,11 +5683,11 @@
       <c r="BN18" s="63"/>
     </row>
     <row r="19" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A19" s="201"/>
-      <c r="B19" s="231"/>
-      <c r="C19" s="190"/>
-      <c r="D19" s="206"/>
-      <c r="E19" s="204"/>
+      <c r="A19" s="183"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="216"/>
+      <c r="E19" s="186"/>
       <c r="F19" s="52"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
@@ -5751,15 +5751,15 @@
       <c r="BN19" s="60"/>
     </row>
     <row r="20" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A20" s="200">
+      <c r="A20" s="182">
         <v>9</v>
       </c>
-      <c r="B20" s="231"/>
-      <c r="C20" s="190"/>
-      <c r="D20" s="205" t="s">
+      <c r="B20" s="188"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="202"/>
+      <c r="E20" s="190"/>
       <c r="F20" s="51"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -5825,11 +5825,11 @@
       <c r="BN20" s="63"/>
     </row>
     <row r="21" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A21" s="201"/>
-      <c r="B21" s="231"/>
-      <c r="C21" s="190"/>
-      <c r="D21" s="206"/>
-      <c r="E21" s="204"/>
+      <c r="A21" s="183"/>
+      <c r="B21" s="188"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="216"/>
+      <c r="E21" s="186"/>
       <c r="F21" s="52"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -5893,15 +5893,15 @@
       <c r="BN21" s="60"/>
     </row>
     <row r="22" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A22" s="200">
+      <c r="A22" s="182">
         <v>10</v>
       </c>
-      <c r="B22" s="231"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="205" t="s">
+      <c r="B22" s="188"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="215" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="202"/>
+      <c r="E22" s="190"/>
       <c r="F22" s="51"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -5967,11 +5967,11 @@
       <c r="BN22" s="63"/>
     </row>
     <row r="23" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A23" s="201"/>
-      <c r="B23" s="231"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="206"/>
-      <c r="E23" s="204"/>
+      <c r="A23" s="183"/>
+      <c r="B23" s="188"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="216"/>
+      <c r="E23" s="186"/>
       <c r="F23" s="52"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
@@ -6035,15 +6035,15 @@
       <c r="BN23" s="60"/>
     </row>
     <row r="24" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A24" s="200">
+      <c r="A24" s="182">
         <v>11</v>
       </c>
-      <c r="B24" s="231"/>
-      <c r="C24" s="190"/>
-      <c r="D24" s="205" t="s">
+      <c r="B24" s="188"/>
+      <c r="C24" s="192"/>
+      <c r="D24" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="202"/>
+      <c r="E24" s="190"/>
       <c r="F24" s="51"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -6109,11 +6109,11 @@
       <c r="BN24" s="63"/>
     </row>
     <row r="25" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A25" s="201"/>
-      <c r="B25" s="231"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="204"/>
+      <c r="A25" s="183"/>
+      <c r="B25" s="188"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="216"/>
+      <c r="E25" s="186"/>
       <c r="F25" s="52"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
@@ -6177,15 +6177,15 @@
       <c r="BN25" s="60"/>
     </row>
     <row r="26" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A26" s="200">
+      <c r="A26" s="182">
         <v>12</v>
       </c>
-      <c r="B26" s="231"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="205" t="s">
+      <c r="B26" s="188"/>
+      <c r="C26" s="192"/>
+      <c r="D26" s="215" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="202"/>
+      <c r="E26" s="190"/>
       <c r="F26" s="51"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -6251,11 +6251,11 @@
       <c r="BN26" s="63"/>
     </row>
     <row r="27" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A27" s="201"/>
-      <c r="B27" s="231"/>
-      <c r="C27" s="190"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="204"/>
+      <c r="A27" s="183"/>
+      <c r="B27" s="188"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="216"/>
+      <c r="E27" s="186"/>
       <c r="F27" s="52"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -6319,15 +6319,15 @@
       <c r="BN27" s="60"/>
     </row>
     <row r="28" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A28" s="200">
+      <c r="A28" s="182">
         <v>13</v>
       </c>
-      <c r="B28" s="231"/>
-      <c r="C28" s="190"/>
-      <c r="D28" s="205" t="s">
+      <c r="B28" s="188"/>
+      <c r="C28" s="192"/>
+      <c r="D28" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="202"/>
+      <c r="E28" s="190"/>
       <c r="F28" s="51"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -6393,11 +6393,11 @@
       <c r="BN28" s="63"/>
     </row>
     <row r="29" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A29" s="201"/>
-      <c r="B29" s="231"/>
-      <c r="C29" s="190"/>
-      <c r="D29" s="206"/>
-      <c r="E29" s="204"/>
+      <c r="A29" s="183"/>
+      <c r="B29" s="188"/>
+      <c r="C29" s="192"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="186"/>
       <c r="F29" s="52"/>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
@@ -6461,15 +6461,15 @@
       <c r="BN29" s="60"/>
     </row>
     <row r="30" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A30" s="200">
+      <c r="A30" s="182">
         <v>14</v>
       </c>
-      <c r="B30" s="231"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="205" t="s">
+      <c r="B30" s="188"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="202"/>
+      <c r="E30" s="190"/>
       <c r="F30" s="51"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -6535,11 +6535,11 @@
       <c r="BN30" s="63"/>
     </row>
     <row r="31" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A31" s="201"/>
-      <c r="B31" s="231"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="206"/>
-      <c r="E31" s="204"/>
+      <c r="A31" s="183"/>
+      <c r="B31" s="188"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="216"/>
+      <c r="E31" s="186"/>
       <c r="F31" s="52"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
@@ -6603,15 +6603,15 @@
       <c r="BN31" s="60"/>
     </row>
     <row r="32" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A32" s="200">
+      <c r="A32" s="182">
         <v>15</v>
       </c>
-      <c r="B32" s="231"/>
-      <c r="C32" s="190"/>
-      <c r="D32" s="205" t="s">
+      <c r="B32" s="188"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="202"/>
+      <c r="E32" s="190"/>
       <c r="F32" s="51"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -6677,11 +6677,11 @@
       <c r="BN32" s="63"/>
     </row>
     <row r="33" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A33" s="201"/>
-      <c r="B33" s="231"/>
-      <c r="C33" s="190"/>
-      <c r="D33" s="206"/>
-      <c r="E33" s="204"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="188"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="216"/>
+      <c r="E33" s="186"/>
       <c r="F33" s="52"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -6745,15 +6745,15 @@
       <c r="BN33" s="60"/>
     </row>
     <row r="34" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A34" s="200">
+      <c r="A34" s="182">
         <v>16</v>
       </c>
-      <c r="B34" s="231"/>
-      <c r="C34" s="190"/>
-      <c r="D34" s="205" t="s">
+      <c r="B34" s="188"/>
+      <c r="C34" s="192"/>
+      <c r="D34" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="202"/>
+      <c r="E34" s="190"/>
       <c r="F34" s="51"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -6819,11 +6819,11 @@
       <c r="BN34" s="63"/>
     </row>
     <row r="35" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A35" s="201"/>
-      <c r="B35" s="231"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="206"/>
-      <c r="E35" s="204"/>
+      <c r="A35" s="183"/>
+      <c r="B35" s="188"/>
+      <c r="C35" s="192"/>
+      <c r="D35" s="216"/>
+      <c r="E35" s="186"/>
       <c r="F35" s="52"/>
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
@@ -6887,15 +6887,15 @@
       <c r="BN35" s="60"/>
     </row>
     <row r="36" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A36" s="200">
+      <c r="A36" s="182">
         <v>17</v>
       </c>
-      <c r="B36" s="231"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="205" t="s">
+      <c r="B36" s="188"/>
+      <c r="C36" s="192"/>
+      <c r="D36" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="202"/>
+      <c r="E36" s="190"/>
       <c r="F36" s="52"/>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
@@ -6961,11 +6961,11 @@
       <c r="BN36" s="60"/>
     </row>
     <row r="37" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A37" s="201"/>
-      <c r="B37" s="232"/>
-      <c r="C37" s="199"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="203"/>
+      <c r="A37" s="183"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="193"/>
+      <c r="D37" s="220"/>
+      <c r="E37" s="185"/>
       <c r="F37" s="54"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -7029,19 +7029,19 @@
       <c r="BN37" s="64"/>
     </row>
     <row r="38" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A38" s="200">
+      <c r="A38" s="182">
         <v>18</v>
       </c>
-      <c r="B38" s="191" t="s">
+      <c r="B38" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="218" t="s">
+      <c r="C38" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="208" t="s">
+      <c r="D38" s="221" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="217"/>
+      <c r="E38" s="184"/>
       <c r="F38" s="37"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -7105,11 +7105,11 @@
       <c r="BN38" s="61"/>
     </row>
     <row r="39" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A39" s="201"/>
-      <c r="B39" s="192"/>
-      <c r="C39" s="219"/>
-      <c r="D39" s="209"/>
-      <c r="E39" s="204"/>
+      <c r="A39" s="183"/>
+      <c r="B39" s="199"/>
+      <c r="C39" s="202"/>
+      <c r="D39" s="222"/>
+      <c r="E39" s="186"/>
       <c r="F39" s="52"/>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
@@ -7173,17 +7173,17 @@
       <c r="BN39" s="60"/>
     </row>
     <row r="40" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A40" s="200">
+      <c r="A40" s="182">
         <v>19</v>
       </c>
-      <c r="B40" s="192"/>
-      <c r="C40" s="196" t="s">
+      <c r="B40" s="199"/>
+      <c r="C40" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="182" t="s">
+      <c r="D40" s="223" t="s">
         <v>148</v>
       </c>
-      <c r="E40" s="186"/>
+      <c r="E40" s="196"/>
       <c r="F40" s="51"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -7249,11 +7249,11 @@
       <c r="BN40" s="63"/>
     </row>
     <row r="41" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A41" s="201"/>
-      <c r="B41" s="192"/>
-      <c r="C41" s="197"/>
-      <c r="D41" s="183"/>
-      <c r="E41" s="187"/>
+      <c r="A41" s="183"/>
+      <c r="B41" s="199"/>
+      <c r="C41" s="232"/>
+      <c r="D41" s="224"/>
+      <c r="E41" s="197"/>
       <c r="F41" s="52"/>
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
@@ -7317,15 +7317,15 @@
       <c r="BN41" s="60"/>
     </row>
     <row r="42" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A42" s="200">
+      <c r="A42" s="182">
         <v>20</v>
       </c>
-      <c r="B42" s="192"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="184" t="s">
+      <c r="B42" s="199"/>
+      <c r="C42" s="232"/>
+      <c r="D42" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="186"/>
+      <c r="E42" s="196"/>
       <c r="F42" s="51"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -7391,11 +7391,11 @@
       <c r="BN42" s="63"/>
     </row>
     <row r="43" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A43" s="201"/>
-      <c r="B43" s="192"/>
-      <c r="C43" s="197"/>
-      <c r="D43" s="185"/>
-      <c r="E43" s="187"/>
+      <c r="A43" s="183"/>
+      <c r="B43" s="199"/>
+      <c r="C43" s="232"/>
+      <c r="D43" s="226"/>
+      <c r="E43" s="197"/>
       <c r="F43" s="52"/>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
@@ -7459,15 +7459,15 @@
       <c r="BN43" s="60"/>
     </row>
     <row r="44" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A44" s="200">
+      <c r="A44" s="182">
         <v>21</v>
       </c>
-      <c r="B44" s="192"/>
-      <c r="C44" s="197"/>
-      <c r="D44" s="184" t="s">
+      <c r="B44" s="199"/>
+      <c r="C44" s="232"/>
+      <c r="D44" s="225" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="186"/>
+      <c r="E44" s="196"/>
       <c r="F44" s="51"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -7533,11 +7533,11 @@
       <c r="BN44" s="63"/>
     </row>
     <row r="45" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A45" s="201"/>
-      <c r="B45" s="192"/>
-      <c r="C45" s="197"/>
-      <c r="D45" s="185"/>
-      <c r="E45" s="187"/>
+      <c r="A45" s="183"/>
+      <c r="B45" s="199"/>
+      <c r="C45" s="232"/>
+      <c r="D45" s="226"/>
+      <c r="E45" s="197"/>
       <c r="F45" s="52"/>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
@@ -7601,15 +7601,15 @@
       <c r="BN45" s="60"/>
     </row>
     <row r="46" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A46" s="200">
+      <c r="A46" s="182">
         <v>22</v>
       </c>
-      <c r="B46" s="192"/>
-      <c r="C46" s="197"/>
-      <c r="D46" s="184" t="s">
+      <c r="B46" s="199"/>
+      <c r="C46" s="232"/>
+      <c r="D46" s="225" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="186"/>
+      <c r="E46" s="196"/>
       <c r="F46" s="51"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -7675,11 +7675,11 @@
       <c r="BN46" s="63"/>
     </row>
     <row r="47" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A47" s="201"/>
-      <c r="B47" s="192"/>
-      <c r="C47" s="197"/>
-      <c r="D47" s="185"/>
-      <c r="E47" s="187"/>
+      <c r="A47" s="183"/>
+      <c r="B47" s="199"/>
+      <c r="C47" s="232"/>
+      <c r="D47" s="226"/>
+      <c r="E47" s="197"/>
       <c r="F47" s="52"/>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
@@ -7743,15 +7743,15 @@
       <c r="BN47" s="60"/>
     </row>
     <row r="48" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A48" s="200">
+      <c r="A48" s="182">
         <v>23</v>
       </c>
-      <c r="B48" s="192"/>
-      <c r="C48" s="197"/>
-      <c r="D48" s="184" t="s">
+      <c r="B48" s="199"/>
+      <c r="C48" s="232"/>
+      <c r="D48" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="186"/>
+      <c r="E48" s="196"/>
       <c r="F48" s="51"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -7817,11 +7817,11 @@
       <c r="BN48" s="63"/>
     </row>
     <row r="49" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A49" s="201"/>
-      <c r="B49" s="192"/>
-      <c r="C49" s="197"/>
-      <c r="D49" s="185"/>
-      <c r="E49" s="187"/>
+      <c r="A49" s="183"/>
+      <c r="B49" s="199"/>
+      <c r="C49" s="232"/>
+      <c r="D49" s="226"/>
+      <c r="E49" s="197"/>
       <c r="F49" s="52"/>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
@@ -7885,15 +7885,15 @@
       <c r="BN49" s="60"/>
     </row>
     <row r="50" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A50" s="200">
+      <c r="A50" s="182">
         <v>24</v>
       </c>
-      <c r="B50" s="192"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="184" t="s">
+      <c r="B50" s="199"/>
+      <c r="C50" s="232"/>
+      <c r="D50" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="186"/>
+      <c r="E50" s="196"/>
       <c r="F50" s="51"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -7959,11 +7959,11 @@
       <c r="BN50" s="63"/>
     </row>
     <row r="51" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A51" s="201"/>
-      <c r="B51" s="192"/>
-      <c r="C51" s="197"/>
-      <c r="D51" s="185"/>
-      <c r="E51" s="187"/>
+      <c r="A51" s="183"/>
+      <c r="B51" s="199"/>
+      <c r="C51" s="232"/>
+      <c r="D51" s="226"/>
+      <c r="E51" s="197"/>
       <c r="F51" s="52"/>
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
@@ -8027,15 +8027,15 @@
       <c r="BN51" s="60"/>
     </row>
     <row r="52" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A52" s="200">
+      <c r="A52" s="182">
         <v>25</v>
       </c>
-      <c r="B52" s="192"/>
-      <c r="C52" s="197"/>
-      <c r="D52" s="184" t="s">
+      <c r="B52" s="199"/>
+      <c r="C52" s="232"/>
+      <c r="D52" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="E52" s="186"/>
+      <c r="E52" s="196"/>
       <c r="F52" s="51"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -8101,11 +8101,11 @@
       <c r="BN52" s="63"/>
     </row>
     <row r="53" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A53" s="201"/>
-      <c r="B53" s="192"/>
-      <c r="C53" s="197"/>
-      <c r="D53" s="185"/>
-      <c r="E53" s="187"/>
+      <c r="A53" s="183"/>
+      <c r="B53" s="199"/>
+      <c r="C53" s="232"/>
+      <c r="D53" s="226"/>
+      <c r="E53" s="197"/>
       <c r="F53" s="52"/>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
@@ -8169,15 +8169,15 @@
       <c r="BN53" s="60"/>
     </row>
     <row r="54" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A54" s="200">
+      <c r="A54" s="182">
         <v>26</v>
       </c>
-      <c r="B54" s="192"/>
-      <c r="C54" s="197"/>
-      <c r="D54" s="184" t="s">
+      <c r="B54" s="199"/>
+      <c r="C54" s="232"/>
+      <c r="D54" s="225" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="186"/>
+      <c r="E54" s="196"/>
       <c r="F54" s="51"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -8243,11 +8243,11 @@
       <c r="BN54" s="63"/>
     </row>
     <row r="55" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A55" s="201"/>
-      <c r="B55" s="192"/>
-      <c r="C55" s="197"/>
-      <c r="D55" s="185"/>
-      <c r="E55" s="187"/>
+      <c r="A55" s="183"/>
+      <c r="B55" s="199"/>
+      <c r="C55" s="232"/>
+      <c r="D55" s="226"/>
+      <c r="E55" s="197"/>
       <c r="F55" s="52"/>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
@@ -8311,15 +8311,15 @@
       <c r="BN55" s="60"/>
     </row>
     <row r="56" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A56" s="200">
+      <c r="A56" s="182">
         <v>27</v>
       </c>
-      <c r="B56" s="192"/>
-      <c r="C56" s="197"/>
-      <c r="D56" s="184" t="s">
+      <c r="B56" s="199"/>
+      <c r="C56" s="232"/>
+      <c r="D56" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="E56" s="186"/>
+      <c r="E56" s="196"/>
       <c r="F56" s="51"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -8385,11 +8385,11 @@
       <c r="BN56" s="63"/>
     </row>
     <row r="57" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A57" s="201"/>
-      <c r="B57" s="192"/>
-      <c r="C57" s="197"/>
-      <c r="D57" s="185"/>
-      <c r="E57" s="187"/>
+      <c r="A57" s="183"/>
+      <c r="B57" s="199"/>
+      <c r="C57" s="232"/>
+      <c r="D57" s="226"/>
+      <c r="E57" s="197"/>
       <c r="F57" s="52"/>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
@@ -8453,15 +8453,15 @@
       <c r="BN57" s="60"/>
     </row>
     <row r="58" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A58" s="200">
+      <c r="A58" s="182">
         <v>28</v>
       </c>
-      <c r="B58" s="192"/>
-      <c r="C58" s="197"/>
+      <c r="B58" s="199"/>
+      <c r="C58" s="232"/>
       <c r="D58" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="E58" s="186"/>
+      <c r="E58" s="196"/>
       <c r="F58" s="51"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -8527,11 +8527,11 @@
       <c r="BN58" s="63"/>
     </row>
     <row r="59" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A59" s="201"/>
-      <c r="B59" s="192"/>
-      <c r="C59" s="197"/>
+      <c r="A59" s="183"/>
+      <c r="B59" s="199"/>
+      <c r="C59" s="232"/>
       <c r="D59" s="101"/>
-      <c r="E59" s="187"/>
+      <c r="E59" s="197"/>
       <c r="F59" s="52"/>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
@@ -8595,15 +8595,15 @@
       <c r="BN59" s="60"/>
     </row>
     <row r="60" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A60" s="200">
+      <c r="A60" s="182">
         <v>29</v>
       </c>
-      <c r="B60" s="192"/>
-      <c r="C60" s="197"/>
+      <c r="B60" s="199"/>
+      <c r="C60" s="232"/>
       <c r="D60" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="E60" s="186"/>
+      <c r="E60" s="196"/>
       <c r="F60" s="52"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
@@ -8669,11 +8669,11 @@
       <c r="BN60" s="60"/>
     </row>
     <row r="61" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A61" s="201"/>
-      <c r="B61" s="192"/>
-      <c r="C61" s="197"/>
+      <c r="A61" s="183"/>
+      <c r="B61" s="199"/>
+      <c r="C61" s="232"/>
       <c r="D61" s="101"/>
-      <c r="E61" s="187"/>
+      <c r="E61" s="197"/>
       <c r="F61" s="52"/>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
@@ -8737,15 +8737,15 @@
       <c r="BN61" s="60"/>
     </row>
     <row r="62" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A62" s="200">
+      <c r="A62" s="182">
         <v>30</v>
       </c>
-      <c r="B62" s="192"/>
-      <c r="C62" s="197"/>
+      <c r="B62" s="199"/>
+      <c r="C62" s="232"/>
       <c r="D62" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="E62" s="186"/>
+      <c r="E62" s="196"/>
       <c r="F62" s="52"/>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
@@ -8811,11 +8811,11 @@
       <c r="BN62" s="60"/>
     </row>
     <row r="63" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A63" s="201"/>
-      <c r="B63" s="192"/>
-      <c r="C63" s="197"/>
+      <c r="A63" s="183"/>
+      <c r="B63" s="199"/>
+      <c r="C63" s="232"/>
       <c r="D63" s="101"/>
-      <c r="E63" s="187"/>
+      <c r="E63" s="197"/>
       <c r="F63" s="52"/>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
@@ -8879,15 +8879,15 @@
       <c r="BN63" s="60"/>
     </row>
     <row r="64" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A64" s="200">
+      <c r="A64" s="182">
         <v>31</v>
       </c>
-      <c r="B64" s="192"/>
-      <c r="C64" s="197"/>
-      <c r="D64" s="184" t="s">
+      <c r="B64" s="199"/>
+      <c r="C64" s="232"/>
+      <c r="D64" s="225" t="s">
         <v>50</v>
       </c>
-      <c r="E64" s="186"/>
+      <c r="E64" s="196"/>
       <c r="F64" s="52"/>
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
@@ -8953,11 +8953,11 @@
       <c r="BN64" s="60"/>
     </row>
     <row r="65" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A65" s="201"/>
-      <c r="B65" s="192"/>
-      <c r="C65" s="197"/>
-      <c r="D65" s="185"/>
-      <c r="E65" s="187"/>
+      <c r="A65" s="183"/>
+      <c r="B65" s="199"/>
+      <c r="C65" s="232"/>
+      <c r="D65" s="226"/>
+      <c r="E65" s="197"/>
       <c r="F65" s="52"/>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
@@ -9021,15 +9021,15 @@
       <c r="BN65" s="60"/>
     </row>
     <row r="66" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A66" s="200">
+      <c r="A66" s="182">
         <v>32</v>
       </c>
-      <c r="B66" s="192"/>
-      <c r="C66" s="197"/>
-      <c r="D66" s="184" t="s">
+      <c r="B66" s="199"/>
+      <c r="C66" s="232"/>
+      <c r="D66" s="225" t="s">
         <v>51</v>
       </c>
-      <c r="E66" s="186"/>
+      <c r="E66" s="196"/>
       <c r="F66" s="52"/>
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
@@ -9095,11 +9095,11 @@
       <c r="BN66" s="60"/>
     </row>
     <row r="67" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A67" s="201"/>
-      <c r="B67" s="192"/>
-      <c r="C67" s="197"/>
-      <c r="D67" s="185"/>
-      <c r="E67" s="187"/>
+      <c r="A67" s="183"/>
+      <c r="B67" s="199"/>
+      <c r="C67" s="232"/>
+      <c r="D67" s="226"/>
+      <c r="E67" s="197"/>
       <c r="F67" s="52"/>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
@@ -9163,15 +9163,15 @@
       <c r="BN67" s="60"/>
     </row>
     <row r="68" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A68" s="200">
+      <c r="A68" s="182">
         <v>33</v>
       </c>
-      <c r="B68" s="192"/>
-      <c r="C68" s="197"/>
-      <c r="D68" s="184" t="s">
+      <c r="B68" s="199"/>
+      <c r="C68" s="232"/>
+      <c r="D68" s="225" t="s">
         <v>52</v>
       </c>
-      <c r="E68" s="186"/>
+      <c r="E68" s="196"/>
       <c r="F68" s="52"/>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
@@ -9237,11 +9237,11 @@
       <c r="BN68" s="60"/>
     </row>
     <row r="69" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A69" s="201"/>
-      <c r="B69" s="192"/>
-      <c r="C69" s="197"/>
-      <c r="D69" s="185"/>
-      <c r="E69" s="187"/>
+      <c r="A69" s="183"/>
+      <c r="B69" s="199"/>
+      <c r="C69" s="232"/>
+      <c r="D69" s="226"/>
+      <c r="E69" s="197"/>
       <c r="F69" s="52"/>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
@@ -9305,15 +9305,15 @@
       <c r="BN69" s="60"/>
     </row>
     <row r="70" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A70" s="200">
+      <c r="A70" s="182">
         <v>34</v>
       </c>
-      <c r="B70" s="192"/>
-      <c r="C70" s="197"/>
-      <c r="D70" s="184" t="s">
+      <c r="B70" s="199"/>
+      <c r="C70" s="232"/>
+      <c r="D70" s="225" t="s">
         <v>53</v>
       </c>
-      <c r="E70" s="186"/>
+      <c r="E70" s="196"/>
       <c r="F70" s="52"/>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
@@ -9379,11 +9379,11 @@
       <c r="BN70" s="60"/>
     </row>
     <row r="71" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A71" s="201"/>
-      <c r="B71" s="192"/>
-      <c r="C71" s="197"/>
-      <c r="D71" s="185"/>
-      <c r="E71" s="187"/>
+      <c r="A71" s="183"/>
+      <c r="B71" s="199"/>
+      <c r="C71" s="232"/>
+      <c r="D71" s="226"/>
+      <c r="E71" s="197"/>
       <c r="F71" s="52"/>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
@@ -9447,15 +9447,15 @@
       <c r="BN71" s="60"/>
     </row>
     <row r="72" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A72" s="200">
+      <c r="A72" s="182">
         <v>35</v>
       </c>
-      <c r="B72" s="192"/>
-      <c r="C72" s="197"/>
-      <c r="D72" s="184" t="s">
+      <c r="B72" s="199"/>
+      <c r="C72" s="232"/>
+      <c r="D72" s="225" t="s">
         <v>54</v>
       </c>
-      <c r="E72" s="186"/>
+      <c r="E72" s="196"/>
       <c r="F72" s="52"/>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
@@ -9521,11 +9521,11 @@
       <c r="BN72" s="60"/>
     </row>
     <row r="73" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A73" s="201"/>
-      <c r="B73" s="192"/>
-      <c r="C73" s="197"/>
-      <c r="D73" s="185"/>
-      <c r="E73" s="187"/>
+      <c r="A73" s="183"/>
+      <c r="B73" s="199"/>
+      <c r="C73" s="232"/>
+      <c r="D73" s="226"/>
+      <c r="E73" s="197"/>
       <c r="F73" s="52"/>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
@@ -9589,15 +9589,15 @@
       <c r="BN73" s="60"/>
     </row>
     <row r="74" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A74" s="200">
+      <c r="A74" s="182">
         <v>36</v>
       </c>
-      <c r="B74" s="192"/>
-      <c r="C74" s="197"/>
-      <c r="D74" s="184" t="s">
+      <c r="B74" s="199"/>
+      <c r="C74" s="232"/>
+      <c r="D74" s="225" t="s">
         <v>55</v>
       </c>
-      <c r="E74" s="186"/>
+      <c r="E74" s="196"/>
       <c r="F74" s="52"/>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
@@ -9663,11 +9663,11 @@
       <c r="BN74" s="60"/>
     </row>
     <row r="75" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A75" s="201"/>
-      <c r="B75" s="192"/>
-      <c r="C75" s="197"/>
-      <c r="D75" s="185"/>
-      <c r="E75" s="187"/>
+      <c r="A75" s="183"/>
+      <c r="B75" s="199"/>
+      <c r="C75" s="232"/>
+      <c r="D75" s="226"/>
+      <c r="E75" s="197"/>
       <c r="F75" s="52"/>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
@@ -9731,15 +9731,15 @@
       <c r="BN75" s="60"/>
     </row>
     <row r="76" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A76" s="200">
+      <c r="A76" s="182">
         <v>37</v>
       </c>
-      <c r="B76" s="192"/>
-      <c r="C76" s="197"/>
-      <c r="D76" s="184" t="s">
+      <c r="B76" s="199"/>
+      <c r="C76" s="232"/>
+      <c r="D76" s="225" t="s">
         <v>56</v>
       </c>
-      <c r="E76" s="186"/>
+      <c r="E76" s="196"/>
       <c r="F76" s="52"/>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
@@ -9805,11 +9805,11 @@
       <c r="BN76" s="60"/>
     </row>
     <row r="77" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A77" s="201"/>
-      <c r="B77" s="192"/>
-      <c r="C77" s="197"/>
-      <c r="D77" s="185"/>
-      <c r="E77" s="187"/>
+      <c r="A77" s="183"/>
+      <c r="B77" s="199"/>
+      <c r="C77" s="232"/>
+      <c r="D77" s="226"/>
+      <c r="E77" s="197"/>
       <c r="F77" s="52"/>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
@@ -9873,15 +9873,15 @@
       <c r="BN77" s="60"/>
     </row>
     <row r="78" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A78" s="200">
+      <c r="A78" s="182">
         <v>38</v>
       </c>
-      <c r="B78" s="192"/>
-      <c r="C78" s="197"/>
-      <c r="D78" s="184" t="s">
+      <c r="B78" s="199"/>
+      <c r="C78" s="232"/>
+      <c r="D78" s="225" t="s">
         <v>57</v>
       </c>
-      <c r="E78" s="186"/>
+      <c r="E78" s="196"/>
       <c r="F78" s="52"/>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
@@ -9947,11 +9947,11 @@
       <c r="BN78" s="60"/>
     </row>
     <row r="79" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A79" s="201"/>
-      <c r="B79" s="192"/>
-      <c r="C79" s="197"/>
-      <c r="D79" s="185"/>
-      <c r="E79" s="187"/>
+      <c r="A79" s="183"/>
+      <c r="B79" s="199"/>
+      <c r="C79" s="232"/>
+      <c r="D79" s="226"/>
+      <c r="E79" s="197"/>
       <c r="F79" s="52"/>
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
@@ -10015,15 +10015,15 @@
       <c r="BN79" s="60"/>
     </row>
     <row r="80" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A80" s="200">
+      <c r="A80" s="182">
         <v>39</v>
       </c>
-      <c r="B80" s="192"/>
-      <c r="C80" s="197"/>
-      <c r="D80" s="184" t="s">
+      <c r="B80" s="199"/>
+      <c r="C80" s="232"/>
+      <c r="D80" s="225" t="s">
         <v>58</v>
       </c>
-      <c r="E80" s="186"/>
+      <c r="E80" s="196"/>
       <c r="F80" s="52"/>
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
@@ -10089,11 +10089,11 @@
       <c r="BN80" s="60"/>
     </row>
     <row r="81" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A81" s="201"/>
-      <c r="B81" s="192"/>
-      <c r="C81" s="197"/>
-      <c r="D81" s="185"/>
-      <c r="E81" s="187"/>
+      <c r="A81" s="183"/>
+      <c r="B81" s="199"/>
+      <c r="C81" s="232"/>
+      <c r="D81" s="226"/>
+      <c r="E81" s="197"/>
       <c r="F81" s="52"/>
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
@@ -10157,15 +10157,15 @@
       <c r="BN81" s="60"/>
     </row>
     <row r="82" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A82" s="200">
+      <c r="A82" s="182">
         <v>40</v>
       </c>
-      <c r="B82" s="192"/>
-      <c r="C82" s="197"/>
-      <c r="D82" s="184" t="s">
+      <c r="B82" s="199"/>
+      <c r="C82" s="232"/>
+      <c r="D82" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="E82" s="186"/>
+      <c r="E82" s="196"/>
       <c r="F82" s="52"/>
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
@@ -10231,11 +10231,11 @@
       <c r="BN82" s="60"/>
     </row>
     <row r="83" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A83" s="201"/>
-      <c r="B83" s="193"/>
-      <c r="C83" s="198"/>
-      <c r="D83" s="199"/>
-      <c r="E83" s="188"/>
+      <c r="A83" s="183"/>
+      <c r="B83" s="200"/>
+      <c r="C83" s="233"/>
+      <c r="D83" s="193"/>
+      <c r="E83" s="227"/>
       <c r="F83" s="54"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
@@ -10299,10 +10299,10 @@
       <c r="BN83" s="64"/>
     </row>
     <row r="84" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A84" s="200">
+      <c r="A84" s="182">
         <v>41</v>
       </c>
-      <c r="B84" s="191" t="s">
+      <c r="B84" s="198" t="s">
         <v>60</v>
       </c>
       <c r="C84" s="105" t="s">
@@ -10377,8 +10377,8 @@
       <c r="BN84" s="61"/>
     </row>
     <row r="85" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A85" s="201"/>
-      <c r="B85" s="192"/>
+      <c r="A85" s="183"/>
+      <c r="B85" s="199"/>
       <c r="C85" s="106"/>
       <c r="D85" s="104"/>
       <c r="E85" s="135"/>
@@ -10445,10 +10445,10 @@
       <c r="BN85" s="60"/>
     </row>
     <row r="86" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A86" s="200">
+      <c r="A86" s="182">
         <v>42</v>
       </c>
-      <c r="B86" s="192"/>
+      <c r="B86" s="199"/>
       <c r="C86" s="106"/>
       <c r="D86" s="103" t="s">
         <v>63</v>
@@ -10519,8 +10519,8 @@
       <c r="BN86" s="63"/>
     </row>
     <row r="87" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A87" s="201"/>
-      <c r="B87" s="192"/>
+      <c r="A87" s="183"/>
+      <c r="B87" s="199"/>
       <c r="C87" s="106"/>
       <c r="D87" s="104"/>
       <c r="E87" s="135"/>
@@ -10587,10 +10587,10 @@
       <c r="BN87" s="60"/>
     </row>
     <row r="88" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A88" s="200">
+      <c r="A88" s="182">
         <v>43</v>
       </c>
-      <c r="B88" s="192"/>
+      <c r="B88" s="199"/>
       <c r="C88" s="106"/>
       <c r="D88" s="103" t="s">
         <v>64</v>
@@ -10661,8 +10661,8 @@
       <c r="BN88" s="63"/>
     </row>
     <row r="89" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A89" s="201"/>
-      <c r="B89" s="192"/>
+      <c r="A89" s="183"/>
+      <c r="B89" s="199"/>
       <c r="C89" s="106"/>
       <c r="D89" s="104"/>
       <c r="E89" s="135"/>
@@ -10729,10 +10729,10 @@
       <c r="BN89" s="60"/>
     </row>
     <row r="90" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A90" s="200">
+      <c r="A90" s="182">
         <v>44</v>
       </c>
-      <c r="B90" s="192"/>
+      <c r="B90" s="199"/>
       <c r="C90" s="106"/>
       <c r="D90" s="103" t="s">
         <v>65</v>
@@ -10803,8 +10803,8 @@
       <c r="BN90" s="63"/>
     </row>
     <row r="91" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A91" s="201"/>
-      <c r="B91" s="192"/>
+      <c r="A91" s="183"/>
+      <c r="B91" s="199"/>
       <c r="C91" s="106"/>
       <c r="D91" s="104"/>
       <c r="E91" s="135"/>
@@ -10871,10 +10871,10 @@
       <c r="BN91" s="60"/>
     </row>
     <row r="92" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A92" s="200">
+      <c r="A92" s="182">
         <v>45</v>
       </c>
-      <c r="B92" s="192"/>
+      <c r="B92" s="199"/>
       <c r="C92" s="106"/>
       <c r="D92" s="103" t="s">
         <v>66</v>
@@ -10945,8 +10945,8 @@
       <c r="BN92" s="63"/>
     </row>
     <row r="93" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A93" s="201"/>
-      <c r="B93" s="192"/>
+      <c r="A93" s="183"/>
+      <c r="B93" s="199"/>
       <c r="C93" s="106"/>
       <c r="D93" s="104"/>
       <c r="E93" s="135"/>
@@ -11013,10 +11013,10 @@
       <c r="BN93" s="60"/>
     </row>
     <row r="94" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A94" s="200">
+      <c r="A94" s="182">
         <v>46</v>
       </c>
-      <c r="B94" s="192"/>
+      <c r="B94" s="199"/>
       <c r="C94" s="106"/>
       <c r="D94" s="103" t="s">
         <v>156</v>
@@ -11087,8 +11087,8 @@
       <c r="BN94" s="63"/>
     </row>
     <row r="95" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A95" s="201"/>
-      <c r="B95" s="192"/>
+      <c r="A95" s="183"/>
+      <c r="B95" s="199"/>
       <c r="C95" s="106"/>
       <c r="D95" s="104"/>
       <c r="E95" s="135"/>
@@ -11155,10 +11155,10 @@
       <c r="BN95" s="60"/>
     </row>
     <row r="96" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A96" s="200">
+      <c r="A96" s="182">
         <v>47</v>
       </c>
-      <c r="B96" s="192"/>
+      <c r="B96" s="199"/>
       <c r="C96" s="106"/>
       <c r="D96" s="103" t="s">
         <v>68</v>
@@ -11229,8 +11229,8 @@
       <c r="BN96" s="60"/>
     </row>
     <row r="97" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A97" s="201"/>
-      <c r="B97" s="192"/>
+      <c r="A97" s="183"/>
+      <c r="B97" s="199"/>
       <c r="C97" s="106"/>
       <c r="D97" s="102"/>
       <c r="E97" s="115"/>
@@ -11297,10 +11297,10 @@
       <c r="BN97" s="60"/>
     </row>
     <row r="98" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A98" s="200">
+      <c r="A98" s="182">
         <v>48</v>
       </c>
-      <c r="B98" s="192"/>
+      <c r="B98" s="199"/>
       <c r="C98" s="111" t="s">
         <v>69</v>
       </c>
@@ -11373,8 +11373,8 @@
       <c r="BN98" s="63"/>
     </row>
     <row r="99" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A99" s="201"/>
-      <c r="B99" s="192"/>
+      <c r="A99" s="183"/>
+      <c r="B99" s="199"/>
       <c r="C99" s="114"/>
       <c r="D99" s="104"/>
       <c r="E99" s="135"/>
@@ -11441,10 +11441,10 @@
       <c r="BN99" s="60"/>
     </row>
     <row r="100" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A100" s="200">
+      <c r="A100" s="182">
         <v>49</v>
       </c>
-      <c r="B100" s="192"/>
+      <c r="B100" s="199"/>
       <c r="C100" s="114"/>
       <c r="D100" s="103" t="s">
         <v>71</v>
@@ -11515,8 +11515,8 @@
       <c r="BN100" s="63"/>
     </row>
     <row r="101" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A101" s="201"/>
-      <c r="B101" s="192"/>
+      <c r="A101" s="183"/>
+      <c r="B101" s="199"/>
       <c r="C101" s="114"/>
       <c r="D101" s="104"/>
       <c r="E101" s="135"/>
@@ -11583,10 +11583,10 @@
       <c r="BN101" s="60"/>
     </row>
     <row r="102" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A102" s="200">
+      <c r="A102" s="182">
         <v>50</v>
       </c>
-      <c r="B102" s="192"/>
+      <c r="B102" s="199"/>
       <c r="C102" s="114"/>
       <c r="D102" s="103" t="s">
         <v>72</v>
@@ -11657,8 +11657,8 @@
       <c r="BN102" s="63"/>
     </row>
     <row r="103" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A103" s="201"/>
-      <c r="B103" s="192"/>
+      <c r="A103" s="183"/>
+      <c r="B103" s="199"/>
       <c r="C103" s="114"/>
       <c r="D103" s="104"/>
       <c r="E103" s="135"/>
@@ -11725,10 +11725,10 @@
       <c r="BN103" s="60"/>
     </row>
     <row r="104" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A104" s="200">
+      <c r="A104" s="182">
         <v>51</v>
       </c>
-      <c r="B104" s="192"/>
+      <c r="B104" s="199"/>
       <c r="C104" s="114"/>
       <c r="D104" s="103" t="s">
         <v>65</v>
@@ -11799,8 +11799,8 @@
       <c r="BN104" s="63"/>
     </row>
     <row r="105" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A105" s="201"/>
-      <c r="B105" s="192"/>
+      <c r="A105" s="183"/>
+      <c r="B105" s="199"/>
       <c r="C105" s="114"/>
       <c r="D105" s="104"/>
       <c r="E105" s="135"/>
@@ -11867,10 +11867,10 @@
       <c r="BN105" s="60"/>
     </row>
     <row r="106" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A106" s="200">
+      <c r="A106" s="182">
         <v>52</v>
       </c>
-      <c r="B106" s="192"/>
+      <c r="B106" s="199"/>
       <c r="C106" s="114"/>
       <c r="D106" s="103" t="s">
         <v>73</v>
@@ -11941,8 +11941,8 @@
       <c r="BN106" s="60"/>
     </row>
     <row r="107" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A107" s="201"/>
-      <c r="B107" s="192"/>
+      <c r="A107" s="183"/>
+      <c r="B107" s="199"/>
       <c r="C107" s="114"/>
       <c r="D107" s="104"/>
       <c r="E107" s="135"/>
@@ -12009,10 +12009,10 @@
       <c r="BN107" s="60"/>
     </row>
     <row r="108" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A108" s="200">
+      <c r="A108" s="182">
         <v>53</v>
       </c>
-      <c r="B108" s="192"/>
+      <c r="B108" s="199"/>
       <c r="C108" s="114"/>
       <c r="D108" s="103" t="s">
         <v>74</v>
@@ -12083,8 +12083,8 @@
       <c r="BN108" s="60"/>
     </row>
     <row r="109" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A109" s="201"/>
-      <c r="B109" s="192"/>
+      <c r="A109" s="183"/>
+      <c r="B109" s="199"/>
       <c r="C109" s="114"/>
       <c r="D109" s="104"/>
       <c r="E109" s="135"/>
@@ -12151,10 +12151,10 @@
       <c r="BN109" s="60"/>
     </row>
     <row r="110" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A110" s="200">
+      <c r="A110" s="182">
         <v>54</v>
       </c>
-      <c r="B110" s="192"/>
+      <c r="B110" s="199"/>
       <c r="C110" s="114"/>
       <c r="D110" s="103" t="s">
         <v>75</v>
@@ -12225,8 +12225,8 @@
       <c r="BN110" s="60"/>
     </row>
     <row r="111" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A111" s="201"/>
-      <c r="B111" s="192"/>
+      <c r="A111" s="183"/>
+      <c r="B111" s="199"/>
       <c r="C111" s="114"/>
       <c r="D111" s="104"/>
       <c r="E111" s="135"/>
@@ -12293,10 +12293,10 @@
       <c r="BN111" s="60"/>
     </row>
     <row r="112" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A112" s="200">
+      <c r="A112" s="182">
         <v>55</v>
       </c>
-      <c r="B112" s="192"/>
+      <c r="B112" s="199"/>
       <c r="C112" s="114"/>
       <c r="D112" s="107" t="s">
         <v>76</v>
@@ -12367,8 +12367,8 @@
       <c r="BN112" s="60"/>
     </row>
     <row r="113" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A113" s="201"/>
-      <c r="B113" s="192"/>
+      <c r="A113" s="183"/>
+      <c r="B113" s="199"/>
       <c r="C113" s="114"/>
       <c r="D113" s="108"/>
       <c r="E113" s="109"/>
@@ -12435,10 +12435,10 @@
       <c r="BN113" s="60"/>
     </row>
     <row r="114" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A114" s="200">
+      <c r="A114" s="182">
         <v>56</v>
       </c>
-      <c r="B114" s="192"/>
+      <c r="B114" s="199"/>
       <c r="C114" s="114"/>
       <c r="D114" s="103" t="s">
         <v>77</v>
@@ -12509,8 +12509,8 @@
       <c r="BN114" s="60"/>
     </row>
     <row r="115" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A115" s="201"/>
-      <c r="B115" s="192"/>
+      <c r="A115" s="183"/>
+      <c r="B115" s="199"/>
       <c r="C115" s="114"/>
       <c r="D115" s="104"/>
       <c r="E115" s="109"/>
@@ -12577,10 +12577,10 @@
       <c r="BN115" s="60"/>
     </row>
     <row r="116" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A116" s="200">
+      <c r="A116" s="182">
         <v>57</v>
       </c>
-      <c r="B116" s="192"/>
+      <c r="B116" s="199"/>
       <c r="C116" s="114"/>
       <c r="D116" s="103" t="s">
         <v>156</v>
@@ -12651,8 +12651,8 @@
       <c r="BN116" s="60"/>
     </row>
     <row r="117" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A117" s="201"/>
-      <c r="B117" s="192"/>
+      <c r="A117" s="183"/>
+      <c r="B117" s="199"/>
       <c r="C117" s="114"/>
       <c r="D117" s="104"/>
       <c r="E117" s="109"/>
@@ -12719,10 +12719,10 @@
       <c r="BN117" s="60"/>
     </row>
     <row r="118" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A118" s="200">
+      <c r="A118" s="182">
         <v>58</v>
       </c>
-      <c r="B118" s="192"/>
+      <c r="B118" s="199"/>
       <c r="C118" s="114"/>
       <c r="D118" s="103" t="s">
         <v>78</v>
@@ -12793,8 +12793,8 @@
       <c r="BN118" s="60"/>
     </row>
     <row r="119" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A119" s="201"/>
-      <c r="B119" s="192"/>
+      <c r="A119" s="183"/>
+      <c r="B119" s="199"/>
       <c r="C119" s="114"/>
       <c r="D119" s="104"/>
       <c r="E119" s="109"/>
@@ -12861,10 +12861,10 @@
       <c r="BN119" s="60"/>
     </row>
     <row r="120" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A120" s="200">
+      <c r="A120" s="182">
         <v>59</v>
       </c>
-      <c r="B120" s="192"/>
+      <c r="B120" s="199"/>
       <c r="C120" s="114"/>
       <c r="D120" s="103" t="s">
         <v>79</v>
@@ -12935,8 +12935,8 @@
       <c r="BN120" s="60"/>
     </row>
     <row r="121" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A121" s="201"/>
-      <c r="B121" s="192"/>
+      <c r="A121" s="183"/>
+      <c r="B121" s="199"/>
       <c r="C121" s="114"/>
       <c r="D121" s="104"/>
       <c r="E121" s="109"/>
@@ -13003,10 +13003,10 @@
       <c r="BN121" s="60"/>
     </row>
     <row r="122" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A122" s="200">
+      <c r="A122" s="182">
         <v>60</v>
       </c>
-      <c r="B122" s="192"/>
+      <c r="B122" s="199"/>
       <c r="C122" s="114"/>
       <c r="D122" s="103" t="s">
         <v>80</v>
@@ -13077,8 +13077,8 @@
       <c r="BN122" s="60"/>
     </row>
     <row r="123" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A123" s="201"/>
-      <c r="B123" s="192"/>
+      <c r="A123" s="183"/>
+      <c r="B123" s="199"/>
       <c r="C123" s="114"/>
       <c r="D123" s="104"/>
       <c r="E123" s="109"/>
@@ -13145,10 +13145,10 @@
       <c r="BN123" s="60"/>
     </row>
     <row r="124" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A124" s="200">
+      <c r="A124" s="182">
         <v>61</v>
       </c>
-      <c r="B124" s="192"/>
+      <c r="B124" s="199"/>
       <c r="C124" s="114"/>
       <c r="D124" s="103" t="s">
         <v>81</v>
@@ -13219,8 +13219,8 @@
       <c r="BN124" s="60"/>
     </row>
     <row r="125" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A125" s="201"/>
-      <c r="B125" s="192"/>
+      <c r="A125" s="183"/>
+      <c r="B125" s="199"/>
       <c r="C125" s="114"/>
       <c r="D125" s="104"/>
       <c r="E125" s="109"/>
@@ -13287,10 +13287,10 @@
       <c r="BN125" s="60"/>
     </row>
     <row r="126" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A126" s="200">
+      <c r="A126" s="182">
         <v>62</v>
       </c>
-      <c r="B126" s="192"/>
+      <c r="B126" s="199"/>
       <c r="C126" s="114"/>
       <c r="D126" s="103" t="s">
         <v>82</v>
@@ -13361,8 +13361,8 @@
       <c r="BN126" s="60"/>
     </row>
     <row r="127" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A127" s="201"/>
-      <c r="B127" s="192"/>
+      <c r="A127" s="183"/>
+      <c r="B127" s="199"/>
       <c r="C127" s="114"/>
       <c r="D127" s="104"/>
       <c r="E127" s="109"/>
@@ -13429,10 +13429,10 @@
       <c r="BN127" s="60"/>
     </row>
     <row r="128" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A128" s="200">
+      <c r="A128" s="182">
         <v>63</v>
       </c>
-      <c r="B128" s="192"/>
+      <c r="B128" s="199"/>
       <c r="C128" s="114"/>
       <c r="D128" s="103" t="s">
         <v>83</v>
@@ -13503,8 +13503,8 @@
       <c r="BN128" s="60"/>
     </row>
     <row r="129" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A129" s="201"/>
-      <c r="B129" s="192"/>
+      <c r="A129" s="183"/>
+      <c r="B129" s="199"/>
       <c r="C129" s="114"/>
       <c r="D129" s="104"/>
       <c r="E129" s="109"/>
@@ -13571,10 +13571,10 @@
       <c r="BN129" s="63"/>
     </row>
     <row r="130" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A130" s="200">
+      <c r="A130" s="182">
         <v>64</v>
       </c>
-      <c r="B130" s="192"/>
+      <c r="B130" s="199"/>
       <c r="C130" s="114"/>
       <c r="D130" s="103" t="s">
         <v>84</v>
@@ -13645,8 +13645,8 @@
       <c r="BN130" s="59"/>
     </row>
     <row r="131" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A131" s="201"/>
-      <c r="B131" s="192"/>
+      <c r="A131" s="183"/>
+      <c r="B131" s="199"/>
       <c r="C131" s="114"/>
       <c r="D131" s="104"/>
       <c r="E131" s="109"/>
@@ -13713,10 +13713,10 @@
       <c r="BN131" s="60"/>
     </row>
     <row r="132" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A132" s="200">
+      <c r="A132" s="182">
         <v>65</v>
       </c>
-      <c r="B132" s="192"/>
+      <c r="B132" s="199"/>
       <c r="C132" s="114"/>
       <c r="D132" s="103" t="s">
         <v>85</v>
@@ -13787,8 +13787,8 @@
       <c r="BN132" s="63"/>
     </row>
     <row r="133" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A133" s="201"/>
-      <c r="B133" s="192"/>
+      <c r="A133" s="183"/>
+      <c r="B133" s="199"/>
       <c r="C133" s="114"/>
       <c r="D133" s="104"/>
       <c r="E133" s="94"/>
@@ -13855,10 +13855,10 @@
       <c r="BN133" s="60"/>
     </row>
     <row r="134" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A134" s="200">
+      <c r="A134" s="182">
         <v>66</v>
       </c>
-      <c r="B134" s="192"/>
+      <c r="B134" s="199"/>
       <c r="C134" s="114"/>
       <c r="D134" s="103" t="s">
         <v>86</v>
@@ -13929,8 +13929,8 @@
       <c r="BN134" s="63"/>
     </row>
     <row r="135" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A135" s="201"/>
-      <c r="B135" s="192"/>
+      <c r="A135" s="183"/>
+      <c r="B135" s="199"/>
       <c r="C135" s="114"/>
       <c r="D135" s="104"/>
       <c r="E135" s="94"/>
@@ -13997,10 +13997,10 @@
       <c r="BN135" s="60"/>
     </row>
     <row r="136" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A136" s="200">
+      <c r="A136" s="182">
         <v>67</v>
       </c>
-      <c r="B136" s="192"/>
+      <c r="B136" s="199"/>
       <c r="C136" s="114"/>
       <c r="D136" s="103" t="s">
         <v>87</v>
@@ -14071,8 +14071,8 @@
       <c r="BN136" s="63"/>
     </row>
     <row r="137" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A137" s="201"/>
-      <c r="B137" s="192"/>
+      <c r="A137" s="183"/>
+      <c r="B137" s="199"/>
       <c r="C137" s="114"/>
       <c r="D137" s="104"/>
       <c r="E137" s="94"/>
@@ -14139,10 +14139,10 @@
       <c r="BN137" s="60"/>
     </row>
     <row r="138" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A138" s="200">
+      <c r="A138" s="182">
         <v>68</v>
       </c>
-      <c r="B138" s="192"/>
+      <c r="B138" s="199"/>
       <c r="C138" s="114"/>
       <c r="D138" s="103" t="s">
         <v>88</v>
@@ -14213,8 +14213,8 @@
       <c r="BN138" s="63"/>
     </row>
     <row r="139" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A139" s="201"/>
-      <c r="B139" s="192"/>
+      <c r="A139" s="183"/>
+      <c r="B139" s="199"/>
       <c r="C139" s="114"/>
       <c r="D139" s="104"/>
       <c r="E139" s="94"/>
@@ -14281,10 +14281,10 @@
       <c r="BN139" s="60"/>
     </row>
     <row r="140" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A140" s="200">
+      <c r="A140" s="182">
         <v>69</v>
       </c>
-      <c r="B140" s="192"/>
+      <c r="B140" s="199"/>
       <c r="C140" s="114"/>
       <c r="D140" s="103" t="s">
         <v>89</v>
@@ -14355,8 +14355,8 @@
       <c r="BN140" s="63"/>
     </row>
     <row r="141" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A141" s="201"/>
-      <c r="B141" s="192"/>
+      <c r="A141" s="183"/>
+      <c r="B141" s="199"/>
       <c r="C141" s="114"/>
       <c r="D141" s="104"/>
       <c r="E141" s="94"/>
@@ -14423,10 +14423,10 @@
       <c r="BN141" s="60"/>
     </row>
     <row r="142" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A142" s="200">
+      <c r="A142" s="182">
         <v>70</v>
       </c>
-      <c r="B142" s="192"/>
+      <c r="B142" s="199"/>
       <c r="C142" s="111" t="s">
         <v>152</v>
       </c>
@@ -14499,8 +14499,8 @@
       <c r="BN142" s="63"/>
     </row>
     <row r="143" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A143" s="201"/>
-      <c r="B143" s="192"/>
+      <c r="A143" s="183"/>
+      <c r="B143" s="199"/>
       <c r="C143" s="114"/>
       <c r="D143" s="133"/>
       <c r="E143" s="109"/>
@@ -14567,10 +14567,10 @@
       <c r="BN143" s="60"/>
     </row>
     <row r="144" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A144" s="200">
+      <c r="A144" s="182">
         <v>71</v>
       </c>
-      <c r="B144" s="192"/>
+      <c r="B144" s="199"/>
       <c r="C144" s="114"/>
       <c r="D144" s="136" t="s">
         <v>153</v>
@@ -14641,8 +14641,8 @@
       <c r="BN144" s="60"/>
     </row>
     <row r="145" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A145" s="201"/>
-      <c r="B145" s="192"/>
+      <c r="A145" s="183"/>
+      <c r="B145" s="199"/>
       <c r="C145" s="114"/>
       <c r="D145" s="137"/>
       <c r="E145" s="115"/>
@@ -14709,12 +14709,12 @@
       <c r="BN145" s="60"/>
     </row>
     <row r="146" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A146" s="200">
+      <c r="A146" s="182">
         <v>72</v>
       </c>
-      <c r="B146" s="192"/>
+      <c r="B146" s="199"/>
       <c r="C146" s="114"/>
-      <c r="D146" s="182" t="s">
+      <c r="D146" s="223" t="s">
         <v>148</v>
       </c>
       <c r="E146" s="96"/>
@@ -14783,10 +14783,10 @@
       <c r="BN146" s="63"/>
     </row>
     <row r="147" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A147" s="201"/>
-      <c r="B147" s="192"/>
+      <c r="A147" s="183"/>
+      <c r="B147" s="199"/>
       <c r="C147" s="114"/>
-      <c r="D147" s="183"/>
+      <c r="D147" s="224"/>
       <c r="E147" s="109"/>
       <c r="F147" s="52"/>
       <c r="G147" s="25"/>
@@ -14851,12 +14851,12 @@
       <c r="BN147" s="60"/>
     </row>
     <row r="148" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A148" s="200">
+      <c r="A148" s="182">
         <v>73</v>
       </c>
-      <c r="B148" s="192"/>
+      <c r="B148" s="199"/>
       <c r="C148" s="114"/>
-      <c r="D148" s="184" t="s">
+      <c r="D148" s="225" t="s">
         <v>39</v>
       </c>
       <c r="E148" s="96"/>
@@ -14925,10 +14925,10 @@
       <c r="BN148" s="63"/>
     </row>
     <row r="149" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A149" s="201"/>
-      <c r="B149" s="192"/>
+      <c r="A149" s="183"/>
+      <c r="B149" s="199"/>
       <c r="C149" s="114"/>
-      <c r="D149" s="185"/>
+      <c r="D149" s="226"/>
       <c r="E149" s="109"/>
       <c r="F149" s="52"/>
       <c r="G149" s="25"/>
@@ -14993,10 +14993,10 @@
       <c r="BN149" s="60"/>
     </row>
     <row r="150" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A150" s="200">
+      <c r="A150" s="182">
         <v>74</v>
       </c>
-      <c r="B150" s="192"/>
+      <c r="B150" s="199"/>
       <c r="C150" s="114"/>
       <c r="D150" s="132" t="s">
         <v>40</v>
@@ -15067,8 +15067,8 @@
       <c r="BN150" s="63"/>
     </row>
     <row r="151" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A151" s="201"/>
-      <c r="B151" s="192"/>
+      <c r="A151" s="183"/>
+      <c r="B151" s="199"/>
       <c r="C151" s="114"/>
       <c r="D151" s="133"/>
       <c r="E151" s="109"/>
@@ -15135,10 +15135,10 @@
       <c r="BN151" s="60"/>
     </row>
     <row r="152" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A152" s="200">
+      <c r="A152" s="182">
         <v>75</v>
       </c>
-      <c r="B152" s="192"/>
+      <c r="B152" s="199"/>
       <c r="C152" s="114"/>
       <c r="D152" s="132" t="s">
         <v>41</v>
@@ -15209,8 +15209,8 @@
       <c r="BN152" s="60"/>
     </row>
     <row r="153" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A153" s="201"/>
-      <c r="B153" s="192"/>
+      <c r="A153" s="183"/>
+      <c r="B153" s="199"/>
       <c r="C153" s="114"/>
       <c r="D153" s="133"/>
       <c r="E153" s="109"/>
@@ -15277,10 +15277,10 @@
       <c r="BN153" s="60"/>
     </row>
     <row r="154" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A154" s="200">
+      <c r="A154" s="182">
         <v>76</v>
       </c>
-      <c r="B154" s="192"/>
+      <c r="B154" s="199"/>
       <c r="C154" s="114"/>
       <c r="D154" s="132" t="s">
         <v>42</v>
@@ -15351,8 +15351,8 @@
       <c r="BN154" s="60"/>
     </row>
     <row r="155" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A155" s="201"/>
-      <c r="B155" s="192"/>
+      <c r="A155" s="183"/>
+      <c r="B155" s="199"/>
       <c r="C155" s="114"/>
       <c r="D155" s="133"/>
       <c r="E155" s="109"/>
@@ -15419,10 +15419,10 @@
       <c r="BN155" s="60"/>
     </row>
     <row r="156" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A156" s="200">
+      <c r="A156" s="182">
         <v>77</v>
       </c>
-      <c r="B156" s="192"/>
+      <c r="B156" s="199"/>
       <c r="C156" s="114"/>
       <c r="D156" s="132" t="s">
         <v>43</v>
@@ -15493,8 +15493,8 @@
       <c r="BN156" s="60"/>
     </row>
     <row r="157" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A157" s="201"/>
-      <c r="B157" s="192"/>
+      <c r="A157" s="183"/>
+      <c r="B157" s="199"/>
       <c r="C157" s="114"/>
       <c r="D157" s="133"/>
       <c r="E157" s="109"/>
@@ -15561,10 +15561,10 @@
       <c r="BN157" s="60"/>
     </row>
     <row r="158" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A158" s="200">
+      <c r="A158" s="182">
         <v>78</v>
       </c>
-      <c r="B158" s="192"/>
+      <c r="B158" s="199"/>
       <c r="C158" s="114"/>
       <c r="D158" s="132" t="s">
         <v>44</v>
@@ -15635,8 +15635,8 @@
       <c r="BN158" s="60"/>
     </row>
     <row r="159" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A159" s="201"/>
-      <c r="B159" s="192"/>
+      <c r="A159" s="183"/>
+      <c r="B159" s="199"/>
       <c r="C159" s="114"/>
       <c r="D159" s="133"/>
       <c r="E159" s="109"/>
@@ -15703,10 +15703,10 @@
       <c r="BN159" s="60"/>
     </row>
     <row r="160" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A160" s="200">
+      <c r="A160" s="182">
         <v>79</v>
       </c>
-      <c r="B160" s="192"/>
+      <c r="B160" s="199"/>
       <c r="C160" s="114"/>
       <c r="D160" s="132" t="s">
         <v>45</v>
@@ -15777,8 +15777,8 @@
       <c r="BN160" s="60"/>
     </row>
     <row r="161" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A161" s="201"/>
-      <c r="B161" s="192"/>
+      <c r="A161" s="183"/>
+      <c r="B161" s="199"/>
       <c r="C161" s="114"/>
       <c r="D161" s="133"/>
       <c r="E161" s="109"/>
@@ -15845,10 +15845,10 @@
       <c r="BN161" s="60"/>
     </row>
     <row r="162" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A162" s="200">
+      <c r="A162" s="182">
         <v>80</v>
       </c>
-      <c r="B162" s="192"/>
+      <c r="B162" s="199"/>
       <c r="C162" s="114"/>
       <c r="D162" s="132" t="s">
         <v>46</v>
@@ -15919,8 +15919,8 @@
       <c r="BN162" s="60"/>
     </row>
     <row r="163" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A163" s="201"/>
-      <c r="B163" s="192"/>
+      <c r="A163" s="183"/>
+      <c r="B163" s="199"/>
       <c r="C163" s="114"/>
       <c r="D163" s="133"/>
       <c r="E163" s="109"/>
@@ -15987,10 +15987,10 @@
       <c r="BN163" s="60"/>
     </row>
     <row r="164" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A164" s="200">
+      <c r="A164" s="182">
         <v>81</v>
       </c>
-      <c r="B164" s="192"/>
+      <c r="B164" s="199"/>
       <c r="C164" s="114"/>
       <c r="D164" s="132" t="s">
         <v>47</v>
@@ -16061,8 +16061,8 @@
       <c r="BN164" s="60"/>
     </row>
     <row r="165" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A165" s="201"/>
-      <c r="B165" s="192"/>
+      <c r="A165" s="183"/>
+      <c r="B165" s="199"/>
       <c r="C165" s="114"/>
       <c r="D165" s="133"/>
       <c r="E165" s="109"/>
@@ -16129,10 +16129,10 @@
       <c r="BN165" s="60"/>
     </row>
     <row r="166" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A166" s="200">
+      <c r="A166" s="182">
         <v>82</v>
       </c>
-      <c r="B166" s="192"/>
+      <c r="B166" s="199"/>
       <c r="C166" s="114"/>
       <c r="D166" s="132" t="s">
         <v>48</v>
@@ -16203,8 +16203,8 @@
       <c r="BN166" s="60"/>
     </row>
     <row r="167" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A167" s="201"/>
-      <c r="B167" s="192"/>
+      <c r="A167" s="183"/>
+      <c r="B167" s="199"/>
       <c r="C167" s="114"/>
       <c r="D167" s="133"/>
       <c r="E167" s="109"/>
@@ -16271,10 +16271,10 @@
       <c r="BN167" s="60"/>
     </row>
     <row r="168" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A168" s="200">
+      <c r="A168" s="182">
         <v>83</v>
       </c>
-      <c r="B168" s="192"/>
+      <c r="B168" s="199"/>
       <c r="C168" s="114"/>
       <c r="D168" s="132" t="s">
         <v>49</v>
@@ -16345,8 +16345,8 @@
       <c r="BN168" s="60"/>
     </row>
     <row r="169" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A169" s="201"/>
-      <c r="B169" s="192"/>
+      <c r="A169" s="183"/>
+      <c r="B169" s="199"/>
       <c r="C169" s="114"/>
       <c r="D169" s="133"/>
       <c r="E169" s="109"/>
@@ -16413,10 +16413,10 @@
       <c r="BN169" s="60"/>
     </row>
     <row r="170" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A170" s="200">
+      <c r="A170" s="182">
         <v>84</v>
       </c>
-      <c r="B170" s="192"/>
+      <c r="B170" s="199"/>
       <c r="C170" s="114"/>
       <c r="D170" s="132" t="s">
         <v>50</v>
@@ -16487,8 +16487,8 @@
       <c r="BN170" s="60"/>
     </row>
     <row r="171" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A171" s="201"/>
-      <c r="B171" s="192"/>
+      <c r="A171" s="183"/>
+      <c r="B171" s="199"/>
       <c r="C171" s="114"/>
       <c r="D171" s="133"/>
       <c r="E171" s="109"/>
@@ -16555,10 +16555,10 @@
       <c r="BN171" s="60"/>
     </row>
     <row r="172" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A172" s="200">
+      <c r="A172" s="182">
         <v>85</v>
       </c>
-      <c r="B172" s="192"/>
+      <c r="B172" s="199"/>
       <c r="C172" s="114"/>
       <c r="D172" s="132" t="s">
         <v>51</v>
@@ -16629,8 +16629,8 @@
       <c r="BN172" s="60"/>
     </row>
     <row r="173" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A173" s="201"/>
-      <c r="B173" s="192"/>
+      <c r="A173" s="183"/>
+      <c r="B173" s="199"/>
       <c r="C173" s="114"/>
       <c r="D173" s="133"/>
       <c r="E173" s="109"/>
@@ -16697,10 +16697,10 @@
       <c r="BN173" s="60"/>
     </row>
     <row r="174" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A174" s="200">
+      <c r="A174" s="182">
         <v>86</v>
       </c>
-      <c r="B174" s="192"/>
+      <c r="B174" s="199"/>
       <c r="C174" s="114"/>
       <c r="D174" s="132" t="s">
         <v>52</v>
@@ -16771,8 +16771,8 @@
       <c r="BN174" s="60"/>
     </row>
     <row r="175" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A175" s="201"/>
-      <c r="B175" s="192"/>
+      <c r="A175" s="183"/>
+      <c r="B175" s="199"/>
       <c r="C175" s="114"/>
       <c r="D175" s="133"/>
       <c r="E175" s="109"/>
@@ -16839,10 +16839,10 @@
       <c r="BN175" s="63"/>
     </row>
     <row r="176" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A176" s="200">
+      <c r="A176" s="182">
         <v>87</v>
       </c>
-      <c r="B176" s="192"/>
+      <c r="B176" s="199"/>
       <c r="C176" s="114"/>
       <c r="D176" s="132" t="s">
         <v>53</v>
@@ -16913,8 +16913,8 @@
       <c r="BN176" s="59"/>
     </row>
     <row r="177" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A177" s="201"/>
-      <c r="B177" s="192"/>
+      <c r="A177" s="183"/>
+      <c r="B177" s="199"/>
       <c r="C177" s="114"/>
       <c r="D177" s="133"/>
       <c r="E177" s="109"/>
@@ -16981,10 +16981,10 @@
       <c r="BN177" s="60"/>
     </row>
     <row r="178" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A178" s="200">
+      <c r="A178" s="182">
         <v>88</v>
       </c>
-      <c r="B178" s="192"/>
+      <c r="B178" s="199"/>
       <c r="C178" s="114"/>
       <c r="D178" s="132" t="s">
         <v>54</v>
@@ -17055,8 +17055,8 @@
       <c r="BN178" s="63"/>
     </row>
     <row r="179" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A179" s="201"/>
-      <c r="B179" s="192"/>
+      <c r="A179" s="183"/>
+      <c r="B179" s="199"/>
       <c r="C179" s="114"/>
       <c r="D179" s="133"/>
       <c r="E179" s="94"/>
@@ -17123,10 +17123,10 @@
       <c r="BN179" s="60"/>
     </row>
     <row r="180" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A180" s="200">
+      <c r="A180" s="182">
         <v>89</v>
       </c>
-      <c r="B180" s="192"/>
+      <c r="B180" s="199"/>
       <c r="C180" s="114"/>
       <c r="D180" s="132" t="s">
         <v>55</v>
@@ -17197,8 +17197,8 @@
       <c r="BN180" s="63"/>
     </row>
     <row r="181" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A181" s="201"/>
-      <c r="B181" s="192"/>
+      <c r="A181" s="183"/>
+      <c r="B181" s="199"/>
       <c r="C181" s="114"/>
       <c r="D181" s="133"/>
       <c r="E181" s="94"/>
@@ -17265,10 +17265,10 @@
       <c r="BN181" s="60"/>
     </row>
     <row r="182" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A182" s="200">
+      <c r="A182" s="182">
         <v>90</v>
       </c>
-      <c r="B182" s="192"/>
+      <c r="B182" s="199"/>
       <c r="C182" s="114"/>
       <c r="D182" s="132" t="s">
         <v>56</v>
@@ -17339,8 +17339,8 @@
       <c r="BN182" s="63"/>
     </row>
     <row r="183" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A183" s="201"/>
-      <c r="B183" s="192"/>
+      <c r="A183" s="183"/>
+      <c r="B183" s="199"/>
       <c r="C183" s="114"/>
       <c r="D183" s="133"/>
       <c r="E183" s="94"/>
@@ -17407,10 +17407,10 @@
       <c r="BN183" s="60"/>
     </row>
     <row r="184" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A184" s="200">
+      <c r="A184" s="182">
         <v>91</v>
       </c>
-      <c r="B184" s="192"/>
+      <c r="B184" s="199"/>
       <c r="C184" s="114"/>
       <c r="D184" s="132" t="s">
         <v>57</v>
@@ -17481,8 +17481,8 @@
       <c r="BN184" s="63"/>
     </row>
     <row r="185" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A185" s="201"/>
-      <c r="B185" s="192"/>
+      <c r="A185" s="183"/>
+      <c r="B185" s="199"/>
       <c r="C185" s="114"/>
       <c r="D185" s="133"/>
       <c r="E185" s="94"/>
@@ -17549,11 +17549,11 @@
       <c r="BN185" s="60"/>
     </row>
     <row r="186" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A186" s="200">
+      <c r="A186" s="182">
         <v>92</v>
       </c>
-      <c r="B186" s="192"/>
-      <c r="C186" s="184" t="s">
+      <c r="B186" s="199"/>
+      <c r="C186" s="225" t="s">
         <v>90</v>
       </c>
       <c r="D186" s="103" t="s">
@@ -17627,9 +17627,9 @@
       <c r="BN186" s="63"/>
     </row>
     <row r="187" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A187" s="201"/>
-      <c r="B187" s="192"/>
-      <c r="C187" s="190"/>
+      <c r="A187" s="183"/>
+      <c r="B187" s="199"/>
+      <c r="C187" s="192"/>
       <c r="D187" s="104"/>
       <c r="E187" s="109"/>
       <c r="F187" s="52"/>
@@ -17695,11 +17695,11 @@
       <c r="BN187" s="60"/>
     </row>
     <row r="188" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A188" s="200">
+      <c r="A188" s="182">
         <v>93</v>
       </c>
-      <c r="B188" s="192"/>
-      <c r="C188" s="190"/>
+      <c r="B188" s="199"/>
+      <c r="C188" s="192"/>
       <c r="D188" s="103" t="s">
         <v>63</v>
       </c>
@@ -17771,9 +17771,9 @@
       <c r="BN188" s="63"/>
     </row>
     <row r="189" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A189" s="201"/>
-      <c r="B189" s="192"/>
-      <c r="C189" s="190"/>
+      <c r="A189" s="183"/>
+      <c r="B189" s="199"/>
+      <c r="C189" s="192"/>
       <c r="D189" s="104"/>
       <c r="E189" s="109"/>
       <c r="F189" s="52"/>
@@ -17839,11 +17839,11 @@
       <c r="BN189" s="60"/>
     </row>
     <row r="190" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A190" s="200">
+      <c r="A190" s="182">
         <v>94</v>
       </c>
-      <c r="B190" s="192"/>
-      <c r="C190" s="190"/>
+      <c r="B190" s="199"/>
+      <c r="C190" s="192"/>
       <c r="D190" s="103" t="s">
         <v>65</v>
       </c>
@@ -17913,9 +17913,9 @@
       <c r="BN190" s="63"/>
     </row>
     <row r="191" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A191" s="201"/>
-      <c r="B191" s="192"/>
-      <c r="C191" s="190"/>
+      <c r="A191" s="183"/>
+      <c r="B191" s="199"/>
+      <c r="C191" s="192"/>
       <c r="D191" s="104"/>
       <c r="E191" s="109"/>
       <c r="F191" s="52"/>
@@ -17981,11 +17981,11 @@
       <c r="BN191" s="60"/>
     </row>
     <row r="192" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A192" s="200">
+      <c r="A192" s="182">
         <v>95</v>
       </c>
-      <c r="B192" s="192"/>
-      <c r="C192" s="190"/>
+      <c r="B192" s="199"/>
+      <c r="C192" s="192"/>
       <c r="D192" s="103" t="s">
         <v>66</v>
       </c>
@@ -18055,9 +18055,9 @@
       <c r="BN192" s="63"/>
     </row>
     <row r="193" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A193" s="201"/>
-      <c r="B193" s="192"/>
-      <c r="C193" s="190"/>
+      <c r="A193" s="183"/>
+      <c r="B193" s="199"/>
+      <c r="C193" s="192"/>
       <c r="D193" s="104"/>
       <c r="E193" s="109"/>
       <c r="F193" s="52"/>
@@ -18123,11 +18123,11 @@
       <c r="BN193" s="60"/>
     </row>
     <row r="194" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A194" s="200">
+      <c r="A194" s="182">
         <v>96</v>
       </c>
-      <c r="B194" s="192"/>
-      <c r="C194" s="190"/>
+      <c r="B194" s="199"/>
+      <c r="C194" s="192"/>
       <c r="D194" s="107" t="s">
         <v>156</v>
       </c>
@@ -18197,9 +18197,9 @@
       <c r="BN194" s="60"/>
     </row>
     <row r="195" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A195" s="201"/>
-      <c r="B195" s="192"/>
-      <c r="C195" s="190"/>
+      <c r="A195" s="183"/>
+      <c r="B195" s="199"/>
+      <c r="C195" s="192"/>
       <c r="D195" s="108"/>
       <c r="E195" s="109"/>
       <c r="F195" s="52"/>
@@ -18265,11 +18265,11 @@
       <c r="BN195" s="60"/>
     </row>
     <row r="196" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A196" s="200">
+      <c r="A196" s="182">
         <v>97</v>
       </c>
-      <c r="B196" s="192"/>
-      <c r="C196" s="190"/>
+      <c r="B196" s="199"/>
+      <c r="C196" s="192"/>
       <c r="D196" s="103" t="s">
         <v>68</v>
       </c>
@@ -18339,9 +18339,9 @@
       <c r="BN196" s="60"/>
     </row>
     <row r="197" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A197" s="201"/>
-      <c r="B197" s="192"/>
-      <c r="C197" s="195"/>
+      <c r="A197" s="183"/>
+      <c r="B197" s="199"/>
+      <c r="C197" s="230"/>
       <c r="D197" s="104"/>
       <c r="E197" s="109"/>
       <c r="F197" s="52"/>
@@ -18407,11 +18407,11 @@
       <c r="BN197" s="60"/>
     </row>
     <row r="198" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A198" s="200">
+      <c r="A198" s="182">
         <v>98</v>
       </c>
-      <c r="B198" s="192"/>
-      <c r="C198" s="189" t="s">
+      <c r="B198" s="199"/>
+      <c r="C198" s="228" t="s">
         <v>91</v>
       </c>
       <c r="D198" s="103" t="s">
@@ -18485,9 +18485,9 @@
       <c r="BN198" s="63"/>
     </row>
     <row r="199" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A199" s="201"/>
-      <c r="B199" s="193"/>
-      <c r="C199" s="190"/>
+      <c r="A199" s="183"/>
+      <c r="B199" s="200"/>
+      <c r="C199" s="192"/>
       <c r="D199" s="104"/>
       <c r="E199" s="109"/>
       <c r="F199" s="52"/>
@@ -18553,7 +18553,7 @@
       <c r="BN199" s="60"/>
     </row>
     <row r="200" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A200" s="200">
+      <c r="A200" s="182">
         <v>99</v>
       </c>
       <c r="B200" s="97" t="s">
@@ -18631,7 +18631,7 @@
       <c r="BN200" s="61"/>
     </row>
     <row r="201" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A201" s="201"/>
+      <c r="A201" s="183"/>
       <c r="B201" s="98"/>
       <c r="C201" s="106"/>
       <c r="D201" s="104"/>
@@ -18699,7 +18699,7 @@
       <c r="BN201" s="60"/>
     </row>
     <row r="202" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A202" s="200">
+      <c r="A202" s="182">
         <v>100</v>
       </c>
       <c r="B202" s="98"/>
@@ -18773,7 +18773,7 @@
       <c r="BN202" s="63"/>
     </row>
     <row r="203" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A203" s="201"/>
+      <c r="A203" s="183"/>
       <c r="B203" s="98"/>
       <c r="C203" s="106"/>
       <c r="D203" s="104"/>
@@ -18841,7 +18841,7 @@
       <c r="BN203" s="60"/>
     </row>
     <row r="204" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A204" s="200">
+      <c r="A204" s="182">
         <v>101</v>
       </c>
       <c r="B204" s="98"/>
@@ -18915,7 +18915,7 @@
       <c r="BN204" s="63"/>
     </row>
     <row r="205" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A205" s="201"/>
+      <c r="A205" s="183"/>
       <c r="B205" s="98"/>
       <c r="C205" s="106"/>
       <c r="D205" s="104"/>
@@ -18983,7 +18983,7 @@
       <c r="BN205" s="60"/>
     </row>
     <row r="206" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A206" s="200">
+      <c r="A206" s="182">
         <v>102</v>
       </c>
       <c r="B206" s="98"/>
@@ -19057,7 +19057,7 @@
       <c r="BN206" s="63"/>
     </row>
     <row r="207" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A207" s="201"/>
+      <c r="A207" s="183"/>
       <c r="B207" s="98"/>
       <c r="C207" s="106"/>
       <c r="D207" s="104"/>
@@ -19125,7 +19125,7 @@
       <c r="BN207" s="60"/>
     </row>
     <row r="208" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A208" s="200">
+      <c r="A208" s="182">
         <v>103</v>
       </c>
       <c r="B208" s="98"/>
@@ -19199,7 +19199,7 @@
       <c r="BN208" s="63"/>
     </row>
     <row r="209" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A209" s="201"/>
+      <c r="A209" s="183"/>
       <c r="B209" s="98"/>
       <c r="C209" s="106"/>
       <c r="D209" s="104"/>
@@ -19267,7 +19267,7 @@
       <c r="BN209" s="60"/>
     </row>
     <row r="210" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A210" s="200">
+      <c r="A210" s="182">
         <v>104</v>
       </c>
       <c r="B210" s="98"/>
@@ -19341,7 +19341,7 @@
       <c r="BN210" s="63"/>
     </row>
     <row r="211" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A211" s="201"/>
+      <c r="A211" s="183"/>
       <c r="B211" s="98"/>
       <c r="C211" s="106"/>
       <c r="D211" s="104"/>
@@ -19409,7 +19409,7 @@
       <c r="BN211" s="60"/>
     </row>
     <row r="212" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A212" s="200">
+      <c r="A212" s="182">
         <v>105</v>
       </c>
       <c r="B212" s="98"/>
@@ -19483,7 +19483,7 @@
       <c r="BN212" s="60"/>
     </row>
     <row r="213" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A213" s="201"/>
+      <c r="A213" s="183"/>
       <c r="B213" s="98"/>
       <c r="C213" s="106"/>
       <c r="D213" s="102"/>
@@ -19551,7 +19551,7 @@
       <c r="BN213" s="60"/>
     </row>
     <row r="214" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A214" s="200">
+      <c r="A214" s="182">
         <v>106</v>
       </c>
       <c r="B214" s="98"/>
@@ -19627,7 +19627,7 @@
       <c r="BN214" s="63"/>
     </row>
     <row r="215" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A215" s="201"/>
+      <c r="A215" s="183"/>
       <c r="B215" s="98"/>
       <c r="C215" s="114"/>
       <c r="D215" s="104"/>
@@ -19695,7 +19695,7 @@
       <c r="BN215" s="60"/>
     </row>
     <row r="216" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A216" s="200">
+      <c r="A216" s="182">
         <v>107</v>
       </c>
       <c r="B216" s="98"/>
@@ -19769,7 +19769,7 @@
       <c r="BN216" s="63"/>
     </row>
     <row r="217" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A217" s="201"/>
+      <c r="A217" s="183"/>
       <c r="B217" s="98"/>
       <c r="C217" s="114"/>
       <c r="D217" s="104"/>
@@ -19837,7 +19837,7 @@
       <c r="BN217" s="60"/>
     </row>
     <row r="218" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A218" s="200">
+      <c r="A218" s="182">
         <v>108</v>
       </c>
       <c r="B218" s="98"/>
@@ -19911,7 +19911,7 @@
       <c r="BN218" s="63"/>
     </row>
     <row r="219" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A219" s="201"/>
+      <c r="A219" s="183"/>
       <c r="B219" s="98"/>
       <c r="C219" s="114"/>
       <c r="D219" s="104"/>
@@ -19979,7 +19979,7 @@
       <c r="BN219" s="60"/>
     </row>
     <row r="220" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A220" s="200">
+      <c r="A220" s="182">
         <v>109</v>
       </c>
       <c r="B220" s="98"/>
@@ -20053,7 +20053,7 @@
       <c r="BN220" s="63"/>
     </row>
     <row r="221" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A221" s="201"/>
+      <c r="A221" s="183"/>
       <c r="B221" s="98"/>
       <c r="C221" s="114"/>
       <c r="D221" s="104"/>
@@ -20121,7 +20121,7 @@
       <c r="BN221" s="60"/>
     </row>
     <row r="222" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A222" s="200">
+      <c r="A222" s="182">
         <v>110</v>
       </c>
       <c r="B222" s="98"/>
@@ -20195,7 +20195,7 @@
       <c r="BN222" s="60"/>
     </row>
     <row r="223" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A223" s="201"/>
+      <c r="A223" s="183"/>
       <c r="B223" s="98"/>
       <c r="C223" s="114"/>
       <c r="D223" s="104"/>
@@ -20263,7 +20263,7 @@
       <c r="BN223" s="60"/>
     </row>
     <row r="224" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A224" s="200">
+      <c r="A224" s="182">
         <v>111</v>
       </c>
       <c r="B224" s="98"/>
@@ -20337,7 +20337,7 @@
       <c r="BN224" s="60"/>
     </row>
     <row r="225" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A225" s="201"/>
+      <c r="A225" s="183"/>
       <c r="B225" s="98"/>
       <c r="C225" s="114"/>
       <c r="D225" s="104"/>
@@ -20405,7 +20405,7 @@
       <c r="BN225" s="60"/>
     </row>
     <row r="226" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A226" s="200">
+      <c r="A226" s="182">
         <v>112</v>
       </c>
       <c r="B226" s="98"/>
@@ -20479,7 +20479,7 @@
       <c r="BN226" s="60"/>
     </row>
     <row r="227" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A227" s="201"/>
+      <c r="A227" s="183"/>
       <c r="B227" s="98"/>
       <c r="C227" s="114"/>
       <c r="D227" s="104"/>
@@ -20547,7 +20547,7 @@
       <c r="BN227" s="60"/>
     </row>
     <row r="228" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A228" s="200">
+      <c r="A228" s="182">
         <v>113</v>
       </c>
       <c r="B228" s="98"/>
@@ -20621,7 +20621,7 @@
       <c r="BN228" s="60"/>
     </row>
     <row r="229" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A229" s="201"/>
+      <c r="A229" s="183"/>
       <c r="B229" s="98"/>
       <c r="C229" s="114"/>
       <c r="D229" s="108"/>
@@ -20689,7 +20689,7 @@
       <c r="BN229" s="60"/>
     </row>
     <row r="230" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A230" s="200">
+      <c r="A230" s="182">
         <v>114</v>
       </c>
       <c r="B230" s="98"/>
@@ -20763,7 +20763,7 @@
       <c r="BN230" s="60"/>
     </row>
     <row r="231" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A231" s="201"/>
+      <c r="A231" s="183"/>
       <c r="B231" s="98"/>
       <c r="C231" s="114"/>
       <c r="D231" s="104"/>
@@ -20831,7 +20831,7 @@
       <c r="BN231" s="60"/>
     </row>
     <row r="232" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A232" s="200">
+      <c r="A232" s="182">
         <v>115</v>
       </c>
       <c r="B232" s="98"/>
@@ -20905,7 +20905,7 @@
       <c r="BN232" s="60"/>
     </row>
     <row r="233" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A233" s="201"/>
+      <c r="A233" s="183"/>
       <c r="B233" s="98"/>
       <c r="C233" s="114"/>
       <c r="D233" s="104"/>
@@ -20973,7 +20973,7 @@
       <c r="BN233" s="60"/>
     </row>
     <row r="234" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A234" s="200">
+      <c r="A234" s="182">
         <v>116</v>
       </c>
       <c r="B234" s="98"/>
@@ -21047,7 +21047,7 @@
       <c r="BN234" s="60"/>
     </row>
     <row r="235" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A235" s="201"/>
+      <c r="A235" s="183"/>
       <c r="B235" s="98"/>
       <c r="C235" s="114"/>
       <c r="D235" s="104"/>
@@ -21115,7 +21115,7 @@
       <c r="BN235" s="60"/>
     </row>
     <row r="236" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A236" s="200">
+      <c r="A236" s="182">
         <v>117</v>
       </c>
       <c r="B236" s="98"/>
@@ -21189,7 +21189,7 @@
       <c r="BN236" s="60"/>
     </row>
     <row r="237" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A237" s="201"/>
+      <c r="A237" s="183"/>
       <c r="B237" s="98"/>
       <c r="C237" s="114"/>
       <c r="D237" s="104"/>
@@ -21257,7 +21257,7 @@
       <c r="BN237" s="60"/>
     </row>
     <row r="238" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A238" s="200">
+      <c r="A238" s="182">
         <v>118</v>
       </c>
       <c r="B238" s="98"/>
@@ -21331,7 +21331,7 @@
       <c r="BN238" s="60"/>
     </row>
     <row r="239" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A239" s="201"/>
+      <c r="A239" s="183"/>
       <c r="B239" s="98"/>
       <c r="C239" s="114"/>
       <c r="D239" s="104"/>
@@ -21399,7 +21399,7 @@
       <c r="BN239" s="60"/>
     </row>
     <row r="240" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A240" s="200">
+      <c r="A240" s="182">
         <v>119</v>
       </c>
       <c r="B240" s="98"/>
@@ -21473,7 +21473,7 @@
       <c r="BN240" s="60"/>
     </row>
     <row r="241" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A241" s="201"/>
+      <c r="A241" s="183"/>
       <c r="B241" s="98"/>
       <c r="C241" s="114"/>
       <c r="D241" s="104"/>
@@ -21541,7 +21541,7 @@
       <c r="BN241" s="60"/>
     </row>
     <row r="242" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A242" s="200">
+      <c r="A242" s="182">
         <v>120</v>
       </c>
       <c r="B242" s="98"/>
@@ -21615,7 +21615,7 @@
       <c r="BN242" s="60"/>
     </row>
     <row r="243" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A243" s="201"/>
+      <c r="A243" s="183"/>
       <c r="B243" s="98"/>
       <c r="C243" s="114"/>
       <c r="D243" s="104"/>
@@ -21683,7 +21683,7 @@
       <c r="BN243" s="60"/>
     </row>
     <row r="244" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A244" s="200">
+      <c r="A244" s="182">
         <v>121</v>
       </c>
       <c r="B244" s="98"/>
@@ -21757,7 +21757,7 @@
       <c r="BN244" s="60"/>
     </row>
     <row r="245" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A245" s="201"/>
+      <c r="A245" s="183"/>
       <c r="B245" s="98"/>
       <c r="C245" s="114"/>
       <c r="D245" s="104"/>
@@ -21825,7 +21825,7 @@
       <c r="BN245" s="63"/>
     </row>
     <row r="246" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A246" s="200">
+      <c r="A246" s="182">
         <v>122</v>
       </c>
       <c r="B246" s="98"/>
@@ -21899,7 +21899,7 @@
       <c r="BN246" s="59"/>
     </row>
     <row r="247" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A247" s="201"/>
+      <c r="A247" s="183"/>
       <c r="B247" s="98"/>
       <c r="C247" s="114"/>
       <c r="D247" s="104"/>
@@ -21967,7 +21967,7 @@
       <c r="BN247" s="60"/>
     </row>
     <row r="248" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A248" s="200">
+      <c r="A248" s="182">
         <v>123</v>
       </c>
       <c r="B248" s="98"/>
@@ -22041,7 +22041,7 @@
       <c r="BN248" s="63"/>
     </row>
     <row r="249" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A249" s="201"/>
+      <c r="A249" s="183"/>
       <c r="B249" s="98"/>
       <c r="C249" s="114"/>
       <c r="D249" s="104"/>
@@ -22109,7 +22109,7 @@
       <c r="BN249" s="60"/>
     </row>
     <row r="250" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A250" s="200">
+      <c r="A250" s="182">
         <v>124</v>
       </c>
       <c r="B250" s="98"/>
@@ -22183,7 +22183,7 @@
       <c r="BN250" s="63"/>
     </row>
     <row r="251" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A251" s="201"/>
+      <c r="A251" s="183"/>
       <c r="B251" s="98"/>
       <c r="C251" s="114"/>
       <c r="D251" s="104"/>
@@ -22251,7 +22251,7 @@
       <c r="BN251" s="60"/>
     </row>
     <row r="252" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A252" s="200">
+      <c r="A252" s="182">
         <v>125</v>
       </c>
       <c r="B252" s="98"/>
@@ -22325,7 +22325,7 @@
       <c r="BN252" s="63"/>
     </row>
     <row r="253" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A253" s="201"/>
+      <c r="A253" s="183"/>
       <c r="B253" s="98"/>
       <c r="C253" s="114"/>
       <c r="D253" s="104"/>
@@ -22393,7 +22393,7 @@
       <c r="BN253" s="60"/>
     </row>
     <row r="254" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A254" s="200">
+      <c r="A254" s="182">
         <v>126</v>
       </c>
       <c r="B254" s="98"/>
@@ -22467,7 +22467,7 @@
       <c r="BN254" s="63"/>
     </row>
     <row r="255" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A255" s="201"/>
+      <c r="A255" s="183"/>
       <c r="B255" s="98"/>
       <c r="C255" s="114"/>
       <c r="D255" s="104"/>
@@ -22535,7 +22535,7 @@
       <c r="BN255" s="60"/>
     </row>
     <row r="256" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A256" s="200">
+      <c r="A256" s="182">
         <v>127</v>
       </c>
       <c r="B256" s="98"/>
@@ -22609,7 +22609,7 @@
       <c r="BN256" s="63"/>
     </row>
     <row r="257" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A257" s="201"/>
+      <c r="A257" s="183"/>
       <c r="B257" s="98"/>
       <c r="C257" s="114"/>
       <c r="D257" s="104"/>
@@ -22677,7 +22677,7 @@
       <c r="BN257" s="180"/>
     </row>
     <row r="258" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A258" s="200">
+      <c r="A258" s="182">
         <v>128</v>
       </c>
       <c r="B258" s="98"/>
@@ -22753,7 +22753,7 @@
       <c r="BN258" s="179"/>
     </row>
     <row r="259" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A259" s="201"/>
+      <c r="A259" s="183"/>
       <c r="B259" s="98"/>
       <c r="C259" s="129"/>
       <c r="D259" s="133"/>
@@ -22821,7 +22821,7 @@
       <c r="BN259" s="180"/>
     </row>
     <row r="260" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A260" s="200">
+      <c r="A260" s="182">
         <v>129</v>
       </c>
       <c r="B260" s="98"/>
@@ -22895,7 +22895,7 @@
       <c r="BN260" s="179"/>
     </row>
     <row r="261" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A261" s="201"/>
+      <c r="A261" s="183"/>
       <c r="B261" s="98"/>
       <c r="C261" s="129"/>
       <c r="D261" s="137"/>
@@ -22963,12 +22963,12 @@
       <c r="BN261" s="179"/>
     </row>
     <row r="262" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A262" s="200">
+      <c r="A262" s="182">
         <v>130</v>
       </c>
       <c r="B262" s="98"/>
       <c r="C262" s="129"/>
-      <c r="D262" s="182" t="s">
+      <c r="D262" s="223" t="s">
         <v>148</v>
       </c>
       <c r="E262" s="96"/>
@@ -23037,10 +23037,10 @@
       <c r="BN262" s="179"/>
     </row>
     <row r="263" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A263" s="201"/>
+      <c r="A263" s="183"/>
       <c r="B263" s="98"/>
       <c r="C263" s="129"/>
-      <c r="D263" s="183"/>
+      <c r="D263" s="224"/>
       <c r="E263" s="109"/>
       <c r="F263" s="52"/>
       <c r="G263" s="25"/>
@@ -23105,12 +23105,12 @@
       <c r="BN263" s="179"/>
     </row>
     <row r="264" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A264" s="200">
+      <c r="A264" s="182">
         <v>131</v>
       </c>
       <c r="B264" s="98"/>
       <c r="C264" s="129"/>
-      <c r="D264" s="184" t="s">
+      <c r="D264" s="225" t="s">
         <v>39</v>
       </c>
       <c r="E264" s="96"/>
@@ -23179,10 +23179,10 @@
       <c r="BN264" s="179"/>
     </row>
     <row r="265" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A265" s="201"/>
+      <c r="A265" s="183"/>
       <c r="B265" s="98"/>
       <c r="C265" s="129"/>
-      <c r="D265" s="185"/>
+      <c r="D265" s="226"/>
       <c r="E265" s="109"/>
       <c r="F265" s="52"/>
       <c r="G265" s="25"/>
@@ -23247,7 +23247,7 @@
       <c r="BN265" s="179"/>
     </row>
     <row r="266" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A266" s="200">
+      <c r="A266" s="182">
         <v>132</v>
       </c>
       <c r="B266" s="98"/>
@@ -23321,7 +23321,7 @@
       <c r="BN266" s="179"/>
     </row>
     <row r="267" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A267" s="201"/>
+      <c r="A267" s="183"/>
       <c r="B267" s="98"/>
       <c r="C267" s="129"/>
       <c r="D267" s="133"/>
@@ -23389,7 +23389,7 @@
       <c r="BN267" s="179"/>
     </row>
     <row r="268" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A268" s="200">
+      <c r="A268" s="182">
         <v>133</v>
       </c>
       <c r="B268" s="98"/>
@@ -23463,7 +23463,7 @@
       <c r="BN268" s="179"/>
     </row>
     <row r="269" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A269" s="201"/>
+      <c r="A269" s="183"/>
       <c r="B269" s="98"/>
       <c r="C269" s="129"/>
       <c r="D269" s="133"/>
@@ -23531,7 +23531,7 @@
       <c r="BN269" s="179"/>
     </row>
     <row r="270" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A270" s="200">
+      <c r="A270" s="182">
         <v>134</v>
       </c>
       <c r="B270" s="98"/>
@@ -23605,7 +23605,7 @@
       <c r="BN270" s="179"/>
     </row>
     <row r="271" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A271" s="201"/>
+      <c r="A271" s="183"/>
       <c r="B271" s="98"/>
       <c r="C271" s="129"/>
       <c r="D271" s="133"/>
@@ -23673,7 +23673,7 @@
       <c r="BN271" s="179"/>
     </row>
     <row r="272" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A272" s="200">
+      <c r="A272" s="182">
         <v>135</v>
       </c>
       <c r="B272" s="98"/>
@@ -23747,7 +23747,7 @@
       <c r="BN272" s="179"/>
     </row>
     <row r="273" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A273" s="201"/>
+      <c r="A273" s="183"/>
       <c r="B273" s="98"/>
       <c r="C273" s="129"/>
       <c r="D273" s="133"/>
@@ -23815,7 +23815,7 @@
       <c r="BN273" s="179"/>
     </row>
     <row r="274" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A274" s="200">
+      <c r="A274" s="182">
         <v>136</v>
       </c>
       <c r="B274" s="98"/>
@@ -23889,7 +23889,7 @@
       <c r="BN274" s="179"/>
     </row>
     <row r="275" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A275" s="201"/>
+      <c r="A275" s="183"/>
       <c r="B275" s="98"/>
       <c r="C275" s="129"/>
       <c r="D275" s="133"/>
@@ -23957,7 +23957,7 @@
       <c r="BN275" s="179"/>
     </row>
     <row r="276" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A276" s="200">
+      <c r="A276" s="182">
         <v>137</v>
       </c>
       <c r="B276" s="98"/>
@@ -24031,7 +24031,7 @@
       <c r="BN276" s="179"/>
     </row>
     <row r="277" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A277" s="201"/>
+      <c r="A277" s="183"/>
       <c r="B277" s="98"/>
       <c r="C277" s="129"/>
       <c r="D277" s="133"/>
@@ -24099,7 +24099,7 @@
       <c r="BN277" s="179"/>
     </row>
     <row r="278" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A278" s="200">
+      <c r="A278" s="182">
         <v>138</v>
       </c>
       <c r="B278" s="98"/>
@@ -24173,7 +24173,7 @@
       <c r="BN278" s="179"/>
     </row>
     <row r="279" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A279" s="201"/>
+      <c r="A279" s="183"/>
       <c r="B279" s="98"/>
       <c r="C279" s="129"/>
       <c r="D279" s="133"/>
@@ -24241,7 +24241,7 @@
       <c r="BN279" s="179"/>
     </row>
     <row r="280" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A280" s="200">
+      <c r="A280" s="182">
         <v>139</v>
       </c>
       <c r="B280" s="98"/>
@@ -24315,7 +24315,7 @@
       <c r="BN280" s="179"/>
     </row>
     <row r="281" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A281" s="201"/>
+      <c r="A281" s="183"/>
       <c r="B281" s="98"/>
       <c r="C281" s="129"/>
       <c r="D281" s="133"/>
@@ -24383,7 +24383,7 @@
       <c r="BN281" s="179"/>
     </row>
     <row r="282" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A282" s="200">
+      <c r="A282" s="182">
         <v>140</v>
       </c>
       <c r="B282" s="98"/>
@@ -24457,7 +24457,7 @@
       <c r="BN282" s="179"/>
     </row>
     <row r="283" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A283" s="201"/>
+      <c r="A283" s="183"/>
       <c r="B283" s="98"/>
       <c r="C283" s="129"/>
       <c r="D283" s="133"/>
@@ -24525,7 +24525,7 @@
       <c r="BN283" s="179"/>
     </row>
     <row r="284" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A284" s="200">
+      <c r="A284" s="182">
         <v>141</v>
       </c>
       <c r="B284" s="98"/>
@@ -24599,7 +24599,7 @@
       <c r="BN284" s="179"/>
     </row>
     <row r="285" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A285" s="201"/>
+      <c r="A285" s="183"/>
       <c r="B285" s="98"/>
       <c r="C285" s="129"/>
       <c r="D285" s="133"/>
@@ -24667,7 +24667,7 @@
       <c r="BN285" s="60"/>
     </row>
     <row r="286" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A286" s="200">
+      <c r="A286" s="182">
         <v>142</v>
       </c>
       <c r="B286" s="98"/>
@@ -24741,7 +24741,7 @@
       <c r="BN286" s="60"/>
     </row>
     <row r="287" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A287" s="201"/>
+      <c r="A287" s="183"/>
       <c r="B287" s="98"/>
       <c r="C287" s="129"/>
       <c r="D287" s="133"/>
@@ -24809,7 +24809,7 @@
       <c r="BN287" s="60"/>
     </row>
     <row r="288" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A288" s="200">
+      <c r="A288" s="182">
         <v>143</v>
       </c>
       <c r="B288" s="98"/>
@@ -24883,7 +24883,7 @@
       <c r="BN288" s="60"/>
     </row>
     <row r="289" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A289" s="201"/>
+      <c r="A289" s="183"/>
       <c r="B289" s="98"/>
       <c r="C289" s="129"/>
       <c r="D289" s="133"/>
@@ -24951,7 +24951,7 @@
       <c r="BN289" s="60"/>
     </row>
     <row r="290" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A290" s="200">
+      <c r="A290" s="182">
         <v>144</v>
       </c>
       <c r="B290" s="98"/>
@@ -25025,7 +25025,7 @@
       <c r="BN290" s="60"/>
     </row>
     <row r="291" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A291" s="201"/>
+      <c r="A291" s="183"/>
       <c r="B291" s="98"/>
       <c r="C291" s="129"/>
       <c r="D291" s="133"/>
@@ -25093,7 +25093,7 @@
       <c r="BN291" s="64"/>
     </row>
     <row r="292" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A292" s="200">
+      <c r="A292" s="182">
         <v>145</v>
       </c>
       <c r="B292" s="98"/>
@@ -25167,7 +25167,7 @@
       <c r="BN292" s="61"/>
     </row>
     <row r="293" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A293" s="201"/>
+      <c r="A293" s="183"/>
       <c r="B293" s="98"/>
       <c r="C293" s="129"/>
       <c r="D293" s="133"/>
@@ -25235,7 +25235,7 @@
       <c r="BN293" s="60"/>
     </row>
     <row r="294" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A294" s="200">
+      <c r="A294" s="182">
         <v>146</v>
       </c>
       <c r="B294" s="98"/>
@@ -25310,7 +25310,7 @@
       <c r="BR294" s="128"/>
     </row>
     <row r="295" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A295" s="201"/>
+      <c r="A295" s="183"/>
       <c r="B295" s="98"/>
       <c r="C295" s="129"/>
       <c r="D295" s="133"/>
@@ -25378,7 +25378,7 @@
       <c r="BN295" s="60"/>
     </row>
     <row r="296" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A296" s="200">
+      <c r="A296" s="182">
         <v>147</v>
       </c>
       <c r="B296" s="98"/>
@@ -25452,7 +25452,7 @@
       <c r="BN296" s="63"/>
     </row>
     <row r="297" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A297" s="201"/>
+      <c r="A297" s="183"/>
       <c r="B297" s="98"/>
       <c r="C297" s="129"/>
       <c r="D297" s="133"/>
@@ -25520,7 +25520,7 @@
       <c r="BN297" s="60"/>
     </row>
     <row r="298" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A298" s="200">
+      <c r="A298" s="182">
         <v>148</v>
       </c>
       <c r="B298" s="98"/>
@@ -25594,7 +25594,7 @@
       <c r="BN298" s="63"/>
     </row>
     <row r="299" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A299" s="201"/>
+      <c r="A299" s="183"/>
       <c r="B299" s="98"/>
       <c r="C299" s="129"/>
       <c r="D299" s="133"/>
@@ -25662,7 +25662,7 @@
       <c r="BN299" s="60"/>
     </row>
     <row r="300" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A300" s="200">
+      <c r="A300" s="182">
         <v>149</v>
       </c>
       <c r="B300" s="98"/>
@@ -25736,7 +25736,7 @@
       <c r="BN300" s="63"/>
     </row>
     <row r="301" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A301" s="201"/>
+      <c r="A301" s="183"/>
       <c r="B301" s="98"/>
       <c r="C301" s="129"/>
       <c r="D301" s="133"/>
@@ -25804,7 +25804,7 @@
       <c r="BN301" s="60"/>
     </row>
     <row r="302" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A302" s="200">
+      <c r="A302" s="182">
         <v>150</v>
       </c>
       <c r="B302" s="98"/>
@@ -25878,7 +25878,7 @@
       <c r="BN302" s="63"/>
     </row>
     <row r="303" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A303" s="201"/>
+      <c r="A303" s="183"/>
       <c r="B303" s="98"/>
       <c r="C303" s="114"/>
       <c r="D303" s="104"/>
@@ -25946,7 +25946,7 @@
       <c r="BN303" s="60"/>
     </row>
     <row r="304" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A304" s="200">
+      <c r="A304" s="182">
         <v>151</v>
       </c>
       <c r="B304" s="98"/>
@@ -26022,7 +26022,7 @@
       <c r="BN304" s="63"/>
     </row>
     <row r="305" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A305" s="201"/>
+      <c r="A305" s="183"/>
       <c r="B305" s="98"/>
       <c r="C305" s="110"/>
       <c r="D305" s="104"/>
@@ -26090,7 +26090,7 @@
       <c r="BN305" s="60"/>
     </row>
     <row r="306" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A306" s="200">
+      <c r="A306" s="182">
         <v>152</v>
       </c>
       <c r="B306" s="98"/>
@@ -26166,7 +26166,7 @@
       <c r="BN306" s="63"/>
     </row>
     <row r="307" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A307" s="201"/>
+      <c r="A307" s="183"/>
       <c r="B307" s="98"/>
       <c r="C307" s="110"/>
       <c r="D307" s="104"/>
@@ -26234,7 +26234,7 @@
       <c r="BN307" s="60"/>
     </row>
     <row r="308" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A308" s="200">
+      <c r="A308" s="182">
         <v>153</v>
       </c>
       <c r="B308" s="98"/>
@@ -26308,7 +26308,7 @@
       <c r="BN308" s="63"/>
     </row>
     <row r="309" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A309" s="201"/>
+      <c r="A309" s="183"/>
       <c r="B309" s="98"/>
       <c r="C309" s="110"/>
       <c r="D309" s="104"/>
@@ -26376,7 +26376,7 @@
       <c r="BN309" s="60"/>
     </row>
     <row r="310" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A310" s="200">
+      <c r="A310" s="182">
         <v>154</v>
       </c>
       <c r="B310" s="98"/>
@@ -26450,7 +26450,7 @@
       <c r="BN310" s="63"/>
     </row>
     <row r="311" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A311" s="201"/>
+      <c r="A311" s="183"/>
       <c r="B311" s="98"/>
       <c r="C311" s="110"/>
       <c r="D311" s="104"/>
@@ -26518,7 +26518,7 @@
       <c r="BN311" s="60"/>
     </row>
     <row r="312" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A312" s="200">
+      <c r="A312" s="182">
         <v>155</v>
       </c>
       <c r="B312" s="98"/>
@@ -26592,7 +26592,7 @@
       <c r="BN312" s="60"/>
     </row>
     <row r="313" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A313" s="201"/>
+      <c r="A313" s="183"/>
       <c r="B313" s="98"/>
       <c r="C313" s="130"/>
       <c r="D313" s="108"/>
@@ -26660,7 +26660,7 @@
       <c r="BN313" s="60"/>
     </row>
     <row r="314" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A314" s="200">
+      <c r="A314" s="182">
         <v>156</v>
       </c>
       <c r="B314" s="131"/>
@@ -26734,7 +26734,7 @@
       <c r="BN314" s="60"/>
     </row>
     <row r="315" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A315" s="201"/>
+      <c r="A315" s="183"/>
       <c r="B315" s="131"/>
       <c r="C315" s="133"/>
       <c r="D315" s="137"/>
@@ -26802,11 +26802,11 @@
       <c r="BN315" s="60"/>
     </row>
     <row r="316" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A316" s="200">
+      <c r="A316" s="182">
         <v>157</v>
       </c>
       <c r="B316" s="98"/>
-      <c r="C316" s="189" t="s">
+      <c r="C316" s="228" t="s">
         <v>91</v>
       </c>
       <c r="D316" s="103" t="s">
@@ -26880,9 +26880,9 @@
       <c r="BN316" s="63"/>
     </row>
     <row r="317" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1" thickBot="1">
-      <c r="A317" s="201"/>
+      <c r="A317" s="183"/>
       <c r="B317" s="99"/>
-      <c r="C317" s="194"/>
+      <c r="C317" s="229"/>
       <c r="D317" s="119"/>
       <c r="E317" s="120"/>
       <c r="F317" s="121"/>
@@ -26985,146 +26985,94 @@
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="A300:A301"/>
-    <mergeCell ref="A302:A303"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="A306:A307"/>
-    <mergeCell ref="A308:A309"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="A312:A313"/>
-    <mergeCell ref="A314:A315"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="A282:A283"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="A288:A289"/>
-    <mergeCell ref="A290:A291"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="A294:A295"/>
-    <mergeCell ref="A296:A297"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="A264:A265"/>
-    <mergeCell ref="A266:A267"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="A270:A271"/>
-    <mergeCell ref="A272:A273"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="A276:A277"/>
-    <mergeCell ref="A278:A279"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="A252:A253"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="A258:A259"/>
-    <mergeCell ref="A260:A261"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="A230:A231"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="A234:A235"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="B14:B37"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C14:C37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="D264:D265"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="B84:B199"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="C186:C197"/>
+    <mergeCell ref="C40:C83"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
     <mergeCell ref="AJ1:BM1"/>
     <mergeCell ref="E42:E43"/>
     <mergeCell ref="A44:A45"/>
@@ -27149,94 +27097,146 @@
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="B84:B199"/>
-    <mergeCell ref="C316:C317"/>
-    <mergeCell ref="C186:C197"/>
-    <mergeCell ref="C40:C83"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="D264:D265"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B14:B37"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C14:C37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="A230:A231"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="A278:A279"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="A282:A283"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="A288:A289"/>
+    <mergeCell ref="A290:A291"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="A294:A295"/>
+    <mergeCell ref="A296:A297"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="A306:A307"/>
+    <mergeCell ref="A308:A309"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="A316:A317"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -27279,92 +27279,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="268" t="s">
+      <c r="C1" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="269"/>
-      <c r="E1" s="274" t="s">
+      <c r="D1" s="235"/>
+      <c r="E1" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="215">
+      <c r="F1" s="194">
         <v>45901</v>
       </c>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
-      <c r="K1" s="216"/>
-      <c r="L1" s="216"/>
-      <c r="M1" s="216"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="216"/>
-      <c r="P1" s="216"/>
-      <c r="Q1" s="216"/>
-      <c r="R1" s="216"/>
-      <c r="S1" s="216"/>
-      <c r="T1" s="216"/>
-      <c r="U1" s="216"/>
-      <c r="V1" s="216"/>
-      <c r="W1" s="216"/>
-      <c r="X1" s="216"/>
-      <c r="Y1" s="216"/>
-      <c r="Z1" s="216"/>
-      <c r="AA1" s="216"/>
-      <c r="AB1" s="216"/>
-      <c r="AC1" s="216"/>
-      <c r="AD1" s="216"/>
-      <c r="AE1" s="216"/>
-      <c r="AF1" s="216"/>
-      <c r="AG1" s="216"/>
-      <c r="AH1" s="216"/>
-      <c r="AI1" s="220"/>
-      <c r="AJ1" s="215">
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="195"/>
+      <c r="S1" s="195"/>
+      <c r="T1" s="195"/>
+      <c r="U1" s="195"/>
+      <c r="V1" s="195"/>
+      <c r="W1" s="195"/>
+      <c r="X1" s="195"/>
+      <c r="Y1" s="195"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="195"/>
+      <c r="AB1" s="195"/>
+      <c r="AC1" s="195"/>
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="195"/>
+      <c r="AG1" s="195"/>
+      <c r="AH1" s="195"/>
+      <c r="AI1" s="203"/>
+      <c r="AJ1" s="194">
         <v>45931</v>
       </c>
-      <c r="AK1" s="216"/>
-      <c r="AL1" s="216"/>
-      <c r="AM1" s="216"/>
-      <c r="AN1" s="216"/>
-      <c r="AO1" s="216"/>
-      <c r="AP1" s="216"/>
-      <c r="AQ1" s="216"/>
-      <c r="AR1" s="216"/>
-      <c r="AS1" s="216"/>
-      <c r="AT1" s="216"/>
-      <c r="AU1" s="216"/>
-      <c r="AV1" s="216"/>
-      <c r="AW1" s="216"/>
-      <c r="AX1" s="216"/>
-      <c r="AY1" s="216"/>
-      <c r="AZ1" s="216"/>
-      <c r="BA1" s="216"/>
-      <c r="BB1" s="216"/>
-      <c r="BC1" s="216"/>
-      <c r="BD1" s="216"/>
-      <c r="BE1" s="216"/>
-      <c r="BF1" s="216"/>
-      <c r="BG1" s="216"/>
-      <c r="BH1" s="216"/>
-      <c r="BI1" s="216"/>
-      <c r="BJ1" s="216"/>
-      <c r="BK1" s="216"/>
-      <c r="BL1" s="216"/>
-      <c r="BM1" s="216"/>
+      <c r="AK1" s="195"/>
+      <c r="AL1" s="195"/>
+      <c r="AM1" s="195"/>
+      <c r="AN1" s="195"/>
+      <c r="AO1" s="195"/>
+      <c r="AP1" s="195"/>
+      <c r="AQ1" s="195"/>
+      <c r="AR1" s="195"/>
+      <c r="AS1" s="195"/>
+      <c r="AT1" s="195"/>
+      <c r="AU1" s="195"/>
+      <c r="AV1" s="195"/>
+      <c r="AW1" s="195"/>
+      <c r="AX1" s="195"/>
+      <c r="AY1" s="195"/>
+      <c r="AZ1" s="195"/>
+      <c r="BA1" s="195"/>
+      <c r="BB1" s="195"/>
+      <c r="BC1" s="195"/>
+      <c r="BD1" s="195"/>
+      <c r="BE1" s="195"/>
+      <c r="BF1" s="195"/>
+      <c r="BG1" s="195"/>
+      <c r="BH1" s="195"/>
+      <c r="BI1" s="195"/>
+      <c r="BJ1" s="195"/>
+      <c r="BK1" s="195"/>
+      <c r="BL1" s="195"/>
+      <c r="BM1" s="195"/>
       <c r="BN1" s="66"/>
       <c r="BO1" s="3"/>
     </row>
     <row r="2" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A2" s="222"/>
-      <c r="B2" s="225"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="275"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="241"/>
       <c r="F2" s="46">
         <v>42156</v>
       </c>
@@ -27551,11 +27551,11 @@
       <c r="BO2" s="3"/>
     </row>
     <row r="3" spans="1:67" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="223"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="272"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="276"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="48" t="s">
         <v>5</v>
       </c>
@@ -27742,17 +27742,17 @@
       <c r="BO3" s="45"/>
     </row>
     <row r="4" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="200">
+      <c r="A4" s="182">
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="259" t="s">
+      <c r="C4" s="243" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="266"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="247"/>
       <c r="F4" s="50"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -27816,11 +27816,11 @@
       <c r="BN4" s="59"/>
     </row>
     <row r="5" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="201"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="260"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="267"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="248"/>
       <c r="F5" s="52"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -27884,17 +27884,17 @@
       <c r="BN5" s="60"/>
     </row>
     <row r="6" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="200">
+      <c r="A6" s="182">
         <v>2</v>
       </c>
       <c r="B6" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="262" t="s">
+      <c r="C6" s="249" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="263"/>
-      <c r="E6" s="257"/>
+      <c r="D6" s="250"/>
+      <c r="E6" s="253"/>
       <c r="F6" s="37"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -27958,11 +27958,11 @@
       <c r="BN6" s="61"/>
     </row>
     <row r="7" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="201"/>
+      <c r="A7" s="183"/>
       <c r="B7" s="81"/>
-      <c r="C7" s="264"/>
-      <c r="D7" s="265"/>
-      <c r="E7" s="253"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="252"/>
+      <c r="E7" s="254"/>
       <c r="F7" s="53"/>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
@@ -28026,17 +28026,17 @@
       <c r="BN7" s="62"/>
     </row>
     <row r="8" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="200">
+      <c r="A8" s="182">
         <v>3</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="262" t="s">
+      <c r="C8" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="263"/>
-      <c r="E8" s="257"/>
+      <c r="D8" s="250"/>
+      <c r="E8" s="253"/>
       <c r="F8" s="37"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -28100,11 +28100,11 @@
       <c r="BN8" s="61"/>
     </row>
     <row r="9" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="201"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="81"/>
-      <c r="C9" s="264"/>
-      <c r="D9" s="265"/>
-      <c r="E9" s="253"/>
+      <c r="C9" s="251"/>
+      <c r="D9" s="252"/>
+      <c r="E9" s="254"/>
       <c r="F9" s="53"/>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
@@ -28168,17 +28168,17 @@
       <c r="BN9" s="62"/>
     </row>
     <row r="10" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="200">
+      <c r="A10" s="182">
         <v>4</v>
       </c>
       <c r="B10" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="262" t="s">
+      <c r="C10" s="249" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="263"/>
-      <c r="E10" s="257"/>
+      <c r="D10" s="250"/>
+      <c r="E10" s="253"/>
       <c r="F10" s="37"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -28242,11 +28242,11 @@
       <c r="BN10" s="61"/>
     </row>
     <row r="11" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="201"/>
+      <c r="A11" s="183"/>
       <c r="B11" s="81"/>
-      <c r="C11" s="264"/>
-      <c r="D11" s="265"/>
-      <c r="E11" s="253"/>
+      <c r="C11" s="251"/>
+      <c r="D11" s="252"/>
+      <c r="E11" s="254"/>
       <c r="F11" s="53"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
@@ -28310,17 +28310,17 @@
       <c r="BN11" s="62"/>
     </row>
     <row r="12" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="200">
+      <c r="A12" s="182">
         <v>5</v>
       </c>
       <c r="B12" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="262" t="s">
+      <c r="C12" s="249" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="263"/>
-      <c r="E12" s="257"/>
+      <c r="D12" s="250"/>
+      <c r="E12" s="253"/>
       <c r="F12" s="37"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -28384,11 +28384,11 @@
       <c r="BN12" s="61"/>
     </row>
     <row r="13" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="201"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="81"/>
-      <c r="C13" s="264"/>
-      <c r="D13" s="265"/>
-      <c r="E13" s="253"/>
+      <c r="C13" s="251"/>
+      <c r="D13" s="252"/>
+      <c r="E13" s="254"/>
       <c r="F13" s="53"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
@@ -28452,17 +28452,17 @@
       <c r="BN13" s="62"/>
     </row>
     <row r="14" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="200">
+      <c r="A14" s="182">
         <v>6</v>
       </c>
       <c r="B14" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="242" t="s">
+      <c r="C14" s="255" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="243"/>
-      <c r="E14" s="257"/>
+      <c r="D14" s="256"/>
+      <c r="E14" s="253"/>
       <c r="F14" s="37"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -28526,11 +28526,11 @@
       <c r="BN14" s="61"/>
     </row>
     <row r="15" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="201"/>
+      <c r="A15" s="183"/>
       <c r="B15" s="80"/>
-      <c r="C15" s="250"/>
-      <c r="D15" s="251"/>
-      <c r="E15" s="258"/>
+      <c r="C15" s="257"/>
+      <c r="D15" s="258"/>
+      <c r="E15" s="259"/>
       <c r="F15" s="52"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -28594,15 +28594,15 @@
       <c r="BN15" s="60"/>
     </row>
     <row r="16" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="200">
+      <c r="A16" s="182">
         <v>7</v>
       </c>
       <c r="B16" s="80"/>
-      <c r="C16" s="259" t="s">
+      <c r="C16" s="243" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="249"/>
-      <c r="E16" s="252"/>
+      <c r="D16" s="244"/>
+      <c r="E16" s="260"/>
       <c r="F16" s="51"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -28666,11 +28666,11 @@
       <c r="BN16" s="63"/>
     </row>
     <row r="17" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="201"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="80"/>
-      <c r="C17" s="250"/>
-      <c r="D17" s="251"/>
-      <c r="E17" s="258"/>
+      <c r="C17" s="257"/>
+      <c r="D17" s="258"/>
+      <c r="E17" s="259"/>
       <c r="F17" s="52"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -28734,15 +28734,15 @@
       <c r="BN17" s="60"/>
     </row>
     <row r="18" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="200">
+      <c r="A18" s="182">
         <v>8</v>
       </c>
       <c r="B18" s="80"/>
-      <c r="C18" s="259" t="s">
+      <c r="C18" s="243" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="249"/>
-      <c r="E18" s="252"/>
+      <c r="D18" s="244"/>
+      <c r="E18" s="260"/>
       <c r="F18" s="52"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
@@ -28806,11 +28806,11 @@
       <c r="BN18" s="60"/>
     </row>
     <row r="19" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="201"/>
+      <c r="A19" s="183"/>
       <c r="B19" s="81"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="261"/>
-      <c r="E19" s="253"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="246"/>
+      <c r="E19" s="254"/>
       <c r="F19" s="54"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -28874,17 +28874,17 @@
       <c r="BN19" s="64"/>
     </row>
     <row r="20" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="200">
+      <c r="A20" s="182">
         <v>9</v>
       </c>
       <c r="B20" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="242" t="s">
+      <c r="C20" s="255" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="243"/>
-      <c r="E20" s="257"/>
+      <c r="D20" s="256"/>
+      <c r="E20" s="253"/>
       <c r="F20" s="37"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -28948,11 +28948,11 @@
       <c r="BN20" s="61"/>
     </row>
     <row r="21" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="201"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="80"/>
-      <c r="C21" s="250"/>
-      <c r="D21" s="251"/>
-      <c r="E21" s="258"/>
+      <c r="C21" s="257"/>
+      <c r="D21" s="258"/>
+      <c r="E21" s="259"/>
       <c r="F21" s="51"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -29016,15 +29016,15 @@
       <c r="BN21" s="63"/>
     </row>
     <row r="22" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="200">
+      <c r="A22" s="182">
         <v>10</v>
       </c>
       <c r="B22" s="80"/>
-      <c r="C22" s="248" t="s">
+      <c r="C22" s="261" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="249"/>
-      <c r="E22" s="252"/>
+      <c r="D22" s="244"/>
+      <c r="E22" s="260"/>
       <c r="F22" s="51"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -29088,11 +29088,11 @@
       <c r="BN22" s="63"/>
     </row>
     <row r="23" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="201"/>
+      <c r="A23" s="183"/>
       <c r="B23" s="80"/>
-      <c r="C23" s="250"/>
-      <c r="D23" s="251"/>
-      <c r="E23" s="258"/>
+      <c r="C23" s="257"/>
+      <c r="D23" s="258"/>
+      <c r="E23" s="259"/>
       <c r="F23" s="51"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -29156,15 +29156,15 @@
       <c r="BN23" s="63"/>
     </row>
     <row r="24" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="200">
+      <c r="A24" s="182">
         <v>11</v>
       </c>
       <c r="B24" s="80"/>
-      <c r="C24" s="248" t="s">
+      <c r="C24" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="249"/>
-      <c r="E24" s="252"/>
+      <c r="D24" s="244"/>
+      <c r="E24" s="260"/>
       <c r="F24" s="52"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
@@ -29228,11 +29228,11 @@
       <c r="BN24" s="60"/>
     </row>
     <row r="25" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="201"/>
+      <c r="A25" s="183"/>
       <c r="B25" s="81"/>
-      <c r="C25" s="250"/>
-      <c r="D25" s="251"/>
-      <c r="E25" s="253"/>
+      <c r="C25" s="257"/>
+      <c r="D25" s="258"/>
+      <c r="E25" s="254"/>
       <c r="F25" s="54"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -29296,17 +29296,17 @@
       <c r="BN25" s="64"/>
     </row>
     <row r="26" spans="1:67" ht="12" customHeight="1">
-      <c r="A26" s="200">
+      <c r="A26" s="182">
         <v>12</v>
       </c>
       <c r="B26" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="254" t="s">
+      <c r="C26" s="262" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="255"/>
-      <c r="E26" s="256"/>
+      <c r="D26" s="263"/>
+      <c r="E26" s="266"/>
       <c r="F26" s="37"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -29371,11 +29371,11 @@
       <c r="BO26" s="3"/>
     </row>
     <row r="27" spans="1:67" ht="12" customHeight="1">
-      <c r="A27" s="201"/>
+      <c r="A27" s="183"/>
       <c r="B27" s="35"/>
-      <c r="C27" s="234"/>
-      <c r="D27" s="235"/>
-      <c r="E27" s="238"/>
+      <c r="C27" s="264"/>
+      <c r="D27" s="265"/>
+      <c r="E27" s="267"/>
       <c r="F27" s="51"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -29440,15 +29440,15 @@
       <c r="BO27" s="3"/>
     </row>
     <row r="28" spans="1:67" ht="12" customHeight="1">
-      <c r="A28" s="200">
+      <c r="A28" s="182">
         <v>13</v>
       </c>
       <c r="B28" s="35"/>
-      <c r="C28" s="234" t="s">
+      <c r="C28" s="264" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="235"/>
-      <c r="E28" s="238"/>
+      <c r="D28" s="265"/>
+      <c r="E28" s="267"/>
       <c r="F28" s="51"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -29513,11 +29513,11 @@
       <c r="BO28" s="3"/>
     </row>
     <row r="29" spans="1:67" ht="12" customHeight="1">
-      <c r="A29" s="201"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="237"/>
-      <c r="E29" s="239"/>
+      <c r="C29" s="268"/>
+      <c r="D29" s="269"/>
+      <c r="E29" s="270"/>
       <c r="F29" s="54"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -29582,17 +29582,17 @@
       <c r="BO29" s="3"/>
     </row>
     <row r="30" spans="1:67" ht="12" customHeight="1">
-      <c r="A30" s="200">
+      <c r="A30" s="182">
         <v>14</v>
       </c>
-      <c r="B30" s="240" t="s">
+      <c r="B30" s="271" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="242" t="s">
+      <c r="C30" s="255" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="243"/>
-      <c r="E30" s="246"/>
+      <c r="D30" s="256"/>
+      <c r="E30" s="275"/>
       <c r="F30" s="37"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -29657,11 +29657,11 @@
       <c r="BO30" s="3"/>
     </row>
     <row r="31" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A31" s="201"/>
-      <c r="B31" s="241"/>
-      <c r="C31" s="244"/>
-      <c r="D31" s="245"/>
-      <c r="E31" s="247"/>
+      <c r="A31" s="183"/>
+      <c r="B31" s="272"/>
+      <c r="C31" s="273"/>
+      <c r="D31" s="274"/>
+      <c r="E31" s="276"/>
       <c r="F31" s="38"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -29745,48 +29745,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AJ1:BM1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:AI1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="C28:D29"/>
     <mergeCell ref="E28:E29"/>
@@ -29794,6 +29752,48 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:D31"/>
     <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="AJ1:BM1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -29837,63 +29837,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="10.5" customHeight="1">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="268" t="s">
+      <c r="C1" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="269"/>
-      <c r="E1" s="313" t="s">
+      <c r="D1" s="235"/>
+      <c r="E1" s="277" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="274" t="s">
+      <c r="F1" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="215">
+      <c r="G1" s="194">
         <v>45078</v>
       </c>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
-      <c r="K1" s="216"/>
-      <c r="L1" s="216"/>
-      <c r="M1" s="216"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="216"/>
-      <c r="P1" s="216"/>
-      <c r="Q1" s="216"/>
-      <c r="R1" s="216"/>
-      <c r="S1" s="216"/>
-      <c r="T1" s="216"/>
-      <c r="U1" s="216"/>
-      <c r="V1" s="216"/>
-      <c r="W1" s="216"/>
-      <c r="X1" s="216"/>
-      <c r="Y1" s="216"/>
-      <c r="Z1" s="216"/>
-      <c r="AA1" s="216"/>
-      <c r="AB1" s="216"/>
-      <c r="AC1" s="216"/>
-      <c r="AD1" s="216"/>
-      <c r="AE1" s="216"/>
-      <c r="AF1" s="216"/>
-      <c r="AG1" s="216"/>
-      <c r="AH1" s="216"/>
-      <c r="AI1" s="216"/>
-      <c r="AJ1" s="220"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="195"/>
+      <c r="S1" s="195"/>
+      <c r="T1" s="195"/>
+      <c r="U1" s="195"/>
+      <c r="V1" s="195"/>
+      <c r="W1" s="195"/>
+      <c r="X1" s="195"/>
+      <c r="Y1" s="195"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="195"/>
+      <c r="AB1" s="195"/>
+      <c r="AC1" s="195"/>
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="195"/>
+      <c r="AG1" s="195"/>
+      <c r="AH1" s="195"/>
+      <c r="AI1" s="195"/>
+      <c r="AJ1" s="203"/>
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" ht="10.5" customHeight="1">
-      <c r="A2" s="222"/>
-      <c r="B2" s="225"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="314"/>
-      <c r="F2" s="275"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="241"/>
       <c r="G2" s="46">
         <v>42156</v>
       </c>
@@ -29987,12 +29987,12 @@
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="223"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="272"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="276"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="242"/>
       <c r="G3" s="48" t="s">
         <v>114</v>
       </c>
@@ -30086,20 +30086,20 @@
       <c r="AK3" s="45"/>
     </row>
     <row r="4" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="303">
+      <c r="A4" s="285">
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="304" t="s">
+      <c r="C4" s="286" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="305"/>
-      <c r="E4" s="306" t="s">
+      <c r="D4" s="287"/>
+      <c r="E4" s="288" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="308"/>
+      <c r="F4" s="290"/>
       <c r="G4" s="49"/>
       <c r="H4" s="11"/>
       <c r="I4" s="13"/>
@@ -30128,20 +30128,20 @@
       <c r="AF4" s="11"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="298" t="s">
+      <c r="AI4" s="280" t="s">
         <v>122</v>
       </c>
-      <c r="AJ4" s="298" t="s">
+      <c r="AJ4" s="280" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="201"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="250"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="307"/>
-      <c r="F5" s="309"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="291"/>
       <c r="G5" s="50"/>
       <c r="H5" s="10"/>
       <c r="I5" s="17"/>
@@ -30170,22 +30170,22 @@
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
-      <c r="AI5" s="299"/>
-      <c r="AJ5" s="299"/>
+      <c r="AI5" s="281"/>
+      <c r="AJ5" s="281"/>
     </row>
     <row r="6" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="200">
+      <c r="A6" s="182">
         <v>2</v>
       </c>
       <c r="B6" s="35"/>
-      <c r="C6" s="259" t="s">
+      <c r="C6" s="243" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="249"/>
-      <c r="E6" s="301" t="s">
+      <c r="D6" s="244"/>
+      <c r="E6" s="283" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="266"/>
+      <c r="F6" s="247"/>
       <c r="G6" s="51"/>
       <c r="H6" s="8"/>
       <c r="I6" s="14"/>
@@ -30214,16 +30214,16 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
-      <c r="AI6" s="299"/>
-      <c r="AJ6" s="299"/>
+      <c r="AI6" s="281"/>
+      <c r="AJ6" s="281"/>
     </row>
     <row r="7" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="201"/>
+      <c r="A7" s="183"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="260"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="302"/>
-      <c r="F7" s="267"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="248"/>
       <c r="G7" s="52"/>
       <c r="H7" s="25"/>
       <c r="I7" s="26"/>
@@ -30252,24 +30252,24 @@
       <c r="AF7" s="25"/>
       <c r="AG7" s="25"/>
       <c r="AH7" s="25"/>
-      <c r="AI7" s="299"/>
-      <c r="AJ7" s="299"/>
+      <c r="AI7" s="281"/>
+      <c r="AJ7" s="281"/>
     </row>
     <row r="8" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="280">
+      <c r="A8" s="292">
         <v>3</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="262" t="s">
+      <c r="C8" s="249" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="263"/>
-      <c r="E8" s="310" t="s">
+      <c r="D8" s="250"/>
+      <c r="E8" s="294" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="257"/>
+      <c r="F8" s="253"/>
       <c r="G8" s="37"/>
       <c r="H8" s="7"/>
       <c r="I8" s="16"/>
@@ -30298,16 +30298,16 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="299"/>
-      <c r="AJ8" s="299"/>
+      <c r="AI8" s="281"/>
+      <c r="AJ8" s="281"/>
     </row>
     <row r="9" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="281"/>
+      <c r="A9" s="293"/>
       <c r="B9" s="81"/>
-      <c r="C9" s="264"/>
-      <c r="D9" s="265"/>
-      <c r="E9" s="287"/>
-      <c r="F9" s="253"/>
+      <c r="C9" s="251"/>
+      <c r="D9" s="252"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="254"/>
       <c r="G9" s="53"/>
       <c r="H9" s="42"/>
       <c r="I9" s="43"/>
@@ -30336,24 +30336,24 @@
       <c r="AF9" s="42"/>
       <c r="AG9" s="42"/>
       <c r="AH9" s="42"/>
-      <c r="AI9" s="299"/>
-      <c r="AJ9" s="299"/>
+      <c r="AI9" s="281"/>
+      <c r="AJ9" s="281"/>
     </row>
     <row r="10" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="288">
+      <c r="A10" s="296">
         <v>4</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="311" t="s">
+      <c r="C10" s="297" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="312"/>
-      <c r="E10" s="292" t="s">
+      <c r="D10" s="298"/>
+      <c r="E10" s="301" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="293"/>
+      <c r="F10" s="303"/>
       <c r="G10" s="50"/>
       <c r="H10" s="10"/>
       <c r="I10" s="17"/>
@@ -30382,16 +30382,16 @@
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
-      <c r="AI10" s="299"/>
-      <c r="AJ10" s="299"/>
+      <c r="AI10" s="281"/>
+      <c r="AJ10" s="281"/>
     </row>
     <row r="11" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="281"/>
+      <c r="A11" s="293"/>
       <c r="B11" s="80"/>
-      <c r="C11" s="296"/>
-      <c r="D11" s="297"/>
-      <c r="E11" s="283"/>
-      <c r="F11" s="258"/>
+      <c r="C11" s="299"/>
+      <c r="D11" s="300"/>
+      <c r="E11" s="302"/>
+      <c r="F11" s="259"/>
       <c r="G11" s="50"/>
       <c r="H11" s="10"/>
       <c r="I11" s="17"/>
@@ -30420,22 +30420,22 @@
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
-      <c r="AI11" s="299"/>
-      <c r="AJ11" s="299"/>
+      <c r="AI11" s="281"/>
+      <c r="AJ11" s="281"/>
     </row>
     <row r="12" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="280">
+      <c r="A12" s="292">
         <v>5</v>
       </c>
       <c r="B12" s="80"/>
-      <c r="C12" s="294" t="s">
+      <c r="C12" s="304" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="295"/>
-      <c r="E12" s="282" t="s">
+      <c r="D12" s="305"/>
+      <c r="E12" s="306" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="252"/>
+      <c r="F12" s="260"/>
       <c r="G12" s="51"/>
       <c r="H12" s="8"/>
       <c r="I12" s="14"/>
@@ -30464,16 +30464,16 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
-      <c r="AI12" s="299"/>
-      <c r="AJ12" s="299"/>
+      <c r="AI12" s="281"/>
+      <c r="AJ12" s="281"/>
     </row>
     <row r="13" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A13" s="281"/>
+      <c r="A13" s="293"/>
       <c r="B13" s="80"/>
-      <c r="C13" s="296"/>
-      <c r="D13" s="297"/>
-      <c r="E13" s="283"/>
-      <c r="F13" s="258"/>
+      <c r="C13" s="299"/>
+      <c r="D13" s="300"/>
+      <c r="E13" s="302"/>
+      <c r="F13" s="259"/>
       <c r="G13" s="51"/>
       <c r="H13" s="8"/>
       <c r="I13" s="14"/>
@@ -30502,22 +30502,22 @@
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="299"/>
-      <c r="AJ13" s="299"/>
+      <c r="AI13" s="281"/>
+      <c r="AJ13" s="281"/>
     </row>
     <row r="14" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="280">
+      <c r="A14" s="292">
         <v>6</v>
       </c>
       <c r="B14" s="80"/>
-      <c r="C14" s="259" t="s">
+      <c r="C14" s="243" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="249"/>
-      <c r="E14" s="291" t="s">
+      <c r="D14" s="244"/>
+      <c r="E14" s="309" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="252"/>
+      <c r="F14" s="260"/>
       <c r="G14" s="51"/>
       <c r="H14" s="8"/>
       <c r="I14" s="14"/>
@@ -30546,16 +30546,16 @@
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
-      <c r="AI14" s="299"/>
-      <c r="AJ14" s="299"/>
+      <c r="AI14" s="281"/>
+      <c r="AJ14" s="281"/>
     </row>
     <row r="15" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="288"/>
+      <c r="A15" s="296"/>
       <c r="B15" s="80"/>
-      <c r="C15" s="289"/>
-      <c r="D15" s="290"/>
-      <c r="E15" s="292"/>
-      <c r="F15" s="293"/>
+      <c r="C15" s="307"/>
+      <c r="D15" s="308"/>
+      <c r="E15" s="301"/>
+      <c r="F15" s="303"/>
       <c r="G15" s="52"/>
       <c r="H15" s="25"/>
       <c r="I15" s="26"/>
@@ -30584,24 +30584,24 @@
       <c r="AF15" s="25"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="25"/>
-      <c r="AI15" s="299"/>
-      <c r="AJ15" s="299"/>
+      <c r="AI15" s="281"/>
+      <c r="AJ15" s="281"/>
     </row>
     <row r="16" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="286">
+      <c r="A16" s="310">
         <v>7</v>
       </c>
       <c r="B16" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="242" t="s">
+      <c r="C16" s="255" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="243"/>
-      <c r="E16" s="285" t="s">
+      <c r="D16" s="256"/>
+      <c r="E16" s="311" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="257"/>
+      <c r="F16" s="253"/>
       <c r="G16" s="37"/>
       <c r="H16" s="7"/>
       <c r="I16" s="16"/>
@@ -30630,16 +30630,16 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="299"/>
-      <c r="AJ16" s="299"/>
+      <c r="AI16" s="281"/>
+      <c r="AJ16" s="281"/>
     </row>
     <row r="17" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="286"/>
+      <c r="A17" s="310"/>
       <c r="B17" s="80"/>
-      <c r="C17" s="250"/>
-      <c r="D17" s="251"/>
-      <c r="E17" s="283"/>
-      <c r="F17" s="258"/>
+      <c r="C17" s="257"/>
+      <c r="D17" s="258"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="259"/>
       <c r="G17" s="52"/>
       <c r="H17" s="25"/>
       <c r="I17" s="26"/>
@@ -30668,22 +30668,22 @@
       <c r="AF17" s="25"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="25"/>
-      <c r="AI17" s="299"/>
-      <c r="AJ17" s="299"/>
+      <c r="AI17" s="281"/>
+      <c r="AJ17" s="281"/>
     </row>
     <row r="18" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="286">
+      <c r="A18" s="310">
         <v>7</v>
       </c>
       <c r="B18" s="80"/>
-      <c r="C18" s="259" t="s">
+      <c r="C18" s="243" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="249"/>
-      <c r="E18" s="282" t="s">
+      <c r="D18" s="244"/>
+      <c r="E18" s="306" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="252"/>
+      <c r="F18" s="260"/>
       <c r="G18" s="51"/>
       <c r="H18" s="8"/>
       <c r="I18" s="14"/>
@@ -30712,16 +30712,16 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
-      <c r="AI18" s="299"/>
-      <c r="AJ18" s="299"/>
+      <c r="AI18" s="281"/>
+      <c r="AJ18" s="281"/>
     </row>
     <row r="19" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="286"/>
+      <c r="A19" s="310"/>
       <c r="B19" s="80"/>
-      <c r="C19" s="250"/>
-      <c r="D19" s="251"/>
-      <c r="E19" s="283"/>
-      <c r="F19" s="258"/>
+      <c r="C19" s="257"/>
+      <c r="D19" s="258"/>
+      <c r="E19" s="302"/>
+      <c r="F19" s="259"/>
       <c r="G19" s="52"/>
       <c r="H19" s="25"/>
       <c r="I19" s="26"/>
@@ -30750,22 +30750,22 @@
       <c r="AF19" s="25"/>
       <c r="AG19" s="25"/>
       <c r="AH19" s="25"/>
-      <c r="AI19" s="299"/>
-      <c r="AJ19" s="299"/>
+      <c r="AI19" s="281"/>
+      <c r="AJ19" s="281"/>
     </row>
     <row r="20" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="286">
+      <c r="A20" s="310">
         <v>8</v>
       </c>
       <c r="B20" s="80"/>
-      <c r="C20" s="259" t="s">
+      <c r="C20" s="243" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="249"/>
-      <c r="E20" s="282" t="s">
+      <c r="D20" s="244"/>
+      <c r="E20" s="306" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="252"/>
+      <c r="F20" s="260"/>
       <c r="G20" s="52"/>
       <c r="H20" s="25"/>
       <c r="I20" s="26"/>
@@ -30794,16 +30794,16 @@
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
       <c r="AH20" s="25"/>
-      <c r="AI20" s="299"/>
-      <c r="AJ20" s="299"/>
+      <c r="AI20" s="281"/>
+      <c r="AJ20" s="281"/>
     </row>
     <row r="21" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="286"/>
+      <c r="A21" s="310"/>
       <c r="B21" s="81"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="261"/>
-      <c r="E21" s="287"/>
-      <c r="F21" s="253"/>
+      <c r="C21" s="245"/>
+      <c r="D21" s="246"/>
+      <c r="E21" s="295"/>
+      <c r="F21" s="254"/>
       <c r="G21" s="54"/>
       <c r="H21" s="9"/>
       <c r="I21" s="18"/>
@@ -30832,24 +30832,24 @@
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
-      <c r="AI21" s="299"/>
-      <c r="AJ21" s="299"/>
+      <c r="AI21" s="281"/>
+      <c r="AJ21" s="281"/>
     </row>
     <row r="22" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="280">
+      <c r="A22" s="292">
         <v>9</v>
       </c>
       <c r="B22" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="242" t="s">
+      <c r="C22" s="255" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="243"/>
-      <c r="E22" s="285" t="s">
+      <c r="D22" s="256"/>
+      <c r="E22" s="311" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="257"/>
+      <c r="F22" s="253"/>
       <c r="G22" s="37"/>
       <c r="H22" s="7"/>
       <c r="I22" s="16"/>
@@ -30878,16 +30878,16 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="299"/>
-      <c r="AJ22" s="299"/>
+      <c r="AI22" s="281"/>
+      <c r="AJ22" s="281"/>
     </row>
     <row r="23" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="281"/>
+      <c r="A23" s="293"/>
       <c r="B23" s="80"/>
-      <c r="C23" s="250"/>
-      <c r="D23" s="251"/>
-      <c r="E23" s="283"/>
-      <c r="F23" s="258"/>
+      <c r="C23" s="257"/>
+      <c r="D23" s="258"/>
+      <c r="E23" s="302"/>
+      <c r="F23" s="259"/>
       <c r="G23" s="51"/>
       <c r="H23" s="8"/>
       <c r="I23" s="14"/>
@@ -30916,22 +30916,22 @@
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="299"/>
-      <c r="AJ23" s="299"/>
+      <c r="AI23" s="281"/>
+      <c r="AJ23" s="281"/>
     </row>
     <row r="24" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="280">
+      <c r="A24" s="292">
         <v>10</v>
       </c>
       <c r="B24" s="80"/>
-      <c r="C24" s="248" t="s">
+      <c r="C24" s="261" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="249"/>
-      <c r="E24" s="282" t="s">
+      <c r="D24" s="244"/>
+      <c r="E24" s="306" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="252"/>
+      <c r="F24" s="260"/>
       <c r="G24" s="51"/>
       <c r="H24" s="8"/>
       <c r="I24" s="14"/>
@@ -30960,16 +30960,16 @@
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
-      <c r="AI24" s="299"/>
-      <c r="AJ24" s="299"/>
+      <c r="AI24" s="281"/>
+      <c r="AJ24" s="281"/>
     </row>
     <row r="25" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="281"/>
+      <c r="A25" s="293"/>
       <c r="B25" s="80"/>
-      <c r="C25" s="250"/>
-      <c r="D25" s="251"/>
-      <c r="E25" s="283"/>
-      <c r="F25" s="258"/>
+      <c r="C25" s="257"/>
+      <c r="D25" s="258"/>
+      <c r="E25" s="302"/>
+      <c r="F25" s="259"/>
       <c r="G25" s="51"/>
       <c r="H25" s="8"/>
       <c r="I25" s="14"/>
@@ -30998,22 +30998,22 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
-      <c r="AI25" s="299"/>
-      <c r="AJ25" s="299"/>
+      <c r="AI25" s="281"/>
+      <c r="AJ25" s="281"/>
     </row>
     <row r="26" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="280">
+      <c r="A26" s="292">
         <v>12</v>
       </c>
       <c r="B26" s="80"/>
-      <c r="C26" s="248" t="s">
+      <c r="C26" s="261" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="249"/>
-      <c r="E26" s="282" t="s">
+      <c r="D26" s="244"/>
+      <c r="E26" s="306" t="s">
         <v>142</v>
       </c>
-      <c r="F26" s="252"/>
+      <c r="F26" s="260"/>
       <c r="G26" s="52"/>
       <c r="H26" s="25"/>
       <c r="I26" s="26"/>
@@ -31042,16 +31042,16 @@
       <c r="AF26" s="25"/>
       <c r="AG26" s="25"/>
       <c r="AH26" s="25"/>
-      <c r="AI26" s="299"/>
-      <c r="AJ26" s="299"/>
+      <c r="AI26" s="281"/>
+      <c r="AJ26" s="281"/>
     </row>
     <row r="27" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="281"/>
+      <c r="A27" s="293"/>
       <c r="B27" s="81"/>
-      <c r="C27" s="250"/>
-      <c r="D27" s="251"/>
-      <c r="E27" s="283"/>
-      <c r="F27" s="253"/>
+      <c r="C27" s="257"/>
+      <c r="D27" s="258"/>
+      <c r="E27" s="302"/>
+      <c r="F27" s="254"/>
       <c r="G27" s="54"/>
       <c r="H27" s="9"/>
       <c r="I27" s="18"/>
@@ -31080,24 +31080,24 @@
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
-      <c r="AI27" s="299"/>
-      <c r="AJ27" s="299"/>
+      <c r="AI27" s="281"/>
+      <c r="AJ27" s="281"/>
     </row>
     <row r="28" spans="1:37" ht="12" customHeight="1">
-      <c r="A28" s="200">
+      <c r="A28" s="182">
         <v>13</v>
       </c>
       <c r="B28" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="254" t="s">
+      <c r="C28" s="262" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="255"/>
-      <c r="E28" s="284" t="s">
+      <c r="D28" s="263"/>
+      <c r="E28" s="312" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="256"/>
+      <c r="F28" s="266"/>
       <c r="G28" s="37"/>
       <c r="H28" s="7"/>
       <c r="I28" s="16"/>
@@ -31126,17 +31126,17 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
-      <c r="AI28" s="299"/>
-      <c r="AJ28" s="299"/>
+      <c r="AI28" s="281"/>
+      <c r="AJ28" s="281"/>
       <c r="AK28" s="3"/>
     </row>
     <row r="29" spans="1:37" ht="12" customHeight="1">
-      <c r="A29" s="201"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="35"/>
-      <c r="C29" s="234"/>
-      <c r="D29" s="235"/>
-      <c r="E29" s="277"/>
-      <c r="F29" s="238"/>
+      <c r="C29" s="264"/>
+      <c r="D29" s="265"/>
+      <c r="E29" s="313"/>
+      <c r="F29" s="267"/>
       <c r="G29" s="51"/>
       <c r="H29" s="8"/>
       <c r="I29" s="14"/>
@@ -31165,23 +31165,23 @@
       <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
-      <c r="AI29" s="299"/>
-      <c r="AJ29" s="299"/>
+      <c r="AI29" s="281"/>
+      <c r="AJ29" s="281"/>
       <c r="AK29" s="3"/>
     </row>
     <row r="30" spans="1:37" ht="12" customHeight="1">
-      <c r="A30" s="200">
+      <c r="A30" s="182">
         <v>14</v>
       </c>
       <c r="B30" s="35"/>
-      <c r="C30" s="234" t="s">
+      <c r="C30" s="264" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="235"/>
-      <c r="E30" s="277" t="s">
+      <c r="D30" s="265"/>
+      <c r="E30" s="313" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="238"/>
+      <c r="F30" s="267"/>
       <c r="G30" s="51"/>
       <c r="H30" s="8"/>
       <c r="I30" s="14"/>
@@ -31210,17 +31210,17 @@
       <c r="AF30" s="8"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
-      <c r="AI30" s="299"/>
-      <c r="AJ30" s="299"/>
+      <c r="AI30" s="281"/>
+      <c r="AJ30" s="281"/>
       <c r="AK30" s="3"/>
     </row>
     <row r="31" spans="1:37" ht="12" customHeight="1">
-      <c r="A31" s="201"/>
+      <c r="A31" s="183"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="236"/>
-      <c r="D31" s="237"/>
-      <c r="E31" s="278"/>
-      <c r="F31" s="239"/>
+      <c r="C31" s="268"/>
+      <c r="D31" s="269"/>
+      <c r="E31" s="314"/>
+      <c r="F31" s="270"/>
       <c r="G31" s="54"/>
       <c r="H31" s="9"/>
       <c r="I31" s="18"/>
@@ -31249,25 +31249,25 @@
       <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
       <c r="AH31" s="9"/>
-      <c r="AI31" s="299"/>
-      <c r="AJ31" s="299"/>
+      <c r="AI31" s="281"/>
+      <c r="AJ31" s="281"/>
       <c r="AK31" s="3"/>
     </row>
     <row r="32" spans="1:37" ht="12" customHeight="1">
-      <c r="A32" s="200">
+      <c r="A32" s="182">
         <v>15</v>
       </c>
-      <c r="B32" s="240" t="s">
+      <c r="B32" s="271" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="242" t="s">
+      <c r="C32" s="255" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="243"/>
-      <c r="E32" s="240" t="s">
+      <c r="D32" s="256"/>
+      <c r="E32" s="271" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="246"/>
+      <c r="F32" s="275"/>
       <c r="G32" s="37"/>
       <c r="H32" s="7"/>
       <c r="I32" s="16"/>
@@ -31296,17 +31296,17 @@
       <c r="AF32" s="39"/>
       <c r="AG32" s="39"/>
       <c r="AH32" s="39"/>
-      <c r="AI32" s="299"/>
-      <c r="AJ32" s="299"/>
+      <c r="AI32" s="281"/>
+      <c r="AJ32" s="281"/>
       <c r="AK32" s="3"/>
     </row>
     <row r="33" spans="1:37" ht="12" customHeight="1" thickBot="1">
-      <c r="A33" s="279"/>
-      <c r="B33" s="241"/>
-      <c r="C33" s="244"/>
-      <c r="D33" s="245"/>
-      <c r="E33" s="241"/>
-      <c r="F33" s="247"/>
+      <c r="A33" s="315"/>
+      <c r="B33" s="272"/>
+      <c r="C33" s="273"/>
+      <c r="D33" s="274"/>
+      <c r="E33" s="272"/>
+      <c r="F33" s="276"/>
       <c r="G33" s="38"/>
       <c r="H33" s="12"/>
       <c r="I33" s="15"/>
@@ -31335,8 +31335,8 @@
       <c r="AF33" s="12"/>
       <c r="AG33" s="12"/>
       <c r="AH33" s="12"/>
-      <c r="AI33" s="300"/>
-      <c r="AJ33" s="300"/>
+      <c r="AI33" s="282"/>
+      <c r="AJ33" s="282"/>
       <c r="AK33" s="3"/>
     </row>
     <row r="34" spans="1:37">
@@ -31357,12 +31357,53 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AJ4:AJ33"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -31379,53 +31420,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/WBS/0905/003-WBS.xlsx
+++ b/000-要件定義/WBS/0905/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\演習プロジェクト\000-要件定義\WBS\0905\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EC9BAA-C60E-4657-AC4D-B168FB3871FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA2E0D2-224B-44D7-B6F3-A3B58BD5A737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必須機能スケジュール (テンプレート)" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="155">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -398,12 +398,6 @@
       <t>ジッセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【指】指導員レビュー</t>
-  </si>
-  <si>
-    <t>≪役≫役席レビュー</t>
   </si>
   <si>
     <t>試験計画</t>
@@ -2843,53 +2837,32 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2899,6 +2872,78 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2936,68 +2981,119 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3026,116 +3122,68 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -3173,20 +3221,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3194,56 +3230,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4108,7 +4102,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -4124,10 +4118,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="9.6">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="224" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="83" t="s">
@@ -4136,82 +4130,82 @@
       <c r="D1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="210" t="s">
+      <c r="E1" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="194">
+      <c r="F1" s="215">
         <v>45901</v>
       </c>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="195"/>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="195"/>
-      <c r="Z1" s="195"/>
-      <c r="AA1" s="195"/>
-      <c r="AB1" s="195"/>
-      <c r="AC1" s="195"/>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="195"/>
-      <c r="AH1" s="195"/>
-      <c r="AI1" s="203"/>
-      <c r="AJ1" s="194">
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="216"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="216"/>
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="216"/>
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="216"/>
+      <c r="AD1" s="216"/>
+      <c r="AE1" s="216"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="216"/>
+      <c r="AH1" s="216"/>
+      <c r="AI1" s="220"/>
+      <c r="AJ1" s="215">
         <v>45931</v>
       </c>
-      <c r="AK1" s="195"/>
-      <c r="AL1" s="195"/>
-      <c r="AM1" s="195"/>
-      <c r="AN1" s="195"/>
-      <c r="AO1" s="195"/>
-      <c r="AP1" s="195"/>
-      <c r="AQ1" s="195"/>
-      <c r="AR1" s="195"/>
-      <c r="AS1" s="195"/>
-      <c r="AT1" s="195"/>
-      <c r="AU1" s="195"/>
-      <c r="AV1" s="195"/>
-      <c r="AW1" s="195"/>
-      <c r="AX1" s="195"/>
-      <c r="AY1" s="195"/>
-      <c r="AZ1" s="195"/>
-      <c r="BA1" s="195"/>
-      <c r="BB1" s="195"/>
-      <c r="BC1" s="195"/>
-      <c r="BD1" s="195"/>
-      <c r="BE1" s="195"/>
-      <c r="BF1" s="195"/>
-      <c r="BG1" s="195"/>
-      <c r="BH1" s="195"/>
-      <c r="BI1" s="195"/>
-      <c r="BJ1" s="195"/>
-      <c r="BK1" s="195"/>
-      <c r="BL1" s="195"/>
-      <c r="BM1" s="195"/>
+      <c r="AK1" s="216"/>
+      <c r="AL1" s="216"/>
+      <c r="AM1" s="216"/>
+      <c r="AN1" s="216"/>
+      <c r="AO1" s="216"/>
+      <c r="AP1" s="216"/>
+      <c r="AQ1" s="216"/>
+      <c r="AR1" s="216"/>
+      <c r="AS1" s="216"/>
+      <c r="AT1" s="216"/>
+      <c r="AU1" s="216"/>
+      <c r="AV1" s="216"/>
+      <c r="AW1" s="216"/>
+      <c r="AX1" s="216"/>
+      <c r="AY1" s="216"/>
+      <c r="AZ1" s="216"/>
+      <c r="BA1" s="216"/>
+      <c r="BB1" s="216"/>
+      <c r="BC1" s="216"/>
+      <c r="BD1" s="216"/>
+      <c r="BE1" s="216"/>
+      <c r="BF1" s="216"/>
+      <c r="BG1" s="216"/>
+      <c r="BH1" s="216"/>
+      <c r="BI1" s="216"/>
+      <c r="BJ1" s="216"/>
+      <c r="BK1" s="216"/>
+      <c r="BL1" s="216"/>
+      <c r="BM1" s="216"/>
       <c r="BN1" s="66"/>
       <c r="BO1" s="3"/>
     </row>
     <row r="2" spans="1:67" ht="9.6">
-      <c r="A2" s="205"/>
-      <c r="B2" s="208"/>
+      <c r="A2" s="222"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="84"/>
       <c r="D2" s="88"/>
-      <c r="E2" s="211"/>
+      <c r="E2" s="228"/>
       <c r="F2" s="46">
         <v>42156</v>
       </c>
@@ -4398,11 +4392,11 @@
       <c r="BO2" s="3"/>
     </row>
     <row r="3" spans="1:67" s="2" customFormat="1" ht="9.6">
-      <c r="A3" s="206"/>
-      <c r="B3" s="209"/>
+      <c r="A3" s="223"/>
+      <c r="B3" s="226"/>
       <c r="C3" s="84"/>
       <c r="D3" s="88"/>
-      <c r="E3" s="212"/>
+      <c r="E3" s="229"/>
       <c r="F3" s="48" t="s">
         <v>5</v>
       </c>
@@ -4589,7 +4583,7 @@
       <c r="BO3" s="45"/>
     </row>
     <row r="4" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A4" s="182">
+      <c r="A4" s="200">
         <v>1</v>
       </c>
       <c r="B4" s="70" t="s">
@@ -4598,10 +4592,10 @@
       <c r="C4" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="217"/>
+      <c r="E4" s="212"/>
       <c r="F4" s="71"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -4610,7 +4604,7 @@
       <c r="K4" s="17"/>
       <c r="L4" s="23"/>
       <c r="M4" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -4667,11 +4661,11 @@
       <c r="BN4" s="59"/>
     </row>
     <row r="5" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A5" s="183"/>
+      <c r="A5" s="201"/>
       <c r="B5" s="70"/>
       <c r="C5" s="90"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="218"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="213"/>
       <c r="F5" s="116"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -4735,7 +4729,7 @@
       <c r="BN5" s="60"/>
     </row>
     <row r="6" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A6" s="182">
+      <c r="A6" s="200">
         <v>2</v>
       </c>
       <c r="B6" s="68" t="s">
@@ -4744,10 +4738,10 @@
       <c r="C6" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="213" t="s">
+      <c r="D6" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="184"/>
+      <c r="E6" s="217"/>
       <c r="F6" s="37"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
@@ -4811,11 +4805,11 @@
       <c r="BN6" s="61"/>
     </row>
     <row r="7" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A7" s="183"/>
+      <c r="A7" s="201"/>
       <c r="B7" s="69"/>
       <c r="C7" s="92"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="185"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="203"/>
       <c r="F7" s="53"/>
       <c r="G7" s="117"/>
       <c r="H7" s="42"/>
@@ -4879,7 +4873,7 @@
       <c r="BN7" s="62"/>
     </row>
     <row r="8" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A8" s="182">
+      <c r="A8" s="200">
         <v>3</v>
       </c>
       <c r="B8" s="79" t="s">
@@ -4888,11 +4882,11 @@
       <c r="C8" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="213" t="s">
+      <c r="D8" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="184" t="s">
-        <v>147</v>
+      <c r="E8" s="217" t="s">
+        <v>145</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="7"/>
@@ -4902,7 +4896,7 @@
       <c r="K8" s="16"/>
       <c r="L8" s="22"/>
       <c r="M8" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -4959,11 +4953,11 @@
       <c r="BN8" s="61"/>
     </row>
     <row r="9" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A9" s="183"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="81"/>
       <c r="C9" s="86"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="185"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="203"/>
       <c r="F9" s="53"/>
       <c r="G9" s="117"/>
       <c r="H9" s="117"/>
@@ -5027,7 +5021,7 @@
       <c r="BN9" s="62"/>
     </row>
     <row r="10" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A10" s="182">
+      <c r="A10" s="200">
         <v>4</v>
       </c>
       <c r="B10" s="79" t="s">
@@ -5036,11 +5030,11 @@
       <c r="C10" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="213" t="s">
+      <c r="D10" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="184" t="s">
-        <v>147</v>
+      <c r="E10" s="217" t="s">
+        <v>145</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="7"/>
@@ -5050,7 +5044,7 @@
       <c r="K10" s="16"/>
       <c r="L10" s="22"/>
       <c r="M10" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -5107,11 +5101,11 @@
       <c r="BN10" s="61"/>
     </row>
     <row r="11" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A11" s="183"/>
+      <c r="A11" s="201"/>
       <c r="B11" s="81"/>
       <c r="C11" s="86"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="185"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="203"/>
       <c r="F11" s="53"/>
       <c r="G11" s="117"/>
       <c r="H11" s="117"/>
@@ -5175,7 +5169,7 @@
       <c r="BN11" s="62"/>
     </row>
     <row r="12" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A12" s="182">
+      <c r="A12" s="200">
         <v>5</v>
       </c>
       <c r="B12" s="79" t="s">
@@ -5184,10 +5178,12 @@
       <c r="C12" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="213" t="s">
+      <c r="D12" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="184"/>
+      <c r="E12" s="217" t="s">
+        <v>145</v>
+      </c>
       <c r="F12" s="37"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -5196,7 +5192,7 @@
       <c r="K12" s="16"/>
       <c r="L12" s="22"/>
       <c r="M12" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -5253,11 +5249,11 @@
       <c r="BN12" s="61"/>
     </row>
     <row r="13" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A13" s="183"/>
+      <c r="A13" s="201"/>
       <c r="B13" s="81"/>
       <c r="C13" s="86"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="185"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="203"/>
       <c r="F13" s="53"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
@@ -5321,19 +5317,19 @@
       <c r="BN13" s="62"/>
     </row>
     <row r="14" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A14" s="182">
+      <c r="A14" s="200">
         <v>6</v>
       </c>
-      <c r="B14" s="187" t="s">
+      <c r="B14" s="230" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="191" t="s">
+      <c r="C14" s="233" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="219" t="s">
+      <c r="D14" s="214" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="184"/>
+      <c r="E14" s="217"/>
       <c r="F14" s="37"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -5350,7 +5346,7 @@
       <c r="S14" s="22"/>
       <c r="T14" s="75"/>
       <c r="U14" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
@@ -5399,11 +5395,11 @@
       <c r="BN14" s="61"/>
     </row>
     <row r="15" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A15" s="183"/>
-      <c r="B15" s="188"/>
-      <c r="C15" s="192"/>
-      <c r="D15" s="216"/>
-      <c r="E15" s="186"/>
+      <c r="A15" s="201"/>
+      <c r="B15" s="231"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="204"/>
       <c r="F15" s="52"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -5467,15 +5463,15 @@
       <c r="BN15" s="60"/>
     </row>
     <row r="16" spans="1:67" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A16" s="182">
+      <c r="A16" s="200">
         <v>7</v>
       </c>
-      <c r="B16" s="188"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="215" t="s">
+      <c r="B16" s="231"/>
+      <c r="C16" s="190"/>
+      <c r="D16" s="205" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="190"/>
+      <c r="E16" s="202"/>
       <c r="F16" s="51"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -5492,7 +5488,7 @@
       <c r="S16" s="20"/>
       <c r="T16" s="74"/>
       <c r="U16" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
@@ -5541,11 +5537,11 @@
       <c r="BN16" s="63"/>
     </row>
     <row r="17" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A17" s="183"/>
-      <c r="B17" s="188"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="186"/>
+      <c r="A17" s="201"/>
+      <c r="B17" s="231"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="204"/>
       <c r="F17" s="52"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -5609,15 +5605,15 @@
       <c r="BN17" s="60"/>
     </row>
     <row r="18" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A18" s="182">
+      <c r="A18" s="200">
         <v>8</v>
       </c>
-      <c r="B18" s="188"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="215" t="s">
+      <c r="B18" s="231"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="205" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="190"/>
+      <c r="E18" s="202"/>
       <c r="F18" s="51"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -5634,7 +5630,7 @@
       <c r="S18" s="20"/>
       <c r="T18" s="74"/>
       <c r="U18" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
@@ -5683,11 +5679,11 @@
       <c r="BN18" s="63"/>
     </row>
     <row r="19" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A19" s="183"/>
-      <c r="B19" s="188"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="216"/>
-      <c r="E19" s="186"/>
+      <c r="A19" s="201"/>
+      <c r="B19" s="231"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="204"/>
       <c r="F19" s="52"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
@@ -5751,15 +5747,15 @@
       <c r="BN19" s="60"/>
     </row>
     <row r="20" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A20" s="182">
+      <c r="A20" s="200">
         <v>9</v>
       </c>
-      <c r="B20" s="188"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="215" t="s">
+      <c r="B20" s="231"/>
+      <c r="C20" s="190"/>
+      <c r="D20" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="190"/>
+      <c r="E20" s="202"/>
       <c r="F20" s="51"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -5776,7 +5772,7 @@
       <c r="S20" s="20"/>
       <c r="T20" s="74"/>
       <c r="U20" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
@@ -5825,11 +5821,11 @@
       <c r="BN20" s="63"/>
     </row>
     <row r="21" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A21" s="183"/>
-      <c r="B21" s="188"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="216"/>
-      <c r="E21" s="186"/>
+      <c r="A21" s="201"/>
+      <c r="B21" s="231"/>
+      <c r="C21" s="190"/>
+      <c r="D21" s="206"/>
+      <c r="E21" s="204"/>
       <c r="F21" s="52"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -5893,15 +5889,15 @@
       <c r="BN21" s="60"/>
     </row>
     <row r="22" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A22" s="182">
+      <c r="A22" s="200">
         <v>10</v>
       </c>
-      <c r="B22" s="188"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="215" t="s">
+      <c r="B22" s="231"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="190"/>
+      <c r="E22" s="202"/>
       <c r="F22" s="51"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -5924,7 +5920,7 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AB22" s="74"/>
       <c r="AC22" s="8"/>
@@ -5967,11 +5963,11 @@
       <c r="BN22" s="63"/>
     </row>
     <row r="23" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A23" s="183"/>
-      <c r="B23" s="188"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="216"/>
-      <c r="E23" s="186"/>
+      <c r="A23" s="201"/>
+      <c r="B23" s="231"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="206"/>
+      <c r="E23" s="204"/>
       <c r="F23" s="52"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
@@ -6035,15 +6031,15 @@
       <c r="BN23" s="60"/>
     </row>
     <row r="24" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A24" s="182">
+      <c r="A24" s="200">
         <v>11</v>
       </c>
-      <c r="B24" s="188"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="215" t="s">
+      <c r="B24" s="231"/>
+      <c r="C24" s="190"/>
+      <c r="D24" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="190"/>
+      <c r="E24" s="202"/>
       <c r="F24" s="51"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -6066,7 +6062,7 @@
       <c r="Y24" s="14"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AB24" s="74"/>
       <c r="AC24" s="8"/>
@@ -6109,11 +6105,11 @@
       <c r="BN24" s="63"/>
     </row>
     <row r="25" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A25" s="183"/>
-      <c r="B25" s="188"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="216"/>
-      <c r="E25" s="186"/>
+      <c r="A25" s="201"/>
+      <c r="B25" s="231"/>
+      <c r="C25" s="190"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="204"/>
       <c r="F25" s="52"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
@@ -6177,15 +6173,15 @@
       <c r="BN25" s="60"/>
     </row>
     <row r="26" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A26" s="182">
+      <c r="A26" s="200">
         <v>12</v>
       </c>
-      <c r="B26" s="188"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="215" t="s">
+      <c r="B26" s="231"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="205" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="190"/>
+      <c r="E26" s="202"/>
       <c r="F26" s="51"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -6208,7 +6204,7 @@
       <c r="Y26" s="14"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AB26" s="74"/>
       <c r="AC26" s="8"/>
@@ -6251,11 +6247,11 @@
       <c r="BN26" s="63"/>
     </row>
     <row r="27" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A27" s="183"/>
-      <c r="B27" s="188"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="216"/>
-      <c r="E27" s="186"/>
+      <c r="A27" s="201"/>
+      <c r="B27" s="231"/>
+      <c r="C27" s="190"/>
+      <c r="D27" s="206"/>
+      <c r="E27" s="204"/>
       <c r="F27" s="52"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -6319,15 +6315,15 @@
       <c r="BN27" s="60"/>
     </row>
     <row r="28" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A28" s="182">
+      <c r="A28" s="200">
         <v>13</v>
       </c>
-      <c r="B28" s="188"/>
-      <c r="C28" s="192"/>
-      <c r="D28" s="215" t="s">
+      <c r="B28" s="231"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="205" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="190"/>
+      <c r="E28" s="202"/>
       <c r="F28" s="51"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -6350,7 +6346,7 @@
       <c r="Y28" s="14"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AB28" s="74"/>
       <c r="AC28" s="8"/>
@@ -6393,11 +6389,11 @@
       <c r="BN28" s="63"/>
     </row>
     <row r="29" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A29" s="183"/>
-      <c r="B29" s="188"/>
-      <c r="C29" s="192"/>
-      <c r="D29" s="216"/>
-      <c r="E29" s="186"/>
+      <c r="A29" s="201"/>
+      <c r="B29" s="231"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="204"/>
       <c r="F29" s="52"/>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
@@ -6461,15 +6457,15 @@
       <c r="BN29" s="60"/>
     </row>
     <row r="30" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A30" s="182">
+      <c r="A30" s="200">
         <v>14</v>
       </c>
-      <c r="B30" s="188"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="215" t="s">
+      <c r="B30" s="231"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="205" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="190"/>
+      <c r="E30" s="202"/>
       <c r="F30" s="51"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -6492,7 +6488,7 @@
       <c r="Y30" s="14"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AB30" s="74"/>
       <c r="AC30" s="8"/>
@@ -6535,11 +6531,11 @@
       <c r="BN30" s="63"/>
     </row>
     <row r="31" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A31" s="183"/>
-      <c r="B31" s="188"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="216"/>
-      <c r="E31" s="186"/>
+      <c r="A31" s="201"/>
+      <c r="B31" s="231"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="206"/>
+      <c r="E31" s="204"/>
       <c r="F31" s="52"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
@@ -6603,15 +6599,15 @@
       <c r="BN31" s="60"/>
     </row>
     <row r="32" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A32" s="182">
+      <c r="A32" s="200">
         <v>15</v>
       </c>
-      <c r="B32" s="188"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="215" t="s">
+      <c r="B32" s="231"/>
+      <c r="C32" s="190"/>
+      <c r="D32" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="190"/>
+      <c r="E32" s="202"/>
       <c r="F32" s="51"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -6634,7 +6630,7 @@
       <c r="Y32" s="14"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AB32" s="74"/>
       <c r="AC32" s="8"/>
@@ -6677,11 +6673,11 @@
       <c r="BN32" s="63"/>
     </row>
     <row r="33" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A33" s="183"/>
-      <c r="B33" s="188"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="216"/>
-      <c r="E33" s="186"/>
+      <c r="A33" s="201"/>
+      <c r="B33" s="231"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="206"/>
+      <c r="E33" s="204"/>
       <c r="F33" s="52"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -6745,15 +6741,15 @@
       <c r="BN33" s="60"/>
     </row>
     <row r="34" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A34" s="182">
+      <c r="A34" s="200">
         <v>16</v>
       </c>
-      <c r="B34" s="188"/>
-      <c r="C34" s="192"/>
-      <c r="D34" s="215" t="s">
+      <c r="B34" s="231"/>
+      <c r="C34" s="190"/>
+      <c r="D34" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="190"/>
+      <c r="E34" s="202"/>
       <c r="F34" s="51"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -6776,7 +6772,7 @@
       <c r="Y34" s="14"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AB34" s="74"/>
       <c r="AC34" s="8"/>
@@ -6819,11 +6815,11 @@
       <c r="BN34" s="63"/>
     </row>
     <row r="35" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A35" s="183"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="192"/>
-      <c r="D35" s="216"/>
-      <c r="E35" s="186"/>
+      <c r="A35" s="201"/>
+      <c r="B35" s="231"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="204"/>
       <c r="F35" s="52"/>
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
@@ -6887,15 +6883,15 @@
       <c r="BN35" s="60"/>
     </row>
     <row r="36" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A36" s="182">
+      <c r="A36" s="200">
         <v>17</v>
       </c>
-      <c r="B36" s="188"/>
-      <c r="C36" s="192"/>
-      <c r="D36" s="215" t="s">
+      <c r="B36" s="231"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="190"/>
+      <c r="E36" s="202"/>
       <c r="F36" s="52"/>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
@@ -6918,7 +6914,7 @@
       <c r="Y36" s="26"/>
       <c r="Z36" s="27"/>
       <c r="AA36" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AB36" s="73"/>
       <c r="AC36" s="25"/>
@@ -6961,11 +6957,11 @@
       <c r="BN36" s="60"/>
     </row>
     <row r="37" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A37" s="183"/>
-      <c r="B37" s="189"/>
-      <c r="C37" s="193"/>
-      <c r="D37" s="220"/>
-      <c r="E37" s="185"/>
+      <c r="A37" s="201"/>
+      <c r="B37" s="232"/>
+      <c r="C37" s="199"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="203"/>
       <c r="F37" s="54"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -7029,19 +7025,19 @@
       <c r="BN37" s="64"/>
     </row>
     <row r="38" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A38" s="182">
+      <c r="A38" s="200">
         <v>18</v>
       </c>
-      <c r="B38" s="198" t="s">
+      <c r="B38" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="201" t="s">
+      <c r="C38" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="221" t="s">
+      <c r="D38" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="184"/>
+      <c r="E38" s="217"/>
       <c r="F38" s="37"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -7105,11 +7101,11 @@
       <c r="BN38" s="61"/>
     </row>
     <row r="39" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A39" s="183"/>
-      <c r="B39" s="199"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="222"/>
-      <c r="E39" s="186"/>
+      <c r="A39" s="201"/>
+      <c r="B39" s="192"/>
+      <c r="C39" s="219"/>
+      <c r="D39" s="209"/>
+      <c r="E39" s="204"/>
       <c r="F39" s="52"/>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
@@ -7173,17 +7169,17 @@
       <c r="BN39" s="60"/>
     </row>
     <row r="40" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A40" s="182">
+      <c r="A40" s="200">
         <v>19</v>
       </c>
-      <c r="B40" s="199"/>
-      <c r="C40" s="231" t="s">
+      <c r="B40" s="192"/>
+      <c r="C40" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="223" t="s">
-        <v>148</v>
-      </c>
-      <c r="E40" s="196"/>
+      <c r="D40" s="182" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="186"/>
       <c r="F40" s="51"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -7213,7 +7209,7 @@
       <c r="AF40" s="14"/>
       <c r="AG40" s="20"/>
       <c r="AH40" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI40" s="63"/>
       <c r="AJ40" s="51"/>
@@ -7249,11 +7245,11 @@
       <c r="BN40" s="63"/>
     </row>
     <row r="41" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A41" s="183"/>
-      <c r="B41" s="199"/>
-      <c r="C41" s="232"/>
-      <c r="D41" s="224"/>
-      <c r="E41" s="197"/>
+      <c r="A41" s="201"/>
+      <c r="B41" s="192"/>
+      <c r="C41" s="197"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="187"/>
       <c r="F41" s="52"/>
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
@@ -7317,15 +7313,15 @@
       <c r="BN41" s="60"/>
     </row>
     <row r="42" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A42" s="182">
+      <c r="A42" s="200">
         <v>20</v>
       </c>
-      <c r="B42" s="199"/>
-      <c r="C42" s="232"/>
-      <c r="D42" s="225" t="s">
+      <c r="B42" s="192"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="196"/>
+      <c r="E42" s="186"/>
       <c r="F42" s="51"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -7355,7 +7351,7 @@
       <c r="AF42" s="14"/>
       <c r="AG42" s="20"/>
       <c r="AH42" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI42" s="63"/>
       <c r="AJ42" s="51"/>
@@ -7391,11 +7387,11 @@
       <c r="BN42" s="63"/>
     </row>
     <row r="43" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A43" s="183"/>
-      <c r="B43" s="199"/>
-      <c r="C43" s="232"/>
-      <c r="D43" s="226"/>
-      <c r="E43" s="197"/>
+      <c r="A43" s="201"/>
+      <c r="B43" s="192"/>
+      <c r="C43" s="197"/>
+      <c r="D43" s="185"/>
+      <c r="E43" s="187"/>
       <c r="F43" s="52"/>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
@@ -7459,15 +7455,15 @@
       <c r="BN43" s="60"/>
     </row>
     <row r="44" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A44" s="182">
+      <c r="A44" s="200">
         <v>21</v>
       </c>
-      <c r="B44" s="199"/>
-      <c r="C44" s="232"/>
-      <c r="D44" s="225" t="s">
+      <c r="B44" s="192"/>
+      <c r="C44" s="197"/>
+      <c r="D44" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="196"/>
+      <c r="E44" s="186"/>
       <c r="F44" s="51"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -7497,7 +7493,7 @@
       <c r="AF44" s="14"/>
       <c r="AG44" s="20"/>
       <c r="AH44" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI44" s="63"/>
       <c r="AJ44" s="51"/>
@@ -7533,11 +7529,11 @@
       <c r="BN44" s="63"/>
     </row>
     <row r="45" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A45" s="183"/>
-      <c r="B45" s="199"/>
-      <c r="C45" s="232"/>
-      <c r="D45" s="226"/>
-      <c r="E45" s="197"/>
+      <c r="A45" s="201"/>
+      <c r="B45" s="192"/>
+      <c r="C45" s="197"/>
+      <c r="D45" s="185"/>
+      <c r="E45" s="187"/>
       <c r="F45" s="52"/>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
@@ -7601,15 +7597,15 @@
       <c r="BN45" s="60"/>
     </row>
     <row r="46" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A46" s="182">
+      <c r="A46" s="200">
         <v>22</v>
       </c>
-      <c r="B46" s="199"/>
-      <c r="C46" s="232"/>
-      <c r="D46" s="225" t="s">
+      <c r="B46" s="192"/>
+      <c r="C46" s="197"/>
+      <c r="D46" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="196"/>
+      <c r="E46" s="186"/>
       <c r="F46" s="51"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -7639,7 +7635,7 @@
       <c r="AF46" s="14"/>
       <c r="AG46" s="20"/>
       <c r="AH46" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI46" s="63"/>
       <c r="AJ46" s="51"/>
@@ -7675,11 +7671,11 @@
       <c r="BN46" s="63"/>
     </row>
     <row r="47" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A47" s="183"/>
-      <c r="B47" s="199"/>
-      <c r="C47" s="232"/>
-      <c r="D47" s="226"/>
-      <c r="E47" s="197"/>
+      <c r="A47" s="201"/>
+      <c r="B47" s="192"/>
+      <c r="C47" s="197"/>
+      <c r="D47" s="185"/>
+      <c r="E47" s="187"/>
       <c r="F47" s="52"/>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
@@ -7743,15 +7739,15 @@
       <c r="BN47" s="60"/>
     </row>
     <row r="48" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A48" s="182">
+      <c r="A48" s="200">
         <v>23</v>
       </c>
-      <c r="B48" s="199"/>
-      <c r="C48" s="232"/>
-      <c r="D48" s="225" t="s">
+      <c r="B48" s="192"/>
+      <c r="C48" s="197"/>
+      <c r="D48" s="184" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="196"/>
+      <c r="E48" s="186"/>
       <c r="F48" s="51"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -7781,7 +7777,7 @@
       <c r="AF48" s="14"/>
       <c r="AG48" s="20"/>
       <c r="AH48" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI48" s="63"/>
       <c r="AJ48" s="51"/>
@@ -7817,11 +7813,11 @@
       <c r="BN48" s="63"/>
     </row>
     <row r="49" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A49" s="183"/>
-      <c r="B49" s="199"/>
-      <c r="C49" s="232"/>
-      <c r="D49" s="226"/>
-      <c r="E49" s="197"/>
+      <c r="A49" s="201"/>
+      <c r="B49" s="192"/>
+      <c r="C49" s="197"/>
+      <c r="D49" s="185"/>
+      <c r="E49" s="187"/>
       <c r="F49" s="52"/>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
@@ -7885,15 +7881,15 @@
       <c r="BN49" s="60"/>
     </row>
     <row r="50" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A50" s="182">
+      <c r="A50" s="200">
         <v>24</v>
       </c>
-      <c r="B50" s="199"/>
-      <c r="C50" s="232"/>
-      <c r="D50" s="225" t="s">
+      <c r="B50" s="192"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="196"/>
+      <c r="E50" s="186"/>
       <c r="F50" s="51"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -7923,7 +7919,7 @@
       <c r="AF50" s="14"/>
       <c r="AG50" s="20"/>
       <c r="AH50" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI50" s="63"/>
       <c r="AJ50" s="51"/>
@@ -7959,11 +7955,11 @@
       <c r="BN50" s="63"/>
     </row>
     <row r="51" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A51" s="183"/>
-      <c r="B51" s="199"/>
-      <c r="C51" s="232"/>
-      <c r="D51" s="226"/>
-      <c r="E51" s="197"/>
+      <c r="A51" s="201"/>
+      <c r="B51" s="192"/>
+      <c r="C51" s="197"/>
+      <c r="D51" s="185"/>
+      <c r="E51" s="187"/>
       <c r="F51" s="52"/>
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
@@ -8027,15 +8023,15 @@
       <c r="BN51" s="60"/>
     </row>
     <row r="52" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A52" s="182">
+      <c r="A52" s="200">
         <v>25</v>
       </c>
-      <c r="B52" s="199"/>
-      <c r="C52" s="232"/>
-      <c r="D52" s="225" t="s">
+      <c r="B52" s="192"/>
+      <c r="C52" s="197"/>
+      <c r="D52" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="E52" s="196"/>
+      <c r="E52" s="186"/>
       <c r="F52" s="51"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -8065,7 +8061,7 @@
       <c r="AF52" s="14"/>
       <c r="AG52" s="20"/>
       <c r="AH52" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI52" s="63"/>
       <c r="AJ52" s="51"/>
@@ -8101,11 +8097,11 @@
       <c r="BN52" s="63"/>
     </row>
     <row r="53" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A53" s="183"/>
-      <c r="B53" s="199"/>
-      <c r="C53" s="232"/>
-      <c r="D53" s="226"/>
-      <c r="E53" s="197"/>
+      <c r="A53" s="201"/>
+      <c r="B53" s="192"/>
+      <c r="C53" s="197"/>
+      <c r="D53" s="185"/>
+      <c r="E53" s="187"/>
       <c r="F53" s="52"/>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
@@ -8169,15 +8165,15 @@
       <c r="BN53" s="60"/>
     </row>
     <row r="54" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A54" s="182">
+      <c r="A54" s="200">
         <v>26</v>
       </c>
-      <c r="B54" s="199"/>
-      <c r="C54" s="232"/>
-      <c r="D54" s="225" t="s">
+      <c r="B54" s="192"/>
+      <c r="C54" s="197"/>
+      <c r="D54" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="196"/>
+      <c r="E54" s="186"/>
       <c r="F54" s="51"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -8207,7 +8203,7 @@
       <c r="AF54" s="14"/>
       <c r="AG54" s="20"/>
       <c r="AH54" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI54" s="63"/>
       <c r="AJ54" s="51"/>
@@ -8243,11 +8239,11 @@
       <c r="BN54" s="63"/>
     </row>
     <row r="55" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A55" s="183"/>
-      <c r="B55" s="199"/>
-      <c r="C55" s="232"/>
-      <c r="D55" s="226"/>
-      <c r="E55" s="197"/>
+      <c r="A55" s="201"/>
+      <c r="B55" s="192"/>
+      <c r="C55" s="197"/>
+      <c r="D55" s="185"/>
+      <c r="E55" s="187"/>
       <c r="F55" s="52"/>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
@@ -8311,15 +8307,15 @@
       <c r="BN55" s="60"/>
     </row>
     <row r="56" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A56" s="182">
+      <c r="A56" s="200">
         <v>27</v>
       </c>
-      <c r="B56" s="199"/>
-      <c r="C56" s="232"/>
-      <c r="D56" s="225" t="s">
+      <c r="B56" s="192"/>
+      <c r="C56" s="197"/>
+      <c r="D56" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="E56" s="196"/>
+      <c r="E56" s="186"/>
       <c r="F56" s="51"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -8349,7 +8345,7 @@
       <c r="AF56" s="14"/>
       <c r="AG56" s="20"/>
       <c r="AH56" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI56" s="63"/>
       <c r="AJ56" s="51"/>
@@ -8385,11 +8381,11 @@
       <c r="BN56" s="63"/>
     </row>
     <row r="57" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A57" s="183"/>
-      <c r="B57" s="199"/>
-      <c r="C57" s="232"/>
-      <c r="D57" s="226"/>
-      <c r="E57" s="197"/>
+      <c r="A57" s="201"/>
+      <c r="B57" s="192"/>
+      <c r="C57" s="197"/>
+      <c r="D57" s="185"/>
+      <c r="E57" s="187"/>
       <c r="F57" s="52"/>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
@@ -8453,15 +8449,15 @@
       <c r="BN57" s="60"/>
     </row>
     <row r="58" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A58" s="182">
+      <c r="A58" s="200">
         <v>28</v>
       </c>
-      <c r="B58" s="199"/>
-      <c r="C58" s="232"/>
+      <c r="B58" s="192"/>
+      <c r="C58" s="197"/>
       <c r="D58" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="E58" s="196"/>
+      <c r="E58" s="186"/>
       <c r="F58" s="51"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -8491,7 +8487,7 @@
       <c r="AF58" s="14"/>
       <c r="AG58" s="20"/>
       <c r="AH58" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI58" s="63"/>
       <c r="AJ58" s="51"/>
@@ -8527,11 +8523,11 @@
       <c r="BN58" s="63"/>
     </row>
     <row r="59" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A59" s="183"/>
-      <c r="B59" s="199"/>
-      <c r="C59" s="232"/>
+      <c r="A59" s="201"/>
+      <c r="B59" s="192"/>
+      <c r="C59" s="197"/>
       <c r="D59" s="101"/>
-      <c r="E59" s="197"/>
+      <c r="E59" s="187"/>
       <c r="F59" s="52"/>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
@@ -8595,15 +8591,15 @@
       <c r="BN59" s="60"/>
     </row>
     <row r="60" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A60" s="182">
+      <c r="A60" s="200">
         <v>29</v>
       </c>
-      <c r="B60" s="199"/>
-      <c r="C60" s="232"/>
+      <c r="B60" s="192"/>
+      <c r="C60" s="197"/>
       <c r="D60" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="E60" s="196"/>
+      <c r="E60" s="186"/>
       <c r="F60" s="52"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
@@ -8633,7 +8629,7 @@
       <c r="AF60" s="26"/>
       <c r="AG60" s="27"/>
       <c r="AH60" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI60" s="60"/>
       <c r="AJ60" s="52"/>
@@ -8669,11 +8665,11 @@
       <c r="BN60" s="60"/>
     </row>
     <row r="61" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A61" s="183"/>
-      <c r="B61" s="199"/>
-      <c r="C61" s="232"/>
+      <c r="A61" s="201"/>
+      <c r="B61" s="192"/>
+      <c r="C61" s="197"/>
       <c r="D61" s="101"/>
-      <c r="E61" s="197"/>
+      <c r="E61" s="187"/>
       <c r="F61" s="52"/>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
@@ -8737,15 +8733,15 @@
       <c r="BN61" s="60"/>
     </row>
     <row r="62" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A62" s="182">
+      <c r="A62" s="200">
         <v>30</v>
       </c>
-      <c r="B62" s="199"/>
-      <c r="C62" s="232"/>
+      <c r="B62" s="192"/>
+      <c r="C62" s="197"/>
       <c r="D62" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="E62" s="196"/>
+      <c r="E62" s="186"/>
       <c r="F62" s="52"/>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
@@ -8775,7 +8771,7 @@
       <c r="AF62" s="26"/>
       <c r="AG62" s="27"/>
       <c r="AH62" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI62" s="60"/>
       <c r="AJ62" s="52"/>
@@ -8811,11 +8807,11 @@
       <c r="BN62" s="60"/>
     </row>
     <row r="63" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A63" s="183"/>
-      <c r="B63" s="199"/>
-      <c r="C63" s="232"/>
+      <c r="A63" s="201"/>
+      <c r="B63" s="192"/>
+      <c r="C63" s="197"/>
       <c r="D63" s="101"/>
-      <c r="E63" s="197"/>
+      <c r="E63" s="187"/>
       <c r="F63" s="52"/>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
@@ -8879,15 +8875,15 @@
       <c r="BN63" s="60"/>
     </row>
     <row r="64" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A64" s="182">
+      <c r="A64" s="200">
         <v>31</v>
       </c>
-      <c r="B64" s="199"/>
-      <c r="C64" s="232"/>
-      <c r="D64" s="225" t="s">
+      <c r="B64" s="192"/>
+      <c r="C64" s="197"/>
+      <c r="D64" s="184" t="s">
         <v>50</v>
       </c>
-      <c r="E64" s="196"/>
+      <c r="E64" s="186"/>
       <c r="F64" s="52"/>
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
@@ -8917,7 +8913,7 @@
       <c r="AF64" s="26"/>
       <c r="AG64" s="27"/>
       <c r="AH64" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI64" s="60"/>
       <c r="AJ64" s="52"/>
@@ -8953,11 +8949,11 @@
       <c r="BN64" s="60"/>
     </row>
     <row r="65" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A65" s="183"/>
-      <c r="B65" s="199"/>
-      <c r="C65" s="232"/>
-      <c r="D65" s="226"/>
-      <c r="E65" s="197"/>
+      <c r="A65" s="201"/>
+      <c r="B65" s="192"/>
+      <c r="C65" s="197"/>
+      <c r="D65" s="185"/>
+      <c r="E65" s="187"/>
       <c r="F65" s="52"/>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
@@ -9021,15 +9017,15 @@
       <c r="BN65" s="60"/>
     </row>
     <row r="66" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A66" s="182">
+      <c r="A66" s="200">
         <v>32</v>
       </c>
-      <c r="B66" s="199"/>
-      <c r="C66" s="232"/>
-      <c r="D66" s="225" t="s">
+      <c r="B66" s="192"/>
+      <c r="C66" s="197"/>
+      <c r="D66" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="E66" s="196"/>
+      <c r="E66" s="186"/>
       <c r="F66" s="52"/>
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
@@ -9066,7 +9062,7 @@
       <c r="AM66" s="26"/>
       <c r="AN66" s="27"/>
       <c r="AO66" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP66" s="25"/>
       <c r="AQ66" s="25"/>
@@ -9095,11 +9091,11 @@
       <c r="BN66" s="60"/>
     </row>
     <row r="67" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A67" s="183"/>
-      <c r="B67" s="199"/>
-      <c r="C67" s="232"/>
-      <c r="D67" s="226"/>
-      <c r="E67" s="197"/>
+      <c r="A67" s="201"/>
+      <c r="B67" s="192"/>
+      <c r="C67" s="197"/>
+      <c r="D67" s="185"/>
+      <c r="E67" s="187"/>
       <c r="F67" s="52"/>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
@@ -9163,15 +9159,15 @@
       <c r="BN67" s="60"/>
     </row>
     <row r="68" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A68" s="182">
+      <c r="A68" s="200">
         <v>33</v>
       </c>
-      <c r="B68" s="199"/>
-      <c r="C68" s="232"/>
-      <c r="D68" s="225" t="s">
+      <c r="B68" s="192"/>
+      <c r="C68" s="197"/>
+      <c r="D68" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="E68" s="196"/>
+      <c r="E68" s="186"/>
       <c r="F68" s="52"/>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
@@ -9208,7 +9204,7 @@
       <c r="AM68" s="26"/>
       <c r="AN68" s="27"/>
       <c r="AO68" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP68" s="25"/>
       <c r="AQ68" s="25"/>
@@ -9237,11 +9233,11 @@
       <c r="BN68" s="60"/>
     </row>
     <row r="69" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A69" s="183"/>
-      <c r="B69" s="199"/>
-      <c r="C69" s="232"/>
-      <c r="D69" s="226"/>
-      <c r="E69" s="197"/>
+      <c r="A69" s="201"/>
+      <c r="B69" s="192"/>
+      <c r="C69" s="197"/>
+      <c r="D69" s="185"/>
+      <c r="E69" s="187"/>
       <c r="F69" s="52"/>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
@@ -9305,15 +9301,15 @@
       <c r="BN69" s="60"/>
     </row>
     <row r="70" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A70" s="182">
+      <c r="A70" s="200">
         <v>34</v>
       </c>
-      <c r="B70" s="199"/>
-      <c r="C70" s="232"/>
-      <c r="D70" s="225" t="s">
+      <c r="B70" s="192"/>
+      <c r="C70" s="197"/>
+      <c r="D70" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="E70" s="196"/>
+      <c r="E70" s="186"/>
       <c r="F70" s="52"/>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
@@ -9350,7 +9346,7 @@
       <c r="AM70" s="26"/>
       <c r="AN70" s="27"/>
       <c r="AO70" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP70" s="25"/>
       <c r="AQ70" s="25"/>
@@ -9379,11 +9375,11 @@
       <c r="BN70" s="60"/>
     </row>
     <row r="71" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A71" s="183"/>
-      <c r="B71" s="199"/>
-      <c r="C71" s="232"/>
-      <c r="D71" s="226"/>
-      <c r="E71" s="197"/>
+      <c r="A71" s="201"/>
+      <c r="B71" s="192"/>
+      <c r="C71" s="197"/>
+      <c r="D71" s="185"/>
+      <c r="E71" s="187"/>
       <c r="F71" s="52"/>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
@@ -9447,15 +9443,15 @@
       <c r="BN71" s="60"/>
     </row>
     <row r="72" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A72" s="182">
+      <c r="A72" s="200">
         <v>35</v>
       </c>
-      <c r="B72" s="199"/>
-      <c r="C72" s="232"/>
-      <c r="D72" s="225" t="s">
+      <c r="B72" s="192"/>
+      <c r="C72" s="197"/>
+      <c r="D72" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="E72" s="196"/>
+      <c r="E72" s="186"/>
       <c r="F72" s="52"/>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
@@ -9492,7 +9488,7 @@
       <c r="AM72" s="26"/>
       <c r="AN72" s="27"/>
       <c r="AO72" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP72" s="25"/>
       <c r="AQ72" s="25"/>
@@ -9521,11 +9517,11 @@
       <c r="BN72" s="60"/>
     </row>
     <row r="73" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A73" s="183"/>
-      <c r="B73" s="199"/>
-      <c r="C73" s="232"/>
-      <c r="D73" s="226"/>
-      <c r="E73" s="197"/>
+      <c r="A73" s="201"/>
+      <c r="B73" s="192"/>
+      <c r="C73" s="197"/>
+      <c r="D73" s="185"/>
+      <c r="E73" s="187"/>
       <c r="F73" s="52"/>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
@@ -9589,15 +9585,15 @@
       <c r="BN73" s="60"/>
     </row>
     <row r="74" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A74" s="182">
+      <c r="A74" s="200">
         <v>36</v>
       </c>
-      <c r="B74" s="199"/>
-      <c r="C74" s="232"/>
-      <c r="D74" s="225" t="s">
+      <c r="B74" s="192"/>
+      <c r="C74" s="197"/>
+      <c r="D74" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="E74" s="196"/>
+      <c r="E74" s="186"/>
       <c r="F74" s="52"/>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
@@ -9634,7 +9630,7 @@
       <c r="AM74" s="26"/>
       <c r="AN74" s="27"/>
       <c r="AO74" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP74" s="25"/>
       <c r="AQ74" s="25"/>
@@ -9663,11 +9659,11 @@
       <c r="BN74" s="60"/>
     </row>
     <row r="75" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A75" s="183"/>
-      <c r="B75" s="199"/>
-      <c r="C75" s="232"/>
-      <c r="D75" s="226"/>
-      <c r="E75" s="197"/>
+      <c r="A75" s="201"/>
+      <c r="B75" s="192"/>
+      <c r="C75" s="197"/>
+      <c r="D75" s="185"/>
+      <c r="E75" s="187"/>
       <c r="F75" s="52"/>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
@@ -9731,15 +9727,15 @@
       <c r="BN75" s="60"/>
     </row>
     <row r="76" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A76" s="182">
+      <c r="A76" s="200">
         <v>37</v>
       </c>
-      <c r="B76" s="199"/>
-      <c r="C76" s="232"/>
-      <c r="D76" s="225" t="s">
+      <c r="B76" s="192"/>
+      <c r="C76" s="197"/>
+      <c r="D76" s="184" t="s">
         <v>56</v>
       </c>
-      <c r="E76" s="196"/>
+      <c r="E76" s="186"/>
       <c r="F76" s="52"/>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
@@ -9776,7 +9772,7 @@
       <c r="AM76" s="26"/>
       <c r="AN76" s="27"/>
       <c r="AO76" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP76" s="25"/>
       <c r="AQ76" s="25"/>
@@ -9805,11 +9801,11 @@
       <c r="BN76" s="60"/>
     </row>
     <row r="77" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A77" s="183"/>
-      <c r="B77" s="199"/>
-      <c r="C77" s="232"/>
-      <c r="D77" s="226"/>
-      <c r="E77" s="197"/>
+      <c r="A77" s="201"/>
+      <c r="B77" s="192"/>
+      <c r="C77" s="197"/>
+      <c r="D77" s="185"/>
+      <c r="E77" s="187"/>
       <c r="F77" s="52"/>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
@@ -9873,15 +9869,15 @@
       <c r="BN77" s="60"/>
     </row>
     <row r="78" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A78" s="182">
+      <c r="A78" s="200">
         <v>38</v>
       </c>
-      <c r="B78" s="199"/>
-      <c r="C78" s="232"/>
-      <c r="D78" s="225" t="s">
+      <c r="B78" s="192"/>
+      <c r="C78" s="197"/>
+      <c r="D78" s="184" t="s">
         <v>57</v>
       </c>
-      <c r="E78" s="196"/>
+      <c r="E78" s="186"/>
       <c r="F78" s="52"/>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
@@ -9918,7 +9914,7 @@
       <c r="AM78" s="26"/>
       <c r="AN78" s="27"/>
       <c r="AO78" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP78" s="25"/>
       <c r="AQ78" s="25"/>
@@ -9947,11 +9943,11 @@
       <c r="BN78" s="60"/>
     </row>
     <row r="79" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A79" s="183"/>
-      <c r="B79" s="199"/>
-      <c r="C79" s="232"/>
-      <c r="D79" s="226"/>
-      <c r="E79" s="197"/>
+      <c r="A79" s="201"/>
+      <c r="B79" s="192"/>
+      <c r="C79" s="197"/>
+      <c r="D79" s="185"/>
+      <c r="E79" s="187"/>
       <c r="F79" s="52"/>
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
@@ -10015,15 +10011,15 @@
       <c r="BN79" s="60"/>
     </row>
     <row r="80" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A80" s="182">
+      <c r="A80" s="200">
         <v>39</v>
       </c>
-      <c r="B80" s="199"/>
-      <c r="C80" s="232"/>
-      <c r="D80" s="225" t="s">
+      <c r="B80" s="192"/>
+      <c r="C80" s="197"/>
+      <c r="D80" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="E80" s="196"/>
+      <c r="E80" s="186"/>
       <c r="F80" s="52"/>
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
@@ -10060,7 +10056,7 @@
       <c r="AM80" s="26"/>
       <c r="AN80" s="27"/>
       <c r="AO80" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP80" s="25"/>
       <c r="AQ80" s="25"/>
@@ -10089,11 +10085,11 @@
       <c r="BN80" s="60"/>
     </row>
     <row r="81" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A81" s="183"/>
-      <c r="B81" s="199"/>
-      <c r="C81" s="232"/>
-      <c r="D81" s="226"/>
-      <c r="E81" s="197"/>
+      <c r="A81" s="201"/>
+      <c r="B81" s="192"/>
+      <c r="C81" s="197"/>
+      <c r="D81" s="185"/>
+      <c r="E81" s="187"/>
       <c r="F81" s="52"/>
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
@@ -10157,15 +10153,15 @@
       <c r="BN81" s="60"/>
     </row>
     <row r="82" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A82" s="182">
+      <c r="A82" s="200">
         <v>40</v>
       </c>
-      <c r="B82" s="199"/>
-      <c r="C82" s="232"/>
-      <c r="D82" s="225" t="s">
+      <c r="B82" s="192"/>
+      <c r="C82" s="197"/>
+      <c r="D82" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="E82" s="196"/>
+      <c r="E82" s="186"/>
       <c r="F82" s="52"/>
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
@@ -10202,7 +10198,7 @@
       <c r="AM82" s="26"/>
       <c r="AN82" s="27"/>
       <c r="AO82" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP82" s="25"/>
       <c r="AQ82" s="25"/>
@@ -10231,11 +10227,11 @@
       <c r="BN82" s="60"/>
     </row>
     <row r="83" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A83" s="183"/>
-      <c r="B83" s="200"/>
-      <c r="C83" s="233"/>
-      <c r="D83" s="193"/>
-      <c r="E83" s="227"/>
+      <c r="A83" s="201"/>
+      <c r="B83" s="193"/>
+      <c r="C83" s="198"/>
+      <c r="D83" s="199"/>
+      <c r="E83" s="188"/>
       <c r="F83" s="54"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
@@ -10299,10 +10295,10 @@
       <c r="BN83" s="64"/>
     </row>
     <row r="84" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A84" s="182">
+      <c r="A84" s="200">
         <v>41</v>
       </c>
-      <c r="B84" s="198" t="s">
+      <c r="B84" s="191" t="s">
         <v>60</v>
       </c>
       <c r="C84" s="105" t="s">
@@ -10348,7 +10344,7 @@
       <c r="AM84" s="16"/>
       <c r="AN84" s="22"/>
       <c r="AO84" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP84" s="7"/>
       <c r="AQ84" s="7"/>
@@ -10377,8 +10373,8 @@
       <c r="BN84" s="61"/>
     </row>
     <row r="85" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A85" s="183"/>
-      <c r="B85" s="199"/>
+      <c r="A85" s="201"/>
+      <c r="B85" s="192"/>
       <c r="C85" s="106"/>
       <c r="D85" s="104"/>
       <c r="E85" s="135"/>
@@ -10445,10 +10441,10 @@
       <c r="BN85" s="60"/>
     </row>
     <row r="86" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A86" s="182">
+      <c r="A86" s="200">
         <v>42</v>
       </c>
-      <c r="B86" s="199"/>
+      <c r="B86" s="192"/>
       <c r="C86" s="106"/>
       <c r="D86" s="103" t="s">
         <v>63</v>
@@ -10490,7 +10486,7 @@
       <c r="AM86" s="14"/>
       <c r="AN86" s="20"/>
       <c r="AO86" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP86" s="8"/>
       <c r="AQ86" s="8"/>
@@ -10519,8 +10515,8 @@
       <c r="BN86" s="63"/>
     </row>
     <row r="87" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A87" s="183"/>
-      <c r="B87" s="199"/>
+      <c r="A87" s="201"/>
+      <c r="B87" s="192"/>
       <c r="C87" s="106"/>
       <c r="D87" s="104"/>
       <c r="E87" s="135"/>
@@ -10587,10 +10583,10 @@
       <c r="BN87" s="60"/>
     </row>
     <row r="88" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A88" s="182">
+      <c r="A88" s="200">
         <v>43</v>
       </c>
-      <c r="B88" s="199"/>
+      <c r="B88" s="192"/>
       <c r="C88" s="106"/>
       <c r="D88" s="103" t="s">
         <v>64</v>
@@ -10632,7 +10628,7 @@
       <c r="AM88" s="14"/>
       <c r="AN88" s="20"/>
       <c r="AO88" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP88" s="8"/>
       <c r="AQ88" s="8"/>
@@ -10661,8 +10657,8 @@
       <c r="BN88" s="63"/>
     </row>
     <row r="89" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A89" s="183"/>
-      <c r="B89" s="199"/>
+      <c r="A89" s="201"/>
+      <c r="B89" s="192"/>
       <c r="C89" s="106"/>
       <c r="D89" s="104"/>
       <c r="E89" s="135"/>
@@ -10729,10 +10725,10 @@
       <c r="BN89" s="60"/>
     </row>
     <row r="90" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A90" s="182">
+      <c r="A90" s="200">
         <v>44</v>
       </c>
-      <c r="B90" s="199"/>
+      <c r="B90" s="192"/>
       <c r="C90" s="106"/>
       <c r="D90" s="103" t="s">
         <v>65</v>
@@ -10774,7 +10770,7 @@
       <c r="AM90" s="14"/>
       <c r="AN90" s="20"/>
       <c r="AO90" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP90" s="8"/>
       <c r="AQ90" s="8"/>
@@ -10803,8 +10799,8 @@
       <c r="BN90" s="63"/>
     </row>
     <row r="91" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A91" s="183"/>
-      <c r="B91" s="199"/>
+      <c r="A91" s="201"/>
+      <c r="B91" s="192"/>
       <c r="C91" s="106"/>
       <c r="D91" s="104"/>
       <c r="E91" s="135"/>
@@ -10871,10 +10867,10 @@
       <c r="BN91" s="60"/>
     </row>
     <row r="92" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A92" s="182">
+      <c r="A92" s="200">
         <v>45</v>
       </c>
-      <c r="B92" s="199"/>
+      <c r="B92" s="192"/>
       <c r="C92" s="106"/>
       <c r="D92" s="103" t="s">
         <v>66</v>
@@ -10916,7 +10912,7 @@
       <c r="AM92" s="14"/>
       <c r="AN92" s="20"/>
       <c r="AO92" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP92" s="8"/>
       <c r="AQ92" s="8"/>
@@ -10945,8 +10941,8 @@
       <c r="BN92" s="63"/>
     </row>
     <row r="93" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A93" s="183"/>
-      <c r="B93" s="199"/>
+      <c r="A93" s="201"/>
+      <c r="B93" s="192"/>
       <c r="C93" s="106"/>
       <c r="D93" s="104"/>
       <c r="E93" s="135"/>
@@ -11013,13 +11009,13 @@
       <c r="BN93" s="60"/>
     </row>
     <row r="94" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A94" s="182">
+      <c r="A94" s="200">
         <v>46</v>
       </c>
-      <c r="B94" s="199"/>
+      <c r="B94" s="192"/>
       <c r="C94" s="106"/>
       <c r="D94" s="103" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E94" s="134"/>
       <c r="F94" s="51"/>
@@ -11065,7 +11061,7 @@
       <c r="AT94" s="14"/>
       <c r="AU94" s="20"/>
       <c r="AV94" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW94" s="8"/>
       <c r="AX94" s="8"/>
@@ -11087,8 +11083,8 @@
       <c r="BN94" s="63"/>
     </row>
     <row r="95" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A95" s="183"/>
-      <c r="B95" s="199"/>
+      <c r="A95" s="201"/>
+      <c r="B95" s="192"/>
       <c r="C95" s="106"/>
       <c r="D95" s="104"/>
       <c r="E95" s="135"/>
@@ -11155,10 +11151,10 @@
       <c r="BN95" s="60"/>
     </row>
     <row r="96" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A96" s="182">
+      <c r="A96" s="200">
         <v>47</v>
       </c>
-      <c r="B96" s="199"/>
+      <c r="B96" s="192"/>
       <c r="C96" s="106"/>
       <c r="D96" s="103" t="s">
         <v>68</v>
@@ -11207,7 +11203,7 @@
       <c r="AT96" s="26"/>
       <c r="AU96" s="27"/>
       <c r="AV96" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW96" s="25"/>
       <c r="AX96" s="25"/>
@@ -11229,8 +11225,8 @@
       <c r="BN96" s="60"/>
     </row>
     <row r="97" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A97" s="183"/>
-      <c r="B97" s="199"/>
+      <c r="A97" s="201"/>
+      <c r="B97" s="192"/>
       <c r="C97" s="106"/>
       <c r="D97" s="102"/>
       <c r="E97" s="115"/>
@@ -11297,10 +11293,10 @@
       <c r="BN97" s="60"/>
     </row>
     <row r="98" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A98" s="182">
+      <c r="A98" s="200">
         <v>48</v>
       </c>
-      <c r="B98" s="199"/>
+      <c r="B98" s="192"/>
       <c r="C98" s="111" t="s">
         <v>69</v>
       </c>
@@ -11351,7 +11347,7 @@
       <c r="AT98" s="14"/>
       <c r="AU98" s="20"/>
       <c r="AV98" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW98" s="8"/>
       <c r="AX98" s="8"/>
@@ -11373,8 +11369,8 @@
       <c r="BN98" s="63"/>
     </row>
     <row r="99" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A99" s="183"/>
-      <c r="B99" s="199"/>
+      <c r="A99" s="201"/>
+      <c r="B99" s="192"/>
       <c r="C99" s="114"/>
       <c r="D99" s="104"/>
       <c r="E99" s="135"/>
@@ -11441,10 +11437,10 @@
       <c r="BN99" s="60"/>
     </row>
     <row r="100" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A100" s="182">
+      <c r="A100" s="200">
         <v>49</v>
       </c>
-      <c r="B100" s="199"/>
+      <c r="B100" s="192"/>
       <c r="C100" s="114"/>
       <c r="D100" s="103" t="s">
         <v>71</v>
@@ -11493,7 +11489,7 @@
       <c r="AT100" s="14"/>
       <c r="AU100" s="20"/>
       <c r="AV100" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW100" s="8"/>
       <c r="AX100" s="8"/>
@@ -11515,8 +11511,8 @@
       <c r="BN100" s="63"/>
     </row>
     <row r="101" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A101" s="183"/>
-      <c r="B101" s="199"/>
+      <c r="A101" s="201"/>
+      <c r="B101" s="192"/>
       <c r="C101" s="114"/>
       <c r="D101" s="104"/>
       <c r="E101" s="135"/>
@@ -11583,10 +11579,10 @@
       <c r="BN101" s="60"/>
     </row>
     <row r="102" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A102" s="182">
+      <c r="A102" s="200">
         <v>50</v>
       </c>
-      <c r="B102" s="199"/>
+      <c r="B102" s="192"/>
       <c r="C102" s="114"/>
       <c r="D102" s="103" t="s">
         <v>72</v>
@@ -11635,7 +11631,7 @@
       <c r="AT102" s="14"/>
       <c r="AU102" s="20"/>
       <c r="AV102" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW102" s="8"/>
       <c r="AX102" s="8"/>
@@ -11657,8 +11653,8 @@
       <c r="BN102" s="63"/>
     </row>
     <row r="103" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A103" s="183"/>
-      <c r="B103" s="199"/>
+      <c r="A103" s="201"/>
+      <c r="B103" s="192"/>
       <c r="C103" s="114"/>
       <c r="D103" s="104"/>
       <c r="E103" s="135"/>
@@ -11725,10 +11721,10 @@
       <c r="BN103" s="60"/>
     </row>
     <row r="104" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A104" s="182">
+      <c r="A104" s="200">
         <v>51</v>
       </c>
-      <c r="B104" s="199"/>
+      <c r="B104" s="192"/>
       <c r="C104" s="114"/>
       <c r="D104" s="103" t="s">
         <v>65</v>
@@ -11777,7 +11773,7 @@
       <c r="AT104" s="14"/>
       <c r="AU104" s="20"/>
       <c r="AV104" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW104" s="8"/>
       <c r="AX104" s="8"/>
@@ -11799,8 +11795,8 @@
       <c r="BN104" s="63"/>
     </row>
     <row r="105" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A105" s="183"/>
-      <c r="B105" s="199"/>
+      <c r="A105" s="201"/>
+      <c r="B105" s="192"/>
       <c r="C105" s="114"/>
       <c r="D105" s="104"/>
       <c r="E105" s="135"/>
@@ -11867,10 +11863,10 @@
       <c r="BN105" s="60"/>
     </row>
     <row r="106" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A106" s="182">
+      <c r="A106" s="200">
         <v>52</v>
       </c>
-      <c r="B106" s="199"/>
+      <c r="B106" s="192"/>
       <c r="C106" s="114"/>
       <c r="D106" s="103" t="s">
         <v>73</v>
@@ -11919,7 +11915,7 @@
       <c r="AT106" s="26"/>
       <c r="AU106" s="27"/>
       <c r="AV106" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW106" s="25"/>
       <c r="AX106" s="25"/>
@@ -11941,8 +11937,8 @@
       <c r="BN106" s="60"/>
     </row>
     <row r="107" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A107" s="183"/>
-      <c r="B107" s="199"/>
+      <c r="A107" s="201"/>
+      <c r="B107" s="192"/>
       <c r="C107" s="114"/>
       <c r="D107" s="104"/>
       <c r="E107" s="135"/>
@@ -12009,10 +12005,10 @@
       <c r="BN107" s="60"/>
     </row>
     <row r="108" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A108" s="182">
+      <c r="A108" s="200">
         <v>53</v>
       </c>
-      <c r="B108" s="199"/>
+      <c r="B108" s="192"/>
       <c r="C108" s="114"/>
       <c r="D108" s="103" t="s">
         <v>74</v>
@@ -12061,7 +12057,7 @@
       <c r="AT108" s="26"/>
       <c r="AU108" s="27"/>
       <c r="AV108" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW108" s="25"/>
       <c r="AX108" s="25"/>
@@ -12083,8 +12079,8 @@
       <c r="BN108" s="60"/>
     </row>
     <row r="109" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A109" s="183"/>
-      <c r="B109" s="199"/>
+      <c r="A109" s="201"/>
+      <c r="B109" s="192"/>
       <c r="C109" s="114"/>
       <c r="D109" s="104"/>
       <c r="E109" s="135"/>
@@ -12151,10 +12147,10 @@
       <c r="BN109" s="60"/>
     </row>
     <row r="110" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A110" s="182">
+      <c r="A110" s="200">
         <v>54</v>
       </c>
-      <c r="B110" s="199"/>
+      <c r="B110" s="192"/>
       <c r="C110" s="114"/>
       <c r="D110" s="103" t="s">
         <v>75</v>
@@ -12203,7 +12199,7 @@
       <c r="AT110" s="26"/>
       <c r="AU110" s="27"/>
       <c r="AV110" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW110" s="25"/>
       <c r="AX110" s="25"/>
@@ -12225,8 +12221,8 @@
       <c r="BN110" s="60"/>
     </row>
     <row r="111" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A111" s="183"/>
-      <c r="B111" s="199"/>
+      <c r="A111" s="201"/>
+      <c r="B111" s="192"/>
       <c r="C111" s="114"/>
       <c r="D111" s="104"/>
       <c r="E111" s="135"/>
@@ -12293,10 +12289,10 @@
       <c r="BN111" s="60"/>
     </row>
     <row r="112" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A112" s="182">
+      <c r="A112" s="200">
         <v>55</v>
       </c>
-      <c r="B112" s="199"/>
+      <c r="B112" s="192"/>
       <c r="C112" s="114"/>
       <c r="D112" s="107" t="s">
         <v>76</v>
@@ -12345,7 +12341,7 @@
       <c r="AT112" s="26"/>
       <c r="AU112" s="27"/>
       <c r="AV112" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW112" s="25"/>
       <c r="AX112" s="25"/>
@@ -12367,8 +12363,8 @@
       <c r="BN112" s="60"/>
     </row>
     <row r="113" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A113" s="183"/>
-      <c r="B113" s="199"/>
+      <c r="A113" s="201"/>
+      <c r="B113" s="192"/>
       <c r="C113" s="114"/>
       <c r="D113" s="108"/>
       <c r="E113" s="109"/>
@@ -12435,10 +12431,10 @@
       <c r="BN113" s="60"/>
     </row>
     <row r="114" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A114" s="182">
+      <c r="A114" s="200">
         <v>56</v>
       </c>
-      <c r="B114" s="199"/>
+      <c r="B114" s="192"/>
       <c r="C114" s="114"/>
       <c r="D114" s="103" t="s">
         <v>77</v>
@@ -12487,7 +12483,7 @@
       <c r="AT114" s="26"/>
       <c r="AU114" s="27"/>
       <c r="AV114" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW114" s="25"/>
       <c r="AX114" s="25"/>
@@ -12509,8 +12505,8 @@
       <c r="BN114" s="60"/>
     </row>
     <row r="115" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A115" s="183"/>
-      <c r="B115" s="199"/>
+      <c r="A115" s="201"/>
+      <c r="B115" s="192"/>
       <c r="C115" s="114"/>
       <c r="D115" s="104"/>
       <c r="E115" s="109"/>
@@ -12577,13 +12573,13 @@
       <c r="BN115" s="60"/>
     </row>
     <row r="116" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A116" s="182">
+      <c r="A116" s="200">
         <v>57</v>
       </c>
-      <c r="B116" s="199"/>
+      <c r="B116" s="192"/>
       <c r="C116" s="114"/>
       <c r="D116" s="103" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E116" s="96"/>
       <c r="F116" s="52"/>
@@ -12629,7 +12625,7 @@
       <c r="AT116" s="26"/>
       <c r="AU116" s="27"/>
       <c r="AV116" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW116" s="25"/>
       <c r="AX116" s="25"/>
@@ -12651,8 +12647,8 @@
       <c r="BN116" s="60"/>
     </row>
     <row r="117" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A117" s="183"/>
-      <c r="B117" s="199"/>
+      <c r="A117" s="201"/>
+      <c r="B117" s="192"/>
       <c r="C117" s="114"/>
       <c r="D117" s="104"/>
       <c r="E117" s="109"/>
@@ -12719,10 +12715,10 @@
       <c r="BN117" s="60"/>
     </row>
     <row r="118" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A118" s="182">
+      <c r="A118" s="200">
         <v>58</v>
       </c>
-      <c r="B118" s="199"/>
+      <c r="B118" s="192"/>
       <c r="C118" s="114"/>
       <c r="D118" s="103" t="s">
         <v>78</v>
@@ -12771,7 +12767,7 @@
       <c r="AT118" s="26"/>
       <c r="AU118" s="27"/>
       <c r="AV118" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW118" s="25"/>
       <c r="AX118" s="25"/>
@@ -12793,8 +12789,8 @@
       <c r="BN118" s="60"/>
     </row>
     <row r="119" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A119" s="183"/>
-      <c r="B119" s="199"/>
+      <c r="A119" s="201"/>
+      <c r="B119" s="192"/>
       <c r="C119" s="114"/>
       <c r="D119" s="104"/>
       <c r="E119" s="109"/>
@@ -12861,10 +12857,10 @@
       <c r="BN119" s="60"/>
     </row>
     <row r="120" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A120" s="182">
+      <c r="A120" s="200">
         <v>59</v>
       </c>
-      <c r="B120" s="199"/>
+      <c r="B120" s="192"/>
       <c r="C120" s="114"/>
       <c r="D120" s="103" t="s">
         <v>79</v>
@@ -12913,7 +12909,7 @@
       <c r="AT120" s="26"/>
       <c r="AU120" s="27"/>
       <c r="AV120" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW120" s="25"/>
       <c r="AX120" s="25"/>
@@ -12935,8 +12931,8 @@
       <c r="BN120" s="60"/>
     </row>
     <row r="121" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A121" s="183"/>
-      <c r="B121" s="199"/>
+      <c r="A121" s="201"/>
+      <c r="B121" s="192"/>
       <c r="C121" s="114"/>
       <c r="D121" s="104"/>
       <c r="E121" s="109"/>
@@ -13003,10 +12999,10 @@
       <c r="BN121" s="60"/>
     </row>
     <row r="122" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A122" s="182">
+      <c r="A122" s="200">
         <v>60</v>
       </c>
-      <c r="B122" s="199"/>
+      <c r="B122" s="192"/>
       <c r="C122" s="114"/>
       <c r="D122" s="103" t="s">
         <v>80</v>
@@ -13055,7 +13051,7 @@
       <c r="AT122" s="26"/>
       <c r="AU122" s="27"/>
       <c r="AV122" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW122" s="25"/>
       <c r="AX122" s="25"/>
@@ -13077,8 +13073,8 @@
       <c r="BN122" s="60"/>
     </row>
     <row r="123" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A123" s="183"/>
-      <c r="B123" s="199"/>
+      <c r="A123" s="201"/>
+      <c r="B123" s="192"/>
       <c r="C123" s="114"/>
       <c r="D123" s="104"/>
       <c r="E123" s="109"/>
@@ -13145,10 +13141,10 @@
       <c r="BN123" s="60"/>
     </row>
     <row r="124" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A124" s="182">
+      <c r="A124" s="200">
         <v>61</v>
       </c>
-      <c r="B124" s="199"/>
+      <c r="B124" s="192"/>
       <c r="C124" s="114"/>
       <c r="D124" s="103" t="s">
         <v>81</v>
@@ -13197,7 +13193,7 @@
       <c r="AT124" s="26"/>
       <c r="AU124" s="27"/>
       <c r="AV124" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW124" s="25"/>
       <c r="AX124" s="25"/>
@@ -13219,8 +13215,8 @@
       <c r="BN124" s="60"/>
     </row>
     <row r="125" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A125" s="183"/>
-      <c r="B125" s="199"/>
+      <c r="A125" s="201"/>
+      <c r="B125" s="192"/>
       <c r="C125" s="114"/>
       <c r="D125" s="104"/>
       <c r="E125" s="109"/>
@@ -13287,10 +13283,10 @@
       <c r="BN125" s="60"/>
     </row>
     <row r="126" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A126" s="182">
+      <c r="A126" s="200">
         <v>62</v>
       </c>
-      <c r="B126" s="199"/>
+      <c r="B126" s="192"/>
       <c r="C126" s="114"/>
       <c r="D126" s="103" t="s">
         <v>82</v>
@@ -13339,7 +13335,7 @@
       <c r="AT126" s="26"/>
       <c r="AU126" s="27"/>
       <c r="AV126" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW126" s="25"/>
       <c r="AX126" s="25"/>
@@ -13361,8 +13357,8 @@
       <c r="BN126" s="60"/>
     </row>
     <row r="127" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A127" s="183"/>
-      <c r="B127" s="199"/>
+      <c r="A127" s="201"/>
+      <c r="B127" s="192"/>
       <c r="C127" s="114"/>
       <c r="D127" s="104"/>
       <c r="E127" s="109"/>
@@ -13429,10 +13425,10 @@
       <c r="BN127" s="60"/>
     </row>
     <row r="128" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A128" s="182">
+      <c r="A128" s="200">
         <v>63</v>
       </c>
-      <c r="B128" s="199"/>
+      <c r="B128" s="192"/>
       <c r="C128" s="114"/>
       <c r="D128" s="103" t="s">
         <v>83</v>
@@ -13481,7 +13477,7 @@
       <c r="AT128" s="26"/>
       <c r="AU128" s="27"/>
       <c r="AV128" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW128" s="25"/>
       <c r="AX128" s="25"/>
@@ -13503,8 +13499,8 @@
       <c r="BN128" s="60"/>
     </row>
     <row r="129" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A129" s="183"/>
-      <c r="B129" s="199"/>
+      <c r="A129" s="201"/>
+      <c r="B129" s="192"/>
       <c r="C129" s="114"/>
       <c r="D129" s="104"/>
       <c r="E129" s="109"/>
@@ -13571,10 +13567,10 @@
       <c r="BN129" s="63"/>
     </row>
     <row r="130" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A130" s="182">
+      <c r="A130" s="200">
         <v>64</v>
       </c>
-      <c r="B130" s="199"/>
+      <c r="B130" s="192"/>
       <c r="C130" s="114"/>
       <c r="D130" s="103" t="s">
         <v>84</v>
@@ -13623,7 +13619,7 @@
       <c r="AT130" s="17"/>
       <c r="AU130" s="23"/>
       <c r="AV130" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW130" s="10"/>
       <c r="AX130" s="10"/>
@@ -13645,8 +13641,8 @@
       <c r="BN130" s="59"/>
     </row>
     <row r="131" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A131" s="183"/>
-      <c r="B131" s="199"/>
+      <c r="A131" s="201"/>
+      <c r="B131" s="192"/>
       <c r="C131" s="114"/>
       <c r="D131" s="104"/>
       <c r="E131" s="109"/>
@@ -13713,10 +13709,10 @@
       <c r="BN131" s="60"/>
     </row>
     <row r="132" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A132" s="182">
+      <c r="A132" s="200">
         <v>65</v>
       </c>
-      <c r="B132" s="199"/>
+      <c r="B132" s="192"/>
       <c r="C132" s="114"/>
       <c r="D132" s="103" t="s">
         <v>85</v>
@@ -13765,7 +13761,7 @@
       <c r="AT132" s="14"/>
       <c r="AU132" s="20"/>
       <c r="AV132" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW132" s="8"/>
       <c r="AX132" s="8"/>
@@ -13787,8 +13783,8 @@
       <c r="BN132" s="63"/>
     </row>
     <row r="133" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A133" s="183"/>
-      <c r="B133" s="199"/>
+      <c r="A133" s="201"/>
+      <c r="B133" s="192"/>
       <c r="C133" s="114"/>
       <c r="D133" s="104"/>
       <c r="E133" s="94"/>
@@ -13855,10 +13851,10 @@
       <c r="BN133" s="60"/>
     </row>
     <row r="134" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A134" s="182">
+      <c r="A134" s="200">
         <v>66</v>
       </c>
-      <c r="B134" s="199"/>
+      <c r="B134" s="192"/>
       <c r="C134" s="114"/>
       <c r="D134" s="103" t="s">
         <v>86</v>
@@ -13907,7 +13903,7 @@
       <c r="AT134" s="14"/>
       <c r="AU134" s="20"/>
       <c r="AV134" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW134" s="8"/>
       <c r="AX134" s="8"/>
@@ -13929,8 +13925,8 @@
       <c r="BN134" s="63"/>
     </row>
     <row r="135" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A135" s="183"/>
-      <c r="B135" s="199"/>
+      <c r="A135" s="201"/>
+      <c r="B135" s="192"/>
       <c r="C135" s="114"/>
       <c r="D135" s="104"/>
       <c r="E135" s="94"/>
@@ -13997,10 +13993,10 @@
       <c r="BN135" s="60"/>
     </row>
     <row r="136" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A136" s="182">
+      <c r="A136" s="200">
         <v>67</v>
       </c>
-      <c r="B136" s="199"/>
+      <c r="B136" s="192"/>
       <c r="C136" s="114"/>
       <c r="D136" s="103" t="s">
         <v>87</v>
@@ -14049,7 +14045,7 @@
       <c r="AT136" s="14"/>
       <c r="AU136" s="20"/>
       <c r="AV136" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW136" s="8"/>
       <c r="AX136" s="8"/>
@@ -14071,8 +14067,8 @@
       <c r="BN136" s="63"/>
     </row>
     <row r="137" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A137" s="183"/>
-      <c r="B137" s="199"/>
+      <c r="A137" s="201"/>
+      <c r="B137" s="192"/>
       <c r="C137" s="114"/>
       <c r="D137" s="104"/>
       <c r="E137" s="94"/>
@@ -14139,10 +14135,10 @@
       <c r="BN137" s="60"/>
     </row>
     <row r="138" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A138" s="182">
+      <c r="A138" s="200">
         <v>68</v>
       </c>
-      <c r="B138" s="199"/>
+      <c r="B138" s="192"/>
       <c r="C138" s="114"/>
       <c r="D138" s="103" t="s">
         <v>88</v>
@@ -14191,7 +14187,7 @@
       <c r="AT138" s="14"/>
       <c r="AU138" s="20"/>
       <c r="AV138" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW138" s="8"/>
       <c r="AX138" s="8"/>
@@ -14213,8 +14209,8 @@
       <c r="BN138" s="63"/>
     </row>
     <row r="139" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A139" s="183"/>
-      <c r="B139" s="199"/>
+      <c r="A139" s="201"/>
+      <c r="B139" s="192"/>
       <c r="C139" s="114"/>
       <c r="D139" s="104"/>
       <c r="E139" s="94"/>
@@ -14281,10 +14277,10 @@
       <c r="BN139" s="60"/>
     </row>
     <row r="140" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A140" s="182">
+      <c r="A140" s="200">
         <v>69</v>
       </c>
-      <c r="B140" s="199"/>
+      <c r="B140" s="192"/>
       <c r="C140" s="114"/>
       <c r="D140" s="103" t="s">
         <v>89</v>
@@ -14333,7 +14329,7 @@
       <c r="AT140" s="14"/>
       <c r="AU140" s="20"/>
       <c r="AV140" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW140" s="8"/>
       <c r="AX140" s="8"/>
@@ -14355,8 +14351,8 @@
       <c r="BN140" s="63"/>
     </row>
     <row r="141" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A141" s="183"/>
-      <c r="B141" s="199"/>
+      <c r="A141" s="201"/>
+      <c r="B141" s="192"/>
       <c r="C141" s="114"/>
       <c r="D141" s="104"/>
       <c r="E141" s="94"/>
@@ -14423,12 +14419,12 @@
       <c r="BN141" s="60"/>
     </row>
     <row r="142" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A142" s="182">
+      <c r="A142" s="200">
         <v>70</v>
       </c>
-      <c r="B142" s="199"/>
+      <c r="B142" s="192"/>
       <c r="C142" s="111" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D142" s="132" t="s">
         <v>58</v>
@@ -14484,7 +14480,7 @@
       <c r="BA142" s="14"/>
       <c r="BB142" s="20"/>
       <c r="BC142" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD142" s="8"/>
       <c r="BE142" s="8"/>
@@ -14499,8 +14495,8 @@
       <c r="BN142" s="63"/>
     </row>
     <row r="143" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A143" s="183"/>
-      <c r="B143" s="199"/>
+      <c r="A143" s="201"/>
+      <c r="B143" s="192"/>
       <c r="C143" s="114"/>
       <c r="D143" s="133"/>
       <c r="E143" s="109"/>
@@ -14567,13 +14563,13 @@
       <c r="BN143" s="60"/>
     </row>
     <row r="144" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A144" s="182">
+      <c r="A144" s="200">
         <v>71</v>
       </c>
-      <c r="B144" s="199"/>
+      <c r="B144" s="192"/>
       <c r="C144" s="114"/>
       <c r="D144" s="136" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E144" s="115"/>
       <c r="F144" s="52"/>
@@ -14626,7 +14622,7 @@
       <c r="BA144" s="26"/>
       <c r="BB144" s="27"/>
       <c r="BC144" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD144" s="25"/>
       <c r="BE144" s="25"/>
@@ -14641,8 +14637,8 @@
       <c r="BN144" s="60"/>
     </row>
     <row r="145" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A145" s="183"/>
-      <c r="B145" s="199"/>
+      <c r="A145" s="201"/>
+      <c r="B145" s="192"/>
       <c r="C145" s="114"/>
       <c r="D145" s="137"/>
       <c r="E145" s="115"/>
@@ -14709,13 +14705,13 @@
       <c r="BN145" s="60"/>
     </row>
     <row r="146" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A146" s="182">
+      <c r="A146" s="200">
         <v>72</v>
       </c>
-      <c r="B146" s="199"/>
+      <c r="B146" s="192"/>
       <c r="C146" s="114"/>
-      <c r="D146" s="223" t="s">
-        <v>148</v>
+      <c r="D146" s="182" t="s">
+        <v>146</v>
       </c>
       <c r="E146" s="96"/>
       <c r="F146" s="51"/>
@@ -14761,7 +14757,7 @@
       <c r="AT146" s="14"/>
       <c r="AU146" s="20"/>
       <c r="AV146" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW146" s="8"/>
       <c r="AX146" s="8"/>
@@ -14783,10 +14779,10 @@
       <c r="BN146" s="63"/>
     </row>
     <row r="147" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A147" s="183"/>
-      <c r="B147" s="199"/>
+      <c r="A147" s="201"/>
+      <c r="B147" s="192"/>
       <c r="C147" s="114"/>
-      <c r="D147" s="224"/>
+      <c r="D147" s="183"/>
       <c r="E147" s="109"/>
       <c r="F147" s="52"/>
       <c r="G147" s="25"/>
@@ -14851,12 +14847,12 @@
       <c r="BN147" s="60"/>
     </row>
     <row r="148" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A148" s="182">
+      <c r="A148" s="200">
         <v>73</v>
       </c>
-      <c r="B148" s="199"/>
+      <c r="B148" s="192"/>
       <c r="C148" s="114"/>
-      <c r="D148" s="225" t="s">
+      <c r="D148" s="184" t="s">
         <v>39</v>
       </c>
       <c r="E148" s="96"/>
@@ -14903,7 +14899,7 @@
       <c r="AT148" s="14"/>
       <c r="AU148" s="20"/>
       <c r="AV148" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW148" s="8"/>
       <c r="AX148" s="8"/>
@@ -14925,10 +14921,10 @@
       <c r="BN148" s="63"/>
     </row>
     <row r="149" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A149" s="183"/>
-      <c r="B149" s="199"/>
+      <c r="A149" s="201"/>
+      <c r="B149" s="192"/>
       <c r="C149" s="114"/>
-      <c r="D149" s="226"/>
+      <c r="D149" s="185"/>
       <c r="E149" s="109"/>
       <c r="F149" s="52"/>
       <c r="G149" s="25"/>
@@ -14993,10 +14989,10 @@
       <c r="BN149" s="60"/>
     </row>
     <row r="150" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A150" s="182">
+      <c r="A150" s="200">
         <v>74</v>
       </c>
-      <c r="B150" s="199"/>
+      <c r="B150" s="192"/>
       <c r="C150" s="114"/>
       <c r="D150" s="132" t="s">
         <v>40</v>
@@ -15052,7 +15048,7 @@
       <c r="BA150" s="14"/>
       <c r="BB150" s="20"/>
       <c r="BC150" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD150" s="8"/>
       <c r="BE150" s="8"/>
@@ -15067,8 +15063,8 @@
       <c r="BN150" s="63"/>
     </row>
     <row r="151" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A151" s="183"/>
-      <c r="B151" s="199"/>
+      <c r="A151" s="201"/>
+      <c r="B151" s="192"/>
       <c r="C151" s="114"/>
       <c r="D151" s="133"/>
       <c r="E151" s="109"/>
@@ -15135,10 +15131,10 @@
       <c r="BN151" s="60"/>
     </row>
     <row r="152" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A152" s="182">
+      <c r="A152" s="200">
         <v>75</v>
       </c>
-      <c r="B152" s="199"/>
+      <c r="B152" s="192"/>
       <c r="C152" s="114"/>
       <c r="D152" s="132" t="s">
         <v>41</v>
@@ -15194,7 +15190,7 @@
       <c r="BA152" s="26"/>
       <c r="BB152" s="27"/>
       <c r="BC152" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD152" s="25"/>
       <c r="BE152" s="25"/>
@@ -15209,8 +15205,8 @@
       <c r="BN152" s="60"/>
     </row>
     <row r="153" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A153" s="183"/>
-      <c r="B153" s="199"/>
+      <c r="A153" s="201"/>
+      <c r="B153" s="192"/>
       <c r="C153" s="114"/>
       <c r="D153" s="133"/>
       <c r="E153" s="109"/>
@@ -15277,10 +15273,10 @@
       <c r="BN153" s="60"/>
     </row>
     <row r="154" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A154" s="182">
+      <c r="A154" s="200">
         <v>76</v>
       </c>
-      <c r="B154" s="199"/>
+      <c r="B154" s="192"/>
       <c r="C154" s="114"/>
       <c r="D154" s="132" t="s">
         <v>42</v>
@@ -15336,7 +15332,7 @@
       <c r="BA154" s="26"/>
       <c r="BB154" s="27"/>
       <c r="BC154" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD154" s="25"/>
       <c r="BE154" s="25"/>
@@ -15351,8 +15347,8 @@
       <c r="BN154" s="60"/>
     </row>
     <row r="155" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A155" s="183"/>
-      <c r="B155" s="199"/>
+      <c r="A155" s="201"/>
+      <c r="B155" s="192"/>
       <c r="C155" s="114"/>
       <c r="D155" s="133"/>
       <c r="E155" s="109"/>
@@ -15419,10 +15415,10 @@
       <c r="BN155" s="60"/>
     </row>
     <row r="156" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A156" s="182">
+      <c r="A156" s="200">
         <v>77</v>
       </c>
-      <c r="B156" s="199"/>
+      <c r="B156" s="192"/>
       <c r="C156" s="114"/>
       <c r="D156" s="132" t="s">
         <v>43</v>
@@ -15478,7 +15474,7 @@
       <c r="BA156" s="26"/>
       <c r="BB156" s="27"/>
       <c r="BC156" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD156" s="25"/>
       <c r="BE156" s="25"/>
@@ -15493,8 +15489,8 @@
       <c r="BN156" s="60"/>
     </row>
     <row r="157" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A157" s="183"/>
-      <c r="B157" s="199"/>
+      <c r="A157" s="201"/>
+      <c r="B157" s="192"/>
       <c r="C157" s="114"/>
       <c r="D157" s="133"/>
       <c r="E157" s="109"/>
@@ -15561,10 +15557,10 @@
       <c r="BN157" s="60"/>
     </row>
     <row r="158" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A158" s="182">
+      <c r="A158" s="200">
         <v>78</v>
       </c>
-      <c r="B158" s="199"/>
+      <c r="B158" s="192"/>
       <c r="C158" s="114"/>
       <c r="D158" s="132" t="s">
         <v>44</v>
@@ -15620,7 +15616,7 @@
       <c r="BA158" s="26"/>
       <c r="BB158" s="27"/>
       <c r="BC158" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD158" s="25"/>
       <c r="BE158" s="25"/>
@@ -15635,8 +15631,8 @@
       <c r="BN158" s="60"/>
     </row>
     <row r="159" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A159" s="183"/>
-      <c r="B159" s="199"/>
+      <c r="A159" s="201"/>
+      <c r="B159" s="192"/>
       <c r="C159" s="114"/>
       <c r="D159" s="133"/>
       <c r="E159" s="109"/>
@@ -15703,10 +15699,10 @@
       <c r="BN159" s="60"/>
     </row>
     <row r="160" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A160" s="182">
+      <c r="A160" s="200">
         <v>79</v>
       </c>
-      <c r="B160" s="199"/>
+      <c r="B160" s="192"/>
       <c r="C160" s="114"/>
       <c r="D160" s="132" t="s">
         <v>45</v>
@@ -15762,7 +15758,7 @@
       <c r="BA160" s="26"/>
       <c r="BB160" s="27"/>
       <c r="BC160" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD160" s="25"/>
       <c r="BE160" s="25"/>
@@ -15777,8 +15773,8 @@
       <c r="BN160" s="60"/>
     </row>
     <row r="161" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A161" s="183"/>
-      <c r="B161" s="199"/>
+      <c r="A161" s="201"/>
+      <c r="B161" s="192"/>
       <c r="C161" s="114"/>
       <c r="D161" s="133"/>
       <c r="E161" s="109"/>
@@ -15845,10 +15841,10 @@
       <c r="BN161" s="60"/>
     </row>
     <row r="162" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A162" s="182">
+      <c r="A162" s="200">
         <v>80</v>
       </c>
-      <c r="B162" s="199"/>
+      <c r="B162" s="192"/>
       <c r="C162" s="114"/>
       <c r="D162" s="132" t="s">
         <v>46</v>
@@ -15904,7 +15900,7 @@
       <c r="BA162" s="26"/>
       <c r="BB162" s="27"/>
       <c r="BC162" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD162" s="25"/>
       <c r="BE162" s="25"/>
@@ -15919,8 +15915,8 @@
       <c r="BN162" s="60"/>
     </row>
     <row r="163" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A163" s="183"/>
-      <c r="B163" s="199"/>
+      <c r="A163" s="201"/>
+      <c r="B163" s="192"/>
       <c r="C163" s="114"/>
       <c r="D163" s="133"/>
       <c r="E163" s="109"/>
@@ -15987,10 +15983,10 @@
       <c r="BN163" s="60"/>
     </row>
     <row r="164" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A164" s="182">
+      <c r="A164" s="200">
         <v>81</v>
       </c>
-      <c r="B164" s="199"/>
+      <c r="B164" s="192"/>
       <c r="C164" s="114"/>
       <c r="D164" s="132" t="s">
         <v>47</v>
@@ -16046,7 +16042,7 @@
       <c r="BA164" s="26"/>
       <c r="BB164" s="27"/>
       <c r="BC164" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD164" s="25"/>
       <c r="BE164" s="25"/>
@@ -16061,8 +16057,8 @@
       <c r="BN164" s="60"/>
     </row>
     <row r="165" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A165" s="183"/>
-      <c r="B165" s="199"/>
+      <c r="A165" s="201"/>
+      <c r="B165" s="192"/>
       <c r="C165" s="114"/>
       <c r="D165" s="133"/>
       <c r="E165" s="109"/>
@@ -16129,10 +16125,10 @@
       <c r="BN165" s="60"/>
     </row>
     <row r="166" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A166" s="182">
+      <c r="A166" s="200">
         <v>82</v>
       </c>
-      <c r="B166" s="199"/>
+      <c r="B166" s="192"/>
       <c r="C166" s="114"/>
       <c r="D166" s="132" t="s">
         <v>48</v>
@@ -16188,7 +16184,7 @@
       <c r="BA166" s="26"/>
       <c r="BB166" s="27"/>
       <c r="BC166" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD166" s="25"/>
       <c r="BE166" s="25"/>
@@ -16203,8 +16199,8 @@
       <c r="BN166" s="60"/>
     </row>
     <row r="167" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A167" s="183"/>
-      <c r="B167" s="199"/>
+      <c r="A167" s="201"/>
+      <c r="B167" s="192"/>
       <c r="C167" s="114"/>
       <c r="D167" s="133"/>
       <c r="E167" s="109"/>
@@ -16271,10 +16267,10 @@
       <c r="BN167" s="60"/>
     </row>
     <row r="168" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A168" s="182">
+      <c r="A168" s="200">
         <v>83</v>
       </c>
-      <c r="B168" s="199"/>
+      <c r="B168" s="192"/>
       <c r="C168" s="114"/>
       <c r="D168" s="132" t="s">
         <v>49</v>
@@ -16330,7 +16326,7 @@
       <c r="BA168" s="26"/>
       <c r="BB168" s="27"/>
       <c r="BC168" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD168" s="25"/>
       <c r="BE168" s="25"/>
@@ -16345,8 +16341,8 @@
       <c r="BN168" s="60"/>
     </row>
     <row r="169" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A169" s="183"/>
-      <c r="B169" s="199"/>
+      <c r="A169" s="201"/>
+      <c r="B169" s="192"/>
       <c r="C169" s="114"/>
       <c r="D169" s="133"/>
       <c r="E169" s="109"/>
@@ -16413,10 +16409,10 @@
       <c r="BN169" s="60"/>
     </row>
     <row r="170" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A170" s="182">
+      <c r="A170" s="200">
         <v>84</v>
       </c>
-      <c r="B170" s="199"/>
+      <c r="B170" s="192"/>
       <c r="C170" s="114"/>
       <c r="D170" s="132" t="s">
         <v>50</v>
@@ -16472,7 +16468,7 @@
       <c r="BA170" s="26"/>
       <c r="BB170" s="27"/>
       <c r="BC170" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD170" s="25"/>
       <c r="BE170" s="25"/>
@@ -16487,8 +16483,8 @@
       <c r="BN170" s="60"/>
     </row>
     <row r="171" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A171" s="183"/>
-      <c r="B171" s="199"/>
+      <c r="A171" s="201"/>
+      <c r="B171" s="192"/>
       <c r="C171" s="114"/>
       <c r="D171" s="133"/>
       <c r="E171" s="109"/>
@@ -16555,10 +16551,10 @@
       <c r="BN171" s="60"/>
     </row>
     <row r="172" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A172" s="182">
+      <c r="A172" s="200">
         <v>85</v>
       </c>
-      <c r="B172" s="199"/>
+      <c r="B172" s="192"/>
       <c r="C172" s="114"/>
       <c r="D172" s="132" t="s">
         <v>51</v>
@@ -16614,7 +16610,7 @@
       <c r="BA172" s="26"/>
       <c r="BB172" s="27"/>
       <c r="BC172" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD172" s="25"/>
       <c r="BE172" s="25"/>
@@ -16629,8 +16625,8 @@
       <c r="BN172" s="60"/>
     </row>
     <row r="173" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A173" s="183"/>
-      <c r="B173" s="199"/>
+      <c r="A173" s="201"/>
+      <c r="B173" s="192"/>
       <c r="C173" s="114"/>
       <c r="D173" s="133"/>
       <c r="E173" s="109"/>
@@ -16697,10 +16693,10 @@
       <c r="BN173" s="60"/>
     </row>
     <row r="174" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A174" s="182">
+      <c r="A174" s="200">
         <v>86</v>
       </c>
-      <c r="B174" s="199"/>
+      <c r="B174" s="192"/>
       <c r="C174" s="114"/>
       <c r="D174" s="132" t="s">
         <v>52</v>
@@ -16756,7 +16752,7 @@
       <c r="BA174" s="26"/>
       <c r="BB174" s="27"/>
       <c r="BC174" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD174" s="25"/>
       <c r="BE174" s="25"/>
@@ -16771,8 +16767,8 @@
       <c r="BN174" s="60"/>
     </row>
     <row r="175" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A175" s="183"/>
-      <c r="B175" s="199"/>
+      <c r="A175" s="201"/>
+      <c r="B175" s="192"/>
       <c r="C175" s="114"/>
       <c r="D175" s="133"/>
       <c r="E175" s="109"/>
@@ -16839,10 +16835,10 @@
       <c r="BN175" s="63"/>
     </row>
     <row r="176" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A176" s="182">
+      <c r="A176" s="200">
         <v>87</v>
       </c>
-      <c r="B176" s="199"/>
+      <c r="B176" s="192"/>
       <c r="C176" s="114"/>
       <c r="D176" s="132" t="s">
         <v>53</v>
@@ -16898,7 +16894,7 @@
       <c r="BA176" s="17"/>
       <c r="BB176" s="23"/>
       <c r="BC176" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD176" s="10"/>
       <c r="BE176" s="10"/>
@@ -16913,8 +16909,8 @@
       <c r="BN176" s="59"/>
     </row>
     <row r="177" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A177" s="183"/>
-      <c r="B177" s="199"/>
+      <c r="A177" s="201"/>
+      <c r="B177" s="192"/>
       <c r="C177" s="114"/>
       <c r="D177" s="133"/>
       <c r="E177" s="109"/>
@@ -16981,10 +16977,10 @@
       <c r="BN177" s="60"/>
     </row>
     <row r="178" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A178" s="182">
+      <c r="A178" s="200">
         <v>88</v>
       </c>
-      <c r="B178" s="199"/>
+      <c r="B178" s="192"/>
       <c r="C178" s="114"/>
       <c r="D178" s="132" t="s">
         <v>54</v>
@@ -17040,7 +17036,7 @@
       <c r="BA178" s="14"/>
       <c r="BB178" s="20"/>
       <c r="BC178" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD178" s="8"/>
       <c r="BE178" s="8"/>
@@ -17055,8 +17051,8 @@
       <c r="BN178" s="63"/>
     </row>
     <row r="179" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A179" s="183"/>
-      <c r="B179" s="199"/>
+      <c r="A179" s="201"/>
+      <c r="B179" s="192"/>
       <c r="C179" s="114"/>
       <c r="D179" s="133"/>
       <c r="E179" s="94"/>
@@ -17123,10 +17119,10 @@
       <c r="BN179" s="60"/>
     </row>
     <row r="180" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A180" s="182">
+      <c r="A180" s="200">
         <v>89</v>
       </c>
-      <c r="B180" s="199"/>
+      <c r="B180" s="192"/>
       <c r="C180" s="114"/>
       <c r="D180" s="132" t="s">
         <v>55</v>
@@ -17182,7 +17178,7 @@
       <c r="BA180" s="14"/>
       <c r="BB180" s="20"/>
       <c r="BC180" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD180" s="8"/>
       <c r="BE180" s="8"/>
@@ -17197,8 +17193,8 @@
       <c r="BN180" s="63"/>
     </row>
     <row r="181" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A181" s="183"/>
-      <c r="B181" s="199"/>
+      <c r="A181" s="201"/>
+      <c r="B181" s="192"/>
       <c r="C181" s="114"/>
       <c r="D181" s="133"/>
       <c r="E181" s="94"/>
@@ -17265,10 +17261,10 @@
       <c r="BN181" s="60"/>
     </row>
     <row r="182" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A182" s="182">
+      <c r="A182" s="200">
         <v>90</v>
       </c>
-      <c r="B182" s="199"/>
+      <c r="B182" s="192"/>
       <c r="C182" s="114"/>
       <c r="D182" s="132" t="s">
         <v>56</v>
@@ -17324,7 +17320,7 @@
       <c r="BA182" s="14"/>
       <c r="BB182" s="20"/>
       <c r="BC182" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD182" s="8"/>
       <c r="BE182" s="8"/>
@@ -17339,8 +17335,8 @@
       <c r="BN182" s="63"/>
     </row>
     <row r="183" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A183" s="183"/>
-      <c r="B183" s="199"/>
+      <c r="A183" s="201"/>
+      <c r="B183" s="192"/>
       <c r="C183" s="114"/>
       <c r="D183" s="133"/>
       <c r="E183" s="94"/>
@@ -17407,10 +17403,10 @@
       <c r="BN183" s="60"/>
     </row>
     <row r="184" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A184" s="182">
+      <c r="A184" s="200">
         <v>91</v>
       </c>
-      <c r="B184" s="199"/>
+      <c r="B184" s="192"/>
       <c r="C184" s="114"/>
       <c r="D184" s="132" t="s">
         <v>57</v>
@@ -17466,7 +17462,7 @@
       <c r="BA184" s="14"/>
       <c r="BB184" s="20"/>
       <c r="BC184" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD184" s="8"/>
       <c r="BE184" s="8"/>
@@ -17481,8 +17477,8 @@
       <c r="BN184" s="63"/>
     </row>
     <row r="185" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A185" s="183"/>
-      <c r="B185" s="199"/>
+      <c r="A185" s="201"/>
+      <c r="B185" s="192"/>
       <c r="C185" s="114"/>
       <c r="D185" s="133"/>
       <c r="E185" s="94"/>
@@ -17549,11 +17545,11 @@
       <c r="BN185" s="60"/>
     </row>
     <row r="186" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A186" s="182">
+      <c r="A186" s="200">
         <v>92</v>
       </c>
-      <c r="B186" s="199"/>
-      <c r="C186" s="225" t="s">
+      <c r="B186" s="192"/>
+      <c r="C186" s="184" t="s">
         <v>90</v>
       </c>
       <c r="D186" s="103" t="s">
@@ -17603,7 +17599,7 @@
       <c r="AT186" s="14"/>
       <c r="AU186" s="20"/>
       <c r="AV186" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW186" s="8"/>
       <c r="AX186" s="8"/>
@@ -17612,7 +17608,7 @@
       <c r="BA186" s="14"/>
       <c r="BB186" s="20"/>
       <c r="BC186" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD186" s="8"/>
       <c r="BE186" s="8"/>
@@ -17627,9 +17623,9 @@
       <c r="BN186" s="63"/>
     </row>
     <row r="187" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A187" s="183"/>
-      <c r="B187" s="199"/>
-      <c r="C187" s="192"/>
+      <c r="A187" s="201"/>
+      <c r="B187" s="192"/>
+      <c r="C187" s="190"/>
       <c r="D187" s="104"/>
       <c r="E187" s="109"/>
       <c r="F187" s="52"/>
@@ -17695,11 +17691,11 @@
       <c r="BN187" s="60"/>
     </row>
     <row r="188" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A188" s="182">
+      <c r="A188" s="200">
         <v>93</v>
       </c>
-      <c r="B188" s="199"/>
-      <c r="C188" s="192"/>
+      <c r="B188" s="192"/>
+      <c r="C188" s="190"/>
       <c r="D188" s="103" t="s">
         <v>63</v>
       </c>
@@ -17747,7 +17743,7 @@
       <c r="AT188" s="14"/>
       <c r="AU188" s="20"/>
       <c r="AV188" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW188" s="8"/>
       <c r="AX188" s="8"/>
@@ -17756,7 +17752,7 @@
       <c r="BA188" s="14"/>
       <c r="BB188" s="20"/>
       <c r="BC188" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD188" s="8"/>
       <c r="BE188" s="8"/>
@@ -17771,9 +17767,9 @@
       <c r="BN188" s="63"/>
     </row>
     <row r="189" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A189" s="183"/>
-      <c r="B189" s="199"/>
-      <c r="C189" s="192"/>
+      <c r="A189" s="201"/>
+      <c r="B189" s="192"/>
+      <c r="C189" s="190"/>
       <c r="D189" s="104"/>
       <c r="E189" s="109"/>
       <c r="F189" s="52"/>
@@ -17839,11 +17835,11 @@
       <c r="BN189" s="60"/>
     </row>
     <row r="190" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A190" s="182">
+      <c r="A190" s="200">
         <v>94</v>
       </c>
-      <c r="B190" s="199"/>
-      <c r="C190" s="192"/>
+      <c r="B190" s="192"/>
+      <c r="C190" s="190"/>
       <c r="D190" s="103" t="s">
         <v>65</v>
       </c>
@@ -17898,7 +17894,7 @@
       <c r="BA190" s="14"/>
       <c r="BB190" s="20"/>
       <c r="BC190" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD190" s="8"/>
       <c r="BE190" s="8"/>
@@ -17913,9 +17909,9 @@
       <c r="BN190" s="63"/>
     </row>
     <row r="191" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A191" s="183"/>
-      <c r="B191" s="199"/>
-      <c r="C191" s="192"/>
+      <c r="A191" s="201"/>
+      <c r="B191" s="192"/>
+      <c r="C191" s="190"/>
       <c r="D191" s="104"/>
       <c r="E191" s="109"/>
       <c r="F191" s="52"/>
@@ -17981,11 +17977,11 @@
       <c r="BN191" s="60"/>
     </row>
     <row r="192" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A192" s="182">
+      <c r="A192" s="200">
         <v>95</v>
       </c>
-      <c r="B192" s="199"/>
-      <c r="C192" s="192"/>
+      <c r="B192" s="192"/>
+      <c r="C192" s="190"/>
       <c r="D192" s="103" t="s">
         <v>66</v>
       </c>
@@ -18040,7 +18036,7 @@
       <c r="BA192" s="14"/>
       <c r="BB192" s="20"/>
       <c r="BC192" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD192" s="8"/>
       <c r="BE192" s="8"/>
@@ -18055,9 +18051,9 @@
       <c r="BN192" s="63"/>
     </row>
     <row r="193" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A193" s="183"/>
-      <c r="B193" s="199"/>
-      <c r="C193" s="192"/>
+      <c r="A193" s="201"/>
+      <c r="B193" s="192"/>
+      <c r="C193" s="190"/>
       <c r="D193" s="104"/>
       <c r="E193" s="109"/>
       <c r="F193" s="52"/>
@@ -18123,13 +18119,13 @@
       <c r="BN193" s="60"/>
     </row>
     <row r="194" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A194" s="182">
+      <c r="A194" s="200">
         <v>96</v>
       </c>
-      <c r="B194" s="199"/>
-      <c r="C194" s="192"/>
+      <c r="B194" s="192"/>
+      <c r="C194" s="190"/>
       <c r="D194" s="107" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E194" s="96"/>
       <c r="F194" s="52"/>
@@ -18182,7 +18178,7 @@
       <c r="BA194" s="26"/>
       <c r="BB194" s="27"/>
       <c r="BC194" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD194" s="25"/>
       <c r="BE194" s="25"/>
@@ -18197,9 +18193,9 @@
       <c r="BN194" s="60"/>
     </row>
     <row r="195" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A195" s="183"/>
-      <c r="B195" s="199"/>
-      <c r="C195" s="192"/>
+      <c r="A195" s="201"/>
+      <c r="B195" s="192"/>
+      <c r="C195" s="190"/>
       <c r="D195" s="108"/>
       <c r="E195" s="109"/>
       <c r="F195" s="52"/>
@@ -18265,11 +18261,11 @@
       <c r="BN195" s="60"/>
     </row>
     <row r="196" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A196" s="182">
+      <c r="A196" s="200">
         <v>97</v>
       </c>
-      <c r="B196" s="199"/>
-      <c r="C196" s="192"/>
+      <c r="B196" s="192"/>
+      <c r="C196" s="190"/>
       <c r="D196" s="103" t="s">
         <v>68</v>
       </c>
@@ -18324,7 +18320,7 @@
       <c r="BA196" s="26"/>
       <c r="BB196" s="27"/>
       <c r="BC196" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD196" s="25"/>
       <c r="BE196" s="25"/>
@@ -18339,9 +18335,9 @@
       <c r="BN196" s="60"/>
     </row>
     <row r="197" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A197" s="183"/>
-      <c r="B197" s="199"/>
-      <c r="C197" s="230"/>
+      <c r="A197" s="201"/>
+      <c r="B197" s="192"/>
+      <c r="C197" s="195"/>
       <c r="D197" s="104"/>
       <c r="E197" s="109"/>
       <c r="F197" s="52"/>
@@ -18407,11 +18403,11 @@
       <c r="BN197" s="60"/>
     </row>
     <row r="198" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A198" s="182">
+      <c r="A198" s="200">
         <v>98</v>
       </c>
-      <c r="B198" s="199"/>
-      <c r="C198" s="228" t="s">
+      <c r="B198" s="192"/>
+      <c r="C198" s="189" t="s">
         <v>91</v>
       </c>
       <c r="D198" s="103" t="s">
@@ -18461,7 +18457,7 @@
       <c r="AT198" s="14"/>
       <c r="AU198" s="20"/>
       <c r="AV198" s="163" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW198" s="8"/>
       <c r="AX198" s="8"/>
@@ -18470,7 +18466,7 @@
       <c r="BA198" s="14"/>
       <c r="BB198" s="20"/>
       <c r="BC198" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BD198" s="8"/>
       <c r="BE198" s="8"/>
@@ -18485,9 +18481,9 @@
       <c r="BN198" s="63"/>
     </row>
     <row r="199" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A199" s="183"/>
-      <c r="B199" s="200"/>
-      <c r="C199" s="192"/>
+      <c r="A199" s="201"/>
+      <c r="B199" s="193"/>
+      <c r="C199" s="190"/>
       <c r="D199" s="104"/>
       <c r="E199" s="109"/>
       <c r="F199" s="52"/>
@@ -18553,7 +18549,7 @@
       <c r="BN199" s="60"/>
     </row>
     <row r="200" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A200" s="182">
+      <c r="A200" s="200">
         <v>99</v>
       </c>
       <c r="B200" s="97" t="s">
@@ -18563,7 +18559,7 @@
         <v>94</v>
       </c>
       <c r="D200" s="112" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E200" s="113"/>
       <c r="F200" s="37"/>
@@ -18623,7 +18619,7 @@
       <c r="BH200" s="16"/>
       <c r="BI200" s="22"/>
       <c r="BJ200" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK200" s="7"/>
       <c r="BL200" s="7"/>
@@ -18631,7 +18627,7 @@
       <c r="BN200" s="61"/>
     </row>
     <row r="201" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A201" s="183"/>
+      <c r="A201" s="201"/>
       <c r="B201" s="98"/>
       <c r="C201" s="106"/>
       <c r="D201" s="104"/>
@@ -18699,13 +18695,13 @@
       <c r="BN201" s="60"/>
     </row>
     <row r="202" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A202" s="182">
+      <c r="A202" s="200">
         <v>100</v>
       </c>
       <c r="B202" s="98"/>
       <c r="C202" s="106"/>
       <c r="D202" s="103" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E202" s="96"/>
       <c r="F202" s="51"/>
@@ -18765,7 +18761,7 @@
       <c r="BH202" s="14"/>
       <c r="BI202" s="20"/>
       <c r="BJ202" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK202" s="8"/>
       <c r="BL202" s="8"/>
@@ -18773,7 +18769,7 @@
       <c r="BN202" s="63"/>
     </row>
     <row r="203" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A203" s="183"/>
+      <c r="A203" s="201"/>
       <c r="B203" s="98"/>
       <c r="C203" s="106"/>
       <c r="D203" s="104"/>
@@ -18841,13 +18837,13 @@
       <c r="BN203" s="60"/>
     </row>
     <row r="204" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A204" s="182">
+      <c r="A204" s="200">
         <v>101</v>
       </c>
       <c r="B204" s="98"/>
       <c r="C204" s="106"/>
       <c r="D204" s="103" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E204" s="96"/>
       <c r="F204" s="51"/>
@@ -18907,7 +18903,7 @@
       <c r="BH204" s="14"/>
       <c r="BI204" s="20"/>
       <c r="BJ204" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK204" s="8"/>
       <c r="BL204" s="8"/>
@@ -18915,7 +18911,7 @@
       <c r="BN204" s="63"/>
     </row>
     <row r="205" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A205" s="183"/>
+      <c r="A205" s="201"/>
       <c r="B205" s="98"/>
       <c r="C205" s="106"/>
       <c r="D205" s="104"/>
@@ -18983,7 +18979,7 @@
       <c r="BN205" s="60"/>
     </row>
     <row r="206" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A206" s="182">
+      <c r="A206" s="200">
         <v>102</v>
       </c>
       <c r="B206" s="98"/>
@@ -19049,7 +19045,7 @@
       <c r="BH206" s="14"/>
       <c r="BI206" s="20"/>
       <c r="BJ206" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK206" s="8"/>
       <c r="BL206" s="8"/>
@@ -19057,7 +19053,7 @@
       <c r="BN206" s="63"/>
     </row>
     <row r="207" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A207" s="183"/>
+      <c r="A207" s="201"/>
       <c r="B207" s="98"/>
       <c r="C207" s="106"/>
       <c r="D207" s="104"/>
@@ -19125,7 +19121,7 @@
       <c r="BN207" s="60"/>
     </row>
     <row r="208" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A208" s="182">
+      <c r="A208" s="200">
         <v>103</v>
       </c>
       <c r="B208" s="98"/>
@@ -19191,7 +19187,7 @@
       <c r="BH208" s="14"/>
       <c r="BI208" s="20"/>
       <c r="BJ208" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK208" s="8"/>
       <c r="BL208" s="8"/>
@@ -19199,7 +19195,7 @@
       <c r="BN208" s="63"/>
     </row>
     <row r="209" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A209" s="183"/>
+      <c r="A209" s="201"/>
       <c r="B209" s="98"/>
       <c r="C209" s="106"/>
       <c r="D209" s="104"/>
@@ -19267,13 +19263,13 @@
       <c r="BN209" s="60"/>
     </row>
     <row r="210" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A210" s="182">
+      <c r="A210" s="200">
         <v>104</v>
       </c>
       <c r="B210" s="98"/>
       <c r="C210" s="106"/>
       <c r="D210" s="103" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E210" s="96"/>
       <c r="F210" s="51"/>
@@ -19333,7 +19329,7 @@
       <c r="BH210" s="14"/>
       <c r="BI210" s="20"/>
       <c r="BJ210" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK210" s="8"/>
       <c r="BL210" s="8"/>
@@ -19341,7 +19337,7 @@
       <c r="BN210" s="63"/>
     </row>
     <row r="211" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A211" s="183"/>
+      <c r="A211" s="201"/>
       <c r="B211" s="98"/>
       <c r="C211" s="106"/>
       <c r="D211" s="104"/>
@@ -19409,7 +19405,7 @@
       <c r="BN211" s="60"/>
     </row>
     <row r="212" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A212" s="182">
+      <c r="A212" s="200">
         <v>105</v>
       </c>
       <c r="B212" s="98"/>
@@ -19475,7 +19471,7 @@
       <c r="BH212" s="26"/>
       <c r="BI212" s="27"/>
       <c r="BJ212" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK212" s="25"/>
       <c r="BL212" s="25"/>
@@ -19483,7 +19479,7 @@
       <c r="BN212" s="60"/>
     </row>
     <row r="213" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A213" s="183"/>
+      <c r="A213" s="201"/>
       <c r="B213" s="98"/>
       <c r="C213" s="106"/>
       <c r="D213" s="102"/>
@@ -19551,7 +19547,7 @@
       <c r="BN213" s="60"/>
     </row>
     <row r="214" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A214" s="182">
+      <c r="A214" s="200">
         <v>106</v>
       </c>
       <c r="B214" s="98"/>
@@ -19619,7 +19615,7 @@
       <c r="BH214" s="14"/>
       <c r="BI214" s="20"/>
       <c r="BJ214" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK214" s="8"/>
       <c r="BL214" s="8"/>
@@ -19627,7 +19623,7 @@
       <c r="BN214" s="63"/>
     </row>
     <row r="215" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A215" s="183"/>
+      <c r="A215" s="201"/>
       <c r="B215" s="98"/>
       <c r="C215" s="114"/>
       <c r="D215" s="104"/>
@@ -19695,7 +19691,7 @@
       <c r="BN215" s="60"/>
     </row>
     <row r="216" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A216" s="182">
+      <c r="A216" s="200">
         <v>107</v>
       </c>
       <c r="B216" s="98"/>
@@ -19761,7 +19757,7 @@
       <c r="BH216" s="14"/>
       <c r="BI216" s="20"/>
       <c r="BJ216" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK216" s="8"/>
       <c r="BL216" s="8"/>
@@ -19769,7 +19765,7 @@
       <c r="BN216" s="63"/>
     </row>
     <row r="217" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A217" s="183"/>
+      <c r="A217" s="201"/>
       <c r="B217" s="98"/>
       <c r="C217" s="114"/>
       <c r="D217" s="104"/>
@@ -19837,7 +19833,7 @@
       <c r="BN217" s="60"/>
     </row>
     <row r="218" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A218" s="182">
+      <c r="A218" s="200">
         <v>108</v>
       </c>
       <c r="B218" s="98"/>
@@ -19903,7 +19899,7 @@
       <c r="BH218" s="14"/>
       <c r="BI218" s="20"/>
       <c r="BJ218" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK218" s="8"/>
       <c r="BL218" s="8"/>
@@ -19911,7 +19907,7 @@
       <c r="BN218" s="63"/>
     </row>
     <row r="219" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A219" s="183"/>
+      <c r="A219" s="201"/>
       <c r="B219" s="98"/>
       <c r="C219" s="114"/>
       <c r="D219" s="104"/>
@@ -19979,7 +19975,7 @@
       <c r="BN219" s="60"/>
     </row>
     <row r="220" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A220" s="182">
+      <c r="A220" s="200">
         <v>109</v>
       </c>
       <c r="B220" s="98"/>
@@ -20045,7 +20041,7 @@
       <c r="BH220" s="14"/>
       <c r="BI220" s="20"/>
       <c r="BJ220" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK220" s="8"/>
       <c r="BL220" s="8"/>
@@ -20053,7 +20049,7 @@
       <c r="BN220" s="63"/>
     </row>
     <row r="221" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A221" s="183"/>
+      <c r="A221" s="201"/>
       <c r="B221" s="98"/>
       <c r="C221" s="114"/>
       <c r="D221" s="104"/>
@@ -20121,7 +20117,7 @@
       <c r="BN221" s="60"/>
     </row>
     <row r="222" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A222" s="182">
+      <c r="A222" s="200">
         <v>110</v>
       </c>
       <c r="B222" s="98"/>
@@ -20187,7 +20183,7 @@
       <c r="BH222" s="26"/>
       <c r="BI222" s="27"/>
       <c r="BJ222" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK222" s="25"/>
       <c r="BL222" s="25"/>
@@ -20195,7 +20191,7 @@
       <c r="BN222" s="60"/>
     </row>
     <row r="223" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A223" s="183"/>
+      <c r="A223" s="201"/>
       <c r="B223" s="98"/>
       <c r="C223" s="114"/>
       <c r="D223" s="104"/>
@@ -20263,7 +20259,7 @@
       <c r="BN223" s="60"/>
     </row>
     <row r="224" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A224" s="182">
+      <c r="A224" s="200">
         <v>111</v>
       </c>
       <c r="B224" s="98"/>
@@ -20329,7 +20325,7 @@
       <c r="BH224" s="26"/>
       <c r="BI224" s="27"/>
       <c r="BJ224" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK224" s="25"/>
       <c r="BL224" s="25"/>
@@ -20337,7 +20333,7 @@
       <c r="BN224" s="60"/>
     </row>
     <row r="225" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A225" s="183"/>
+      <c r="A225" s="201"/>
       <c r="B225" s="98"/>
       <c r="C225" s="114"/>
       <c r="D225" s="104"/>
@@ -20405,7 +20401,7 @@
       <c r="BN225" s="60"/>
     </row>
     <row r="226" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A226" s="182">
+      <c r="A226" s="200">
         <v>112</v>
       </c>
       <c r="B226" s="98"/>
@@ -20471,7 +20467,7 @@
       <c r="BH226" s="26"/>
       <c r="BI226" s="27"/>
       <c r="BJ226" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK226" s="25"/>
       <c r="BL226" s="25"/>
@@ -20479,7 +20475,7 @@
       <c r="BN226" s="60"/>
     </row>
     <row r="227" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A227" s="183"/>
+      <c r="A227" s="201"/>
       <c r="B227" s="98"/>
       <c r="C227" s="114"/>
       <c r="D227" s="104"/>
@@ -20547,7 +20543,7 @@
       <c r="BN227" s="60"/>
     </row>
     <row r="228" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A228" s="182">
+      <c r="A228" s="200">
         <v>113</v>
       </c>
       <c r="B228" s="98"/>
@@ -20613,7 +20609,7 @@
       <c r="BH228" s="26"/>
       <c r="BI228" s="27"/>
       <c r="BJ228" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK228" s="25"/>
       <c r="BL228" s="25"/>
@@ -20621,7 +20617,7 @@
       <c r="BN228" s="60"/>
     </row>
     <row r="229" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A229" s="183"/>
+      <c r="A229" s="201"/>
       <c r="B229" s="98"/>
       <c r="C229" s="114"/>
       <c r="D229" s="108"/>
@@ -20689,7 +20685,7 @@
       <c r="BN229" s="60"/>
     </row>
     <row r="230" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A230" s="182">
+      <c r="A230" s="200">
         <v>114</v>
       </c>
       <c r="B230" s="98"/>
@@ -20755,7 +20751,7 @@
       <c r="BH230" s="26"/>
       <c r="BI230" s="27"/>
       <c r="BJ230" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK230" s="25"/>
       <c r="BL230" s="25"/>
@@ -20763,7 +20759,7 @@
       <c r="BN230" s="60"/>
     </row>
     <row r="231" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A231" s="183"/>
+      <c r="A231" s="201"/>
       <c r="B231" s="98"/>
       <c r="C231" s="114"/>
       <c r="D231" s="104"/>
@@ -20831,13 +20827,13 @@
       <c r="BN231" s="60"/>
     </row>
     <row r="232" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A232" s="182">
+      <c r="A232" s="200">
         <v>115</v>
       </c>
       <c r="B232" s="98"/>
       <c r="C232" s="114"/>
       <c r="D232" s="103" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E232" s="96"/>
       <c r="F232" s="52"/>
@@ -20897,7 +20893,7 @@
       <c r="BH232" s="26"/>
       <c r="BI232" s="27"/>
       <c r="BJ232" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK232" s="25"/>
       <c r="BL232" s="25"/>
@@ -20905,7 +20901,7 @@
       <c r="BN232" s="60"/>
     </row>
     <row r="233" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A233" s="183"/>
+      <c r="A233" s="201"/>
       <c r="B233" s="98"/>
       <c r="C233" s="114"/>
       <c r="D233" s="104"/>
@@ -20973,7 +20969,7 @@
       <c r="BN233" s="60"/>
     </row>
     <row r="234" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A234" s="182">
+      <c r="A234" s="200">
         <v>116</v>
       </c>
       <c r="B234" s="98"/>
@@ -21039,7 +21035,7 @@
       <c r="BH234" s="26"/>
       <c r="BI234" s="27"/>
       <c r="BJ234" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK234" s="25"/>
       <c r="BL234" s="25"/>
@@ -21047,7 +21043,7 @@
       <c r="BN234" s="60"/>
     </row>
     <row r="235" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A235" s="183"/>
+      <c r="A235" s="201"/>
       <c r="B235" s="98"/>
       <c r="C235" s="114"/>
       <c r="D235" s="104"/>
@@ -21115,7 +21111,7 @@
       <c r="BN235" s="60"/>
     </row>
     <row r="236" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A236" s="182">
+      <c r="A236" s="200">
         <v>117</v>
       </c>
       <c r="B236" s="98"/>
@@ -21181,7 +21177,7 @@
       <c r="BH236" s="26"/>
       <c r="BI236" s="27"/>
       <c r="BJ236" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK236" s="25"/>
       <c r="BL236" s="25"/>
@@ -21189,7 +21185,7 @@
       <c r="BN236" s="60"/>
     </row>
     <row r="237" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A237" s="183"/>
+      <c r="A237" s="201"/>
       <c r="B237" s="98"/>
       <c r="C237" s="114"/>
       <c r="D237" s="104"/>
@@ -21257,7 +21253,7 @@
       <c r="BN237" s="60"/>
     </row>
     <row r="238" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A238" s="182">
+      <c r="A238" s="200">
         <v>118</v>
       </c>
       <c r="B238" s="98"/>
@@ -21323,7 +21319,7 @@
       <c r="BH238" s="26"/>
       <c r="BI238" s="27"/>
       <c r="BJ238" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK238" s="25"/>
       <c r="BL238" s="25"/>
@@ -21331,7 +21327,7 @@
       <c r="BN238" s="60"/>
     </row>
     <row r="239" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A239" s="183"/>
+      <c r="A239" s="201"/>
       <c r="B239" s="98"/>
       <c r="C239" s="114"/>
       <c r="D239" s="104"/>
@@ -21399,7 +21395,7 @@
       <c r="BN239" s="60"/>
     </row>
     <row r="240" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A240" s="182">
+      <c r="A240" s="200">
         <v>119</v>
       </c>
       <c r="B240" s="98"/>
@@ -21465,7 +21461,7 @@
       <c r="BH240" s="26"/>
       <c r="BI240" s="27"/>
       <c r="BJ240" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK240" s="25"/>
       <c r="BL240" s="25"/>
@@ -21473,7 +21469,7 @@
       <c r="BN240" s="60"/>
     </row>
     <row r="241" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A241" s="183"/>
+      <c r="A241" s="201"/>
       <c r="B241" s="98"/>
       <c r="C241" s="114"/>
       <c r="D241" s="104"/>
@@ -21541,7 +21537,7 @@
       <c r="BN241" s="60"/>
     </row>
     <row r="242" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A242" s="182">
+      <c r="A242" s="200">
         <v>120</v>
       </c>
       <c r="B242" s="98"/>
@@ -21607,7 +21603,7 @@
       <c r="BH242" s="26"/>
       <c r="BI242" s="27"/>
       <c r="BJ242" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK242" s="25"/>
       <c r="BL242" s="25"/>
@@ -21615,7 +21611,7 @@
       <c r="BN242" s="60"/>
     </row>
     <row r="243" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A243" s="183"/>
+      <c r="A243" s="201"/>
       <c r="B243" s="98"/>
       <c r="C243" s="114"/>
       <c r="D243" s="104"/>
@@ -21683,7 +21679,7 @@
       <c r="BN243" s="60"/>
     </row>
     <row r="244" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A244" s="182">
+      <c r="A244" s="200">
         <v>121</v>
       </c>
       <c r="B244" s="98"/>
@@ -21749,7 +21745,7 @@
       <c r="BH244" s="26"/>
       <c r="BI244" s="27"/>
       <c r="BJ244" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK244" s="25"/>
       <c r="BL244" s="25"/>
@@ -21757,7 +21753,7 @@
       <c r="BN244" s="60"/>
     </row>
     <row r="245" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A245" s="183"/>
+      <c r="A245" s="201"/>
       <c r="B245" s="98"/>
       <c r="C245" s="114"/>
       <c r="D245" s="104"/>
@@ -21825,7 +21821,7 @@
       <c r="BN245" s="63"/>
     </row>
     <row r="246" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A246" s="182">
+      <c r="A246" s="200">
         <v>122</v>
       </c>
       <c r="B246" s="98"/>
@@ -21891,7 +21887,7 @@
       <c r="BH246" s="17"/>
       <c r="BI246" s="23"/>
       <c r="BJ246" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK246" s="10"/>
       <c r="BL246" s="10"/>
@@ -21899,7 +21895,7 @@
       <c r="BN246" s="59"/>
     </row>
     <row r="247" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A247" s="183"/>
+      <c r="A247" s="201"/>
       <c r="B247" s="98"/>
       <c r="C247" s="114"/>
       <c r="D247" s="104"/>
@@ -21967,7 +21963,7 @@
       <c r="BN247" s="60"/>
     </row>
     <row r="248" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A248" s="182">
+      <c r="A248" s="200">
         <v>123</v>
       </c>
       <c r="B248" s="98"/>
@@ -22033,7 +22029,7 @@
       <c r="BH248" s="14"/>
       <c r="BI248" s="20"/>
       <c r="BJ248" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK248" s="8"/>
       <c r="BL248" s="8"/>
@@ -22041,7 +22037,7 @@
       <c r="BN248" s="63"/>
     </row>
     <row r="249" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A249" s="183"/>
+      <c r="A249" s="201"/>
       <c r="B249" s="98"/>
       <c r="C249" s="114"/>
       <c r="D249" s="104"/>
@@ -22109,7 +22105,7 @@
       <c r="BN249" s="60"/>
     </row>
     <row r="250" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A250" s="182">
+      <c r="A250" s="200">
         <v>124</v>
       </c>
       <c r="B250" s="98"/>
@@ -22175,7 +22171,7 @@
       <c r="BH250" s="14"/>
       <c r="BI250" s="20"/>
       <c r="BJ250" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK250" s="8"/>
       <c r="BL250" s="8"/>
@@ -22183,7 +22179,7 @@
       <c r="BN250" s="63"/>
     </row>
     <row r="251" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A251" s="183"/>
+      <c r="A251" s="201"/>
       <c r="B251" s="98"/>
       <c r="C251" s="114"/>
       <c r="D251" s="104"/>
@@ -22251,7 +22247,7 @@
       <c r="BN251" s="60"/>
     </row>
     <row r="252" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A252" s="182">
+      <c r="A252" s="200">
         <v>125</v>
       </c>
       <c r="B252" s="98"/>
@@ -22317,7 +22313,7 @@
       <c r="BH252" s="14"/>
       <c r="BI252" s="20"/>
       <c r="BJ252" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK252" s="8"/>
       <c r="BL252" s="8"/>
@@ -22325,7 +22321,7 @@
       <c r="BN252" s="63"/>
     </row>
     <row r="253" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A253" s="183"/>
+      <c r="A253" s="201"/>
       <c r="B253" s="98"/>
       <c r="C253" s="114"/>
       <c r="D253" s="104"/>
@@ -22393,7 +22389,7 @@
       <c r="BN253" s="60"/>
     </row>
     <row r="254" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A254" s="182">
+      <c r="A254" s="200">
         <v>126</v>
       </c>
       <c r="B254" s="98"/>
@@ -22459,7 +22455,7 @@
       <c r="BH254" s="14"/>
       <c r="BI254" s="20"/>
       <c r="BJ254" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK254" s="8"/>
       <c r="BL254" s="8"/>
@@ -22467,7 +22463,7 @@
       <c r="BN254" s="63"/>
     </row>
     <row r="255" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A255" s="183"/>
+      <c r="A255" s="201"/>
       <c r="B255" s="98"/>
       <c r="C255" s="114"/>
       <c r="D255" s="104"/>
@@ -22535,7 +22531,7 @@
       <c r="BN255" s="60"/>
     </row>
     <row r="256" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A256" s="182">
+      <c r="A256" s="200">
         <v>127</v>
       </c>
       <c r="B256" s="98"/>
@@ -22601,7 +22597,7 @@
       <c r="BH256" s="14"/>
       <c r="BI256" s="20"/>
       <c r="BJ256" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK256" s="8"/>
       <c r="BL256" s="8"/>
@@ -22609,7 +22605,7 @@
       <c r="BN256" s="63"/>
     </row>
     <row r="257" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A257" s="183"/>
+      <c r="A257" s="201"/>
       <c r="B257" s="98"/>
       <c r="C257" s="114"/>
       <c r="D257" s="104"/>
@@ -22677,12 +22673,12 @@
       <c r="BN257" s="180"/>
     </row>
     <row r="258" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A258" s="182">
+      <c r="A258" s="200">
         <v>128</v>
       </c>
       <c r="B258" s="98"/>
       <c r="C258" s="111" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D258" s="132" t="s">
         <v>58</v>
@@ -22748,12 +22744,12 @@
       <c r="BK258" s="175"/>
       <c r="BL258" s="175"/>
       <c r="BM258" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN258" s="179"/>
     </row>
     <row r="259" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A259" s="183"/>
+      <c r="A259" s="201"/>
       <c r="B259" s="98"/>
       <c r="C259" s="129"/>
       <c r="D259" s="133"/>
@@ -22821,13 +22817,13 @@
       <c r="BN259" s="180"/>
     </row>
     <row r="260" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A260" s="182">
+      <c r="A260" s="200">
         <v>129</v>
       </c>
       <c r="B260" s="98"/>
       <c r="C260" s="129"/>
       <c r="D260" s="136" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E260" s="115"/>
       <c r="F260" s="52"/>
@@ -22890,12 +22886,12 @@
       <c r="BK260" s="175"/>
       <c r="BL260" s="175"/>
       <c r="BM260" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN260" s="179"/>
     </row>
     <row r="261" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A261" s="183"/>
+      <c r="A261" s="201"/>
       <c r="B261" s="98"/>
       <c r="C261" s="129"/>
       <c r="D261" s="137"/>
@@ -22963,13 +22959,13 @@
       <c r="BN261" s="179"/>
     </row>
     <row r="262" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A262" s="182">
+      <c r="A262" s="200">
         <v>130</v>
       </c>
       <c r="B262" s="98"/>
       <c r="C262" s="129"/>
-      <c r="D262" s="223" t="s">
-        <v>148</v>
+      <c r="D262" s="182" t="s">
+        <v>146</v>
       </c>
       <c r="E262" s="96"/>
       <c r="F262" s="51"/>
@@ -23029,7 +23025,7 @@
       <c r="BH262" s="14"/>
       <c r="BI262" s="20"/>
       <c r="BJ262" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK262" s="175"/>
       <c r="BL262" s="175"/>
@@ -23037,10 +23033,10 @@
       <c r="BN262" s="179"/>
     </row>
     <row r="263" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A263" s="183"/>
+      <c r="A263" s="201"/>
       <c r="B263" s="98"/>
       <c r="C263" s="129"/>
-      <c r="D263" s="224"/>
+      <c r="D263" s="183"/>
       <c r="E263" s="109"/>
       <c r="F263" s="52"/>
       <c r="G263" s="25"/>
@@ -23105,12 +23101,12 @@
       <c r="BN263" s="179"/>
     </row>
     <row r="264" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A264" s="182">
+      <c r="A264" s="200">
         <v>131</v>
       </c>
       <c r="B264" s="98"/>
       <c r="C264" s="129"/>
-      <c r="D264" s="225" t="s">
+      <c r="D264" s="184" t="s">
         <v>39</v>
       </c>
       <c r="E264" s="96"/>
@@ -23171,7 +23167,7 @@
       <c r="BH264" s="14"/>
       <c r="BI264" s="20"/>
       <c r="BJ264" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK264" s="175"/>
       <c r="BL264" s="175"/>
@@ -23179,10 +23175,10 @@
       <c r="BN264" s="179"/>
     </row>
     <row r="265" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A265" s="183"/>
+      <c r="A265" s="201"/>
       <c r="B265" s="98"/>
       <c r="C265" s="129"/>
-      <c r="D265" s="226"/>
+      <c r="D265" s="185"/>
       <c r="E265" s="109"/>
       <c r="F265" s="52"/>
       <c r="G265" s="25"/>
@@ -23247,7 +23243,7 @@
       <c r="BN265" s="179"/>
     </row>
     <row r="266" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A266" s="182">
+      <c r="A266" s="200">
         <v>132</v>
       </c>
       <c r="B266" s="98"/>
@@ -23316,12 +23312,12 @@
       <c r="BK266" s="175"/>
       <c r="BL266" s="175"/>
       <c r="BM266" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN266" s="179"/>
     </row>
     <row r="267" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A267" s="183"/>
+      <c r="A267" s="201"/>
       <c r="B267" s="98"/>
       <c r="C267" s="129"/>
       <c r="D267" s="133"/>
@@ -23389,7 +23385,7 @@
       <c r="BN267" s="179"/>
     </row>
     <row r="268" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A268" s="182">
+      <c r="A268" s="200">
         <v>133</v>
       </c>
       <c r="B268" s="98"/>
@@ -23458,12 +23454,12 @@
       <c r="BK268" s="175"/>
       <c r="BL268" s="175"/>
       <c r="BM268" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN268" s="179"/>
     </row>
     <row r="269" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A269" s="183"/>
+      <c r="A269" s="201"/>
       <c r="B269" s="98"/>
       <c r="C269" s="129"/>
       <c r="D269" s="133"/>
@@ -23531,7 +23527,7 @@
       <c r="BN269" s="179"/>
     </row>
     <row r="270" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A270" s="182">
+      <c r="A270" s="200">
         <v>134</v>
       </c>
       <c r="B270" s="98"/>
@@ -23600,12 +23596,12 @@
       <c r="BK270" s="175"/>
       <c r="BL270" s="175"/>
       <c r="BM270" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN270" s="179"/>
     </row>
     <row r="271" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A271" s="183"/>
+      <c r="A271" s="201"/>
       <c r="B271" s="98"/>
       <c r="C271" s="129"/>
       <c r="D271" s="133"/>
@@ -23673,7 +23669,7 @@
       <c r="BN271" s="179"/>
     </row>
     <row r="272" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A272" s="182">
+      <c r="A272" s="200">
         <v>135</v>
       </c>
       <c r="B272" s="98"/>
@@ -23742,12 +23738,12 @@
       <c r="BK272" s="175"/>
       <c r="BL272" s="175"/>
       <c r="BM272" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN272" s="179"/>
     </row>
     <row r="273" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A273" s="183"/>
+      <c r="A273" s="201"/>
       <c r="B273" s="98"/>
       <c r="C273" s="129"/>
       <c r="D273" s="133"/>
@@ -23815,7 +23811,7 @@
       <c r="BN273" s="179"/>
     </row>
     <row r="274" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A274" s="182">
+      <c r="A274" s="200">
         <v>136</v>
       </c>
       <c r="B274" s="98"/>
@@ -23884,12 +23880,12 @@
       <c r="BK274" s="175"/>
       <c r="BL274" s="175"/>
       <c r="BM274" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN274" s="179"/>
     </row>
     <row r="275" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A275" s="183"/>
+      <c r="A275" s="201"/>
       <c r="B275" s="98"/>
       <c r="C275" s="129"/>
       <c r="D275" s="133"/>
@@ -23957,7 +23953,7 @@
       <c r="BN275" s="179"/>
     </row>
     <row r="276" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A276" s="182">
+      <c r="A276" s="200">
         <v>137</v>
       </c>
       <c r="B276" s="98"/>
@@ -24026,12 +24022,12 @@
       <c r="BK276" s="175"/>
       <c r="BL276" s="175"/>
       <c r="BM276" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN276" s="179"/>
     </row>
     <row r="277" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A277" s="183"/>
+      <c r="A277" s="201"/>
       <c r="B277" s="98"/>
       <c r="C277" s="129"/>
       <c r="D277" s="133"/>
@@ -24099,7 +24095,7 @@
       <c r="BN277" s="179"/>
     </row>
     <row r="278" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A278" s="182">
+      <c r="A278" s="200">
         <v>138</v>
       </c>
       <c r="B278" s="98"/>
@@ -24168,12 +24164,12 @@
       <c r="BK278" s="178"/>
       <c r="BL278" s="178"/>
       <c r="BM278" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN278" s="179"/>
     </row>
     <row r="279" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A279" s="183"/>
+      <c r="A279" s="201"/>
       <c r="B279" s="98"/>
       <c r="C279" s="129"/>
       <c r="D279" s="133"/>
@@ -24241,7 +24237,7 @@
       <c r="BN279" s="179"/>
     </row>
     <row r="280" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A280" s="182">
+      <c r="A280" s="200">
         <v>139</v>
       </c>
       <c r="B280" s="98"/>
@@ -24310,12 +24306,12 @@
       <c r="BK280" s="178"/>
       <c r="BL280" s="178"/>
       <c r="BM280" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN280" s="179"/>
     </row>
     <row r="281" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A281" s="183"/>
+      <c r="A281" s="201"/>
       <c r="B281" s="98"/>
       <c r="C281" s="129"/>
       <c r="D281" s="133"/>
@@ -24383,7 +24379,7 @@
       <c r="BN281" s="179"/>
     </row>
     <row r="282" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A282" s="182">
+      <c r="A282" s="200">
         <v>140</v>
       </c>
       <c r="B282" s="98"/>
@@ -24452,12 +24448,12 @@
       <c r="BK282" s="178"/>
       <c r="BL282" s="178"/>
       <c r="BM282" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN282" s="179"/>
     </row>
     <row r="283" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A283" s="183"/>
+      <c r="A283" s="201"/>
       <c r="B283" s="98"/>
       <c r="C283" s="129"/>
       <c r="D283" s="133"/>
@@ -24525,7 +24521,7 @@
       <c r="BN283" s="179"/>
     </row>
     <row r="284" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A284" s="182">
+      <c r="A284" s="200">
         <v>141</v>
       </c>
       <c r="B284" s="98"/>
@@ -24594,12 +24590,12 @@
       <c r="BK284" s="178"/>
       <c r="BL284" s="178"/>
       <c r="BM284" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN284" s="179"/>
     </row>
     <row r="285" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A285" s="183"/>
+      <c r="A285" s="201"/>
       <c r="B285" s="98"/>
       <c r="C285" s="129"/>
       <c r="D285" s="133"/>
@@ -24667,7 +24663,7 @@
       <c r="BN285" s="60"/>
     </row>
     <row r="286" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A286" s="182">
+      <c r="A286" s="200">
         <v>142</v>
       </c>
       <c r="B286" s="98"/>
@@ -24736,12 +24732,12 @@
       <c r="BK286" s="178"/>
       <c r="BL286" s="178"/>
       <c r="BM286" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN286" s="60"/>
     </row>
     <row r="287" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A287" s="183"/>
+      <c r="A287" s="201"/>
       <c r="B287" s="98"/>
       <c r="C287" s="129"/>
       <c r="D287" s="133"/>
@@ -24809,7 +24805,7 @@
       <c r="BN287" s="60"/>
     </row>
     <row r="288" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A288" s="182">
+      <c r="A288" s="200">
         <v>143</v>
       </c>
       <c r="B288" s="98"/>
@@ -24878,12 +24874,12 @@
       <c r="BK288" s="178"/>
       <c r="BL288" s="178"/>
       <c r="BM288" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN288" s="60"/>
     </row>
     <row r="289" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A289" s="183"/>
+      <c r="A289" s="201"/>
       <c r="B289" s="98"/>
       <c r="C289" s="129"/>
       <c r="D289" s="133"/>
@@ -24951,7 +24947,7 @@
       <c r="BN289" s="60"/>
     </row>
     <row r="290" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A290" s="182">
+      <c r="A290" s="200">
         <v>144</v>
       </c>
       <c r="B290" s="98"/>
@@ -25020,12 +25016,12 @@
       <c r="BK290" s="178"/>
       <c r="BL290" s="178"/>
       <c r="BM290" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN290" s="60"/>
     </row>
     <row r="291" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A291" s="183"/>
+      <c r="A291" s="201"/>
       <c r="B291" s="98"/>
       <c r="C291" s="129"/>
       <c r="D291" s="133"/>
@@ -25093,7 +25089,7 @@
       <c r="BN291" s="64"/>
     </row>
     <row r="292" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A292" s="182">
+      <c r="A292" s="200">
         <v>145</v>
       </c>
       <c r="B292" s="98"/>
@@ -25162,12 +25158,12 @@
       <c r="BK292" s="178"/>
       <c r="BL292" s="178"/>
       <c r="BM292" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN292" s="61"/>
     </row>
     <row r="293" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A293" s="183"/>
+      <c r="A293" s="201"/>
       <c r="B293" s="98"/>
       <c r="C293" s="129"/>
       <c r="D293" s="133"/>
@@ -25235,7 +25231,7 @@
       <c r="BN293" s="60"/>
     </row>
     <row r="294" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A294" s="182">
+      <c r="A294" s="200">
         <v>146</v>
       </c>
       <c r="B294" s="98"/>
@@ -25304,13 +25300,13 @@
       <c r="BK294" s="178"/>
       <c r="BL294" s="178"/>
       <c r="BM294" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN294" s="63"/>
       <c r="BR294" s="128"/>
     </row>
     <row r="295" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A295" s="183"/>
+      <c r="A295" s="201"/>
       <c r="B295" s="98"/>
       <c r="C295" s="129"/>
       <c r="D295" s="133"/>
@@ -25378,7 +25374,7 @@
       <c r="BN295" s="60"/>
     </row>
     <row r="296" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A296" s="182">
+      <c r="A296" s="200">
         <v>147</v>
       </c>
       <c r="B296" s="98"/>
@@ -25447,12 +25443,12 @@
       <c r="BK296" s="178"/>
       <c r="BL296" s="178"/>
       <c r="BM296" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN296" s="63"/>
     </row>
     <row r="297" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A297" s="183"/>
+      <c r="A297" s="201"/>
       <c r="B297" s="98"/>
       <c r="C297" s="129"/>
       <c r="D297" s="133"/>
@@ -25520,7 +25516,7 @@
       <c r="BN297" s="60"/>
     </row>
     <row r="298" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A298" s="182">
+      <c r="A298" s="200">
         <v>148</v>
       </c>
       <c r="B298" s="98"/>
@@ -25589,12 +25585,12 @@
       <c r="BK298" s="178"/>
       <c r="BL298" s="178"/>
       <c r="BM298" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN298" s="63"/>
     </row>
     <row r="299" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A299" s="183"/>
+      <c r="A299" s="201"/>
       <c r="B299" s="98"/>
       <c r="C299" s="129"/>
       <c r="D299" s="133"/>
@@ -25662,7 +25658,7 @@
       <c r="BN299" s="60"/>
     </row>
     <row r="300" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A300" s="182">
+      <c r="A300" s="200">
         <v>149</v>
       </c>
       <c r="B300" s="98"/>
@@ -25731,12 +25727,12 @@
       <c r="BK300" s="178"/>
       <c r="BL300" s="178"/>
       <c r="BM300" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN300" s="63"/>
     </row>
     <row r="301" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A301" s="183"/>
+      <c r="A301" s="201"/>
       <c r="B301" s="98"/>
       <c r="C301" s="129"/>
       <c r="D301" s="133"/>
@@ -25804,7 +25800,7 @@
       <c r="BN301" s="60"/>
     </row>
     <row r="302" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A302" s="182">
+      <c r="A302" s="200">
         <v>150</v>
       </c>
       <c r="B302" s="98"/>
@@ -25873,12 +25869,12 @@
       <c r="BK302" s="178"/>
       <c r="BL302" s="178"/>
       <c r="BM302" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN302" s="63"/>
     </row>
     <row r="303" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A303" s="183"/>
+      <c r="A303" s="201"/>
       <c r="B303" s="98"/>
       <c r="C303" s="114"/>
       <c r="D303" s="104"/>
@@ -25946,7 +25942,7 @@
       <c r="BN303" s="60"/>
     </row>
     <row r="304" spans="1:70" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A304" s="182">
+      <c r="A304" s="200">
         <v>151</v>
       </c>
       <c r="B304" s="98"/>
@@ -26014,7 +26010,7 @@
       <c r="BH304" s="14"/>
       <c r="BI304" s="20"/>
       <c r="BJ304" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK304" s="175"/>
       <c r="BL304" s="175"/>
@@ -26022,7 +26018,7 @@
       <c r="BN304" s="63"/>
     </row>
     <row r="305" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A305" s="183"/>
+      <c r="A305" s="201"/>
       <c r="B305" s="98"/>
       <c r="C305" s="110"/>
       <c r="D305" s="104"/>
@@ -26090,7 +26086,7 @@
       <c r="BN305" s="60"/>
     </row>
     <row r="306" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A306" s="182">
+      <c r="A306" s="200">
         <v>152</v>
       </c>
       <c r="B306" s="98"/>
@@ -26156,17 +26152,17 @@
       <c r="BH306" s="14"/>
       <c r="BI306" s="20"/>
       <c r="BJ306" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK306" s="178"/>
       <c r="BL306" s="178"/>
       <c r="BM306" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN306" s="63"/>
     </row>
     <row r="307" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A307" s="183"/>
+      <c r="A307" s="201"/>
       <c r="B307" s="98"/>
       <c r="C307" s="110"/>
       <c r="D307" s="104"/>
@@ -26234,7 +26230,7 @@
       <c r="BN307" s="60"/>
     </row>
     <row r="308" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A308" s="182">
+      <c r="A308" s="200">
         <v>153</v>
       </c>
       <c r="B308" s="98"/>
@@ -26303,12 +26299,12 @@
       <c r="BK308" s="178"/>
       <c r="BL308" s="178"/>
       <c r="BM308" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN308" s="63"/>
     </row>
     <row r="309" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A309" s="183"/>
+      <c r="A309" s="201"/>
       <c r="B309" s="98"/>
       <c r="C309" s="110"/>
       <c r="D309" s="104"/>
@@ -26376,7 +26372,7 @@
       <c r="BN309" s="60"/>
     </row>
     <row r="310" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A310" s="182">
+      <c r="A310" s="200">
         <v>154</v>
       </c>
       <c r="B310" s="98"/>
@@ -26445,12 +26441,12 @@
       <c r="BK310" s="178"/>
       <c r="BL310" s="178"/>
       <c r="BM310" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN310" s="63"/>
     </row>
     <row r="311" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A311" s="183"/>
+      <c r="A311" s="201"/>
       <c r="B311" s="98"/>
       <c r="C311" s="110"/>
       <c r="D311" s="104"/>
@@ -26518,7 +26514,7 @@
       <c r="BN311" s="60"/>
     </row>
     <row r="312" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A312" s="182">
+      <c r="A312" s="200">
         <v>155</v>
       </c>
       <c r="B312" s="98"/>
@@ -26587,12 +26583,12 @@
       <c r="BK312" s="178"/>
       <c r="BL312" s="178"/>
       <c r="BM312" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN312" s="60"/>
     </row>
     <row r="313" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A313" s="183"/>
+      <c r="A313" s="201"/>
       <c r="B313" s="98"/>
       <c r="C313" s="130"/>
       <c r="D313" s="108"/>
@@ -26660,7 +26656,7 @@
       <c r="BN313" s="60"/>
     </row>
     <row r="314" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A314" s="182">
+      <c r="A314" s="200">
         <v>156</v>
       </c>
       <c r="B314" s="131"/>
@@ -26729,12 +26725,12 @@
       <c r="BK314" s="178"/>
       <c r="BL314" s="178"/>
       <c r="BM314" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN314" s="60"/>
     </row>
     <row r="315" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A315" s="183"/>
+      <c r="A315" s="201"/>
       <c r="B315" s="131"/>
       <c r="C315" s="133"/>
       <c r="D315" s="137"/>
@@ -26802,11 +26798,11 @@
       <c r="BN315" s="60"/>
     </row>
     <row r="316" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A316" s="182">
+      <c r="A316" s="200">
         <v>157</v>
       </c>
       <c r="B316" s="98"/>
-      <c r="C316" s="228" t="s">
+      <c r="C316" s="189" t="s">
         <v>91</v>
       </c>
       <c r="D316" s="103" t="s">
@@ -26870,19 +26866,19 @@
       <c r="BH316" s="14"/>
       <c r="BI316" s="20"/>
       <c r="BJ316" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK316" s="178"/>
       <c r="BL316" s="178"/>
       <c r="BM316" s="177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BN316" s="63"/>
     </row>
     <row r="317" spans="1:66" s="3" customFormat="1" ht="9.6" customHeight="1" thickBot="1">
-      <c r="A317" s="183"/>
+      <c r="A317" s="201"/>
       <c r="B317" s="99"/>
-      <c r="C317" s="229"/>
+      <c r="C317" s="194"/>
       <c r="D317" s="119"/>
       <c r="E317" s="120"/>
       <c r="F317" s="121"/>
@@ -26965,35 +26961,235 @@
         <v>99</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A322" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A323" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
     <row r="324" spans="1:2" ht="14.25" customHeight="1">
       <c r="A324" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="D264:D265"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="A306:A307"/>
+    <mergeCell ref="A308:A309"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="A282:A283"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="A288:A289"/>
+    <mergeCell ref="A290:A291"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="A294:A295"/>
+    <mergeCell ref="A296:A297"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="A278:A279"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="A230:A231"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B14:B37"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C14:C37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="AJ1:BM1"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B83"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="F1:AI1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
     <mergeCell ref="E60:E61"/>
     <mergeCell ref="E82:E83"/>
     <mergeCell ref="E58:E59"/>
@@ -27018,225 +27214,15 @@
     <mergeCell ref="D76:D77"/>
     <mergeCell ref="D78:D79"/>
     <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="AJ1:BM1"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B83"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="F1:AI1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="B14:B37"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C14:C37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="A230:A231"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="A234:A235"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="A252:A253"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="A258:A259"/>
-    <mergeCell ref="A260:A261"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="A264:A265"/>
-    <mergeCell ref="A266:A267"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="A270:A271"/>
-    <mergeCell ref="A272:A273"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="A276:A277"/>
-    <mergeCell ref="A278:A279"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="A282:A283"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="A288:A289"/>
-    <mergeCell ref="A290:A291"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="A294:A295"/>
-    <mergeCell ref="A296:A297"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="A300:A301"/>
-    <mergeCell ref="A302:A303"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="A306:A307"/>
-    <mergeCell ref="A308:A309"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="A312:A313"/>
-    <mergeCell ref="A314:A315"/>
-    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="D264:D265"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E62:E63"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -27279,92 +27265,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="234" t="s">
+      <c r="C1" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="235"/>
-      <c r="E1" s="240" t="s">
+      <c r="D1" s="269"/>
+      <c r="E1" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="194">
+      <c r="F1" s="215">
         <v>45901</v>
       </c>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="195"/>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="195"/>
-      <c r="Z1" s="195"/>
-      <c r="AA1" s="195"/>
-      <c r="AB1" s="195"/>
-      <c r="AC1" s="195"/>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="195"/>
-      <c r="AH1" s="195"/>
-      <c r="AI1" s="203"/>
-      <c r="AJ1" s="194">
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="216"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="216"/>
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="216"/>
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="216"/>
+      <c r="AD1" s="216"/>
+      <c r="AE1" s="216"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="216"/>
+      <c r="AH1" s="216"/>
+      <c r="AI1" s="220"/>
+      <c r="AJ1" s="215">
         <v>45931</v>
       </c>
-      <c r="AK1" s="195"/>
-      <c r="AL1" s="195"/>
-      <c r="AM1" s="195"/>
-      <c r="AN1" s="195"/>
-      <c r="AO1" s="195"/>
-      <c r="AP1" s="195"/>
-      <c r="AQ1" s="195"/>
-      <c r="AR1" s="195"/>
-      <c r="AS1" s="195"/>
-      <c r="AT1" s="195"/>
-      <c r="AU1" s="195"/>
-      <c r="AV1" s="195"/>
-      <c r="AW1" s="195"/>
-      <c r="AX1" s="195"/>
-      <c r="AY1" s="195"/>
-      <c r="AZ1" s="195"/>
-      <c r="BA1" s="195"/>
-      <c r="BB1" s="195"/>
-      <c r="BC1" s="195"/>
-      <c r="BD1" s="195"/>
-      <c r="BE1" s="195"/>
-      <c r="BF1" s="195"/>
-      <c r="BG1" s="195"/>
-      <c r="BH1" s="195"/>
-      <c r="BI1" s="195"/>
-      <c r="BJ1" s="195"/>
-      <c r="BK1" s="195"/>
-      <c r="BL1" s="195"/>
-      <c r="BM1" s="195"/>
+      <c r="AK1" s="216"/>
+      <c r="AL1" s="216"/>
+      <c r="AM1" s="216"/>
+      <c r="AN1" s="216"/>
+      <c r="AO1" s="216"/>
+      <c r="AP1" s="216"/>
+      <c r="AQ1" s="216"/>
+      <c r="AR1" s="216"/>
+      <c r="AS1" s="216"/>
+      <c r="AT1" s="216"/>
+      <c r="AU1" s="216"/>
+      <c r="AV1" s="216"/>
+      <c r="AW1" s="216"/>
+      <c r="AX1" s="216"/>
+      <c r="AY1" s="216"/>
+      <c r="AZ1" s="216"/>
+      <c r="BA1" s="216"/>
+      <c r="BB1" s="216"/>
+      <c r="BC1" s="216"/>
+      <c r="BD1" s="216"/>
+      <c r="BE1" s="216"/>
+      <c r="BF1" s="216"/>
+      <c r="BG1" s="216"/>
+      <c r="BH1" s="216"/>
+      <c r="BI1" s="216"/>
+      <c r="BJ1" s="216"/>
+      <c r="BK1" s="216"/>
+      <c r="BL1" s="216"/>
+      <c r="BM1" s="216"/>
       <c r="BN1" s="66"/>
       <c r="BO1" s="3"/>
     </row>
     <row r="2" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A2" s="205"/>
-      <c r="B2" s="208"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="241"/>
+      <c r="A2" s="222"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="275"/>
       <c r="F2" s="46">
         <v>42156</v>
       </c>
@@ -27551,11 +27537,11 @@
       <c r="BO2" s="3"/>
     </row>
     <row r="3" spans="1:67" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="206"/>
-      <c r="B3" s="209"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="239"/>
-      <c r="E3" s="242"/>
+      <c r="A3" s="223"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="273"/>
+      <c r="E3" s="276"/>
       <c r="F3" s="48" t="s">
         <v>5</v>
       </c>
@@ -27742,17 +27728,17 @@
       <c r="BO3" s="45"/>
     </row>
     <row r="4" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="182">
+      <c r="A4" s="200">
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="247"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="266"/>
       <c r="F4" s="50"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -27816,11 +27802,11 @@
       <c r="BN4" s="59"/>
     </row>
     <row r="5" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="183"/>
+      <c r="A5" s="201"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="246"/>
-      <c r="E5" s="248"/>
+      <c r="C5" s="260"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="267"/>
       <c r="F5" s="52"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -27884,17 +27870,17 @@
       <c r="BN5" s="60"/>
     </row>
     <row r="6" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="182">
+      <c r="A6" s="200">
         <v>2</v>
       </c>
       <c r="B6" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="249" t="s">
+      <c r="C6" s="262" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="250"/>
-      <c r="E6" s="253"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="257"/>
       <c r="F6" s="37"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -27958,11 +27944,11 @@
       <c r="BN6" s="61"/>
     </row>
     <row r="7" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="183"/>
+      <c r="A7" s="201"/>
       <c r="B7" s="81"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="252"/>
-      <c r="E7" s="254"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="265"/>
+      <c r="E7" s="253"/>
       <c r="F7" s="53"/>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
@@ -28026,17 +28012,17 @@
       <c r="BN7" s="62"/>
     </row>
     <row r="8" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="182">
+      <c r="A8" s="200">
         <v>3</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="249" t="s">
+      <c r="C8" s="262" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="250"/>
-      <c r="E8" s="253"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="257"/>
       <c r="F8" s="37"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -28100,11 +28086,11 @@
       <c r="BN8" s="61"/>
     </row>
     <row r="9" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="183"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="81"/>
-      <c r="C9" s="251"/>
-      <c r="D9" s="252"/>
-      <c r="E9" s="254"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="265"/>
+      <c r="E9" s="253"/>
       <c r="F9" s="53"/>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
@@ -28168,17 +28154,17 @@
       <c r="BN9" s="62"/>
     </row>
     <row r="10" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="182">
+      <c r="A10" s="200">
         <v>4</v>
       </c>
       <c r="B10" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="249" t="s">
+      <c r="C10" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="250"/>
-      <c r="E10" s="253"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="257"/>
       <c r="F10" s="37"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -28242,11 +28228,11 @@
       <c r="BN10" s="61"/>
     </row>
     <row r="11" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="183"/>
+      <c r="A11" s="201"/>
       <c r="B11" s="81"/>
-      <c r="C11" s="251"/>
-      <c r="D11" s="252"/>
-      <c r="E11" s="254"/>
+      <c r="C11" s="264"/>
+      <c r="D11" s="265"/>
+      <c r="E11" s="253"/>
       <c r="F11" s="53"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
@@ -28310,17 +28296,17 @@
       <c r="BN11" s="62"/>
     </row>
     <row r="12" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="182">
+      <c r="A12" s="200">
         <v>5</v>
       </c>
       <c r="B12" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="249" t="s">
+      <c r="C12" s="262" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="250"/>
-      <c r="E12" s="253"/>
+      <c r="D12" s="263"/>
+      <c r="E12" s="257"/>
       <c r="F12" s="37"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -28384,11 +28370,11 @@
       <c r="BN12" s="61"/>
     </row>
     <row r="13" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="183"/>
+      <c r="A13" s="201"/>
       <c r="B13" s="81"/>
-      <c r="C13" s="251"/>
-      <c r="D13" s="252"/>
-      <c r="E13" s="254"/>
+      <c r="C13" s="264"/>
+      <c r="D13" s="265"/>
+      <c r="E13" s="253"/>
       <c r="F13" s="53"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
@@ -28452,17 +28438,17 @@
       <c r="BN13" s="62"/>
     </row>
     <row r="14" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="182">
+      <c r="A14" s="200">
         <v>6</v>
       </c>
       <c r="B14" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="255" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="256"/>
-      <c r="E14" s="253"/>
+        <v>100</v>
+      </c>
+      <c r="C14" s="242" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="243"/>
+      <c r="E14" s="257"/>
       <c r="F14" s="37"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -28526,11 +28512,11 @@
       <c r="BN14" s="61"/>
     </row>
     <row r="15" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="183"/>
+      <c r="A15" s="201"/>
       <c r="B15" s="80"/>
-      <c r="C15" s="257"/>
-      <c r="D15" s="258"/>
-      <c r="E15" s="259"/>
+      <c r="C15" s="250"/>
+      <c r="D15" s="251"/>
+      <c r="E15" s="258"/>
       <c r="F15" s="52"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -28594,15 +28580,15 @@
       <c r="BN15" s="60"/>
     </row>
     <row r="16" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="182">
+      <c r="A16" s="200">
         <v>7</v>
       </c>
       <c r="B16" s="80"/>
-      <c r="C16" s="243" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="244"/>
-      <c r="E16" s="260"/>
+      <c r="C16" s="259" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="249"/>
+      <c r="E16" s="252"/>
       <c r="F16" s="51"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -28666,11 +28652,11 @@
       <c r="BN16" s="63"/>
     </row>
     <row r="17" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="183"/>
+      <c r="A17" s="201"/>
       <c r="B17" s="80"/>
-      <c r="C17" s="257"/>
-      <c r="D17" s="258"/>
-      <c r="E17" s="259"/>
+      <c r="C17" s="250"/>
+      <c r="D17" s="251"/>
+      <c r="E17" s="258"/>
       <c r="F17" s="52"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -28734,15 +28720,15 @@
       <c r="BN17" s="60"/>
     </row>
     <row r="18" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="182">
+      <c r="A18" s="200">
         <v>8</v>
       </c>
       <c r="B18" s="80"/>
-      <c r="C18" s="243" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="244"/>
-      <c r="E18" s="260"/>
+      <c r="C18" s="259" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="249"/>
+      <c r="E18" s="252"/>
       <c r="F18" s="52"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
@@ -28806,11 +28792,11 @@
       <c r="BN18" s="60"/>
     </row>
     <row r="19" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="183"/>
+      <c r="A19" s="201"/>
       <c r="B19" s="81"/>
-      <c r="C19" s="245"/>
-      <c r="D19" s="246"/>
-      <c r="E19" s="254"/>
+      <c r="C19" s="260"/>
+      <c r="D19" s="261"/>
+      <c r="E19" s="253"/>
       <c r="F19" s="54"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -28874,17 +28860,17 @@
       <c r="BN19" s="64"/>
     </row>
     <row r="20" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="182">
+      <c r="A20" s="200">
         <v>9</v>
       </c>
       <c r="B20" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="255" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="256"/>
-      <c r="E20" s="253"/>
+      <c r="C20" s="242" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="243"/>
+      <c r="E20" s="257"/>
       <c r="F20" s="37"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -28948,11 +28934,11 @@
       <c r="BN20" s="61"/>
     </row>
     <row r="21" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="183"/>
+      <c r="A21" s="201"/>
       <c r="B21" s="80"/>
-      <c r="C21" s="257"/>
-      <c r="D21" s="258"/>
-      <c r="E21" s="259"/>
+      <c r="C21" s="250"/>
+      <c r="D21" s="251"/>
+      <c r="E21" s="258"/>
       <c r="F21" s="51"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -29016,15 +29002,15 @@
       <c r="BN21" s="63"/>
     </row>
     <row r="22" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="182">
+      <c r="A22" s="200">
         <v>10</v>
       </c>
       <c r="B22" s="80"/>
-      <c r="C22" s="261" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="244"/>
-      <c r="E22" s="260"/>
+      <c r="C22" s="248" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="249"/>
+      <c r="E22" s="252"/>
       <c r="F22" s="51"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -29088,11 +29074,11 @@
       <c r="BN22" s="63"/>
     </row>
     <row r="23" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="183"/>
+      <c r="A23" s="201"/>
       <c r="B23" s="80"/>
-      <c r="C23" s="257"/>
-      <c r="D23" s="258"/>
-      <c r="E23" s="259"/>
+      <c r="C23" s="250"/>
+      <c r="D23" s="251"/>
+      <c r="E23" s="258"/>
       <c r="F23" s="51"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -29156,15 +29142,15 @@
       <c r="BN23" s="63"/>
     </row>
     <row r="24" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="182">
+      <c r="A24" s="200">
         <v>11</v>
       </c>
       <c r="B24" s="80"/>
-      <c r="C24" s="261" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="244"/>
-      <c r="E24" s="260"/>
+      <c r="C24" s="248" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="249"/>
+      <c r="E24" s="252"/>
       <c r="F24" s="52"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
@@ -29228,11 +29214,11 @@
       <c r="BN24" s="60"/>
     </row>
     <row r="25" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="183"/>
+      <c r="A25" s="201"/>
       <c r="B25" s="81"/>
-      <c r="C25" s="257"/>
-      <c r="D25" s="258"/>
-      <c r="E25" s="254"/>
+      <c r="C25" s="250"/>
+      <c r="D25" s="251"/>
+      <c r="E25" s="253"/>
       <c r="F25" s="54"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -29296,17 +29282,17 @@
       <c r="BN25" s="64"/>
     </row>
     <row r="26" spans="1:67" ht="12" customHeight="1">
-      <c r="A26" s="182">
+      <c r="A26" s="200">
         <v>12</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="262" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="263"/>
-      <c r="E26" s="266"/>
+        <v>107</v>
+      </c>
+      <c r="C26" s="254" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="255"/>
+      <c r="E26" s="256"/>
       <c r="F26" s="37"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -29371,11 +29357,11 @@
       <c r="BO26" s="3"/>
     </row>
     <row r="27" spans="1:67" ht="12" customHeight="1">
-      <c r="A27" s="183"/>
+      <c r="A27" s="201"/>
       <c r="B27" s="35"/>
-      <c r="C27" s="264"/>
-      <c r="D27" s="265"/>
-      <c r="E27" s="267"/>
+      <c r="C27" s="234"/>
+      <c r="D27" s="235"/>
+      <c r="E27" s="238"/>
       <c r="F27" s="51"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -29440,15 +29426,15 @@
       <c r="BO27" s="3"/>
     </row>
     <row r="28" spans="1:67" ht="12" customHeight="1">
-      <c r="A28" s="182">
+      <c r="A28" s="200">
         <v>13</v>
       </c>
       <c r="B28" s="35"/>
-      <c r="C28" s="264" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="265"/>
-      <c r="E28" s="267"/>
+      <c r="C28" s="234" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="235"/>
+      <c r="E28" s="238"/>
       <c r="F28" s="51"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -29513,11 +29499,11 @@
       <c r="BO28" s="3"/>
     </row>
     <row r="29" spans="1:67" ht="12" customHeight="1">
-      <c r="A29" s="183"/>
+      <c r="A29" s="201"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="268"/>
-      <c r="D29" s="269"/>
-      <c r="E29" s="270"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="237"/>
+      <c r="E29" s="239"/>
       <c r="F29" s="54"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -29582,17 +29568,17 @@
       <c r="BO29" s="3"/>
     </row>
     <row r="30" spans="1:67" ht="12" customHeight="1">
-      <c r="A30" s="182">
+      <c r="A30" s="200">
         <v>14</v>
       </c>
-      <c r="B30" s="271" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="255" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="256"/>
-      <c r="E30" s="275"/>
+      <c r="B30" s="240" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="242" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="243"/>
+      <c r="E30" s="246"/>
       <c r="F30" s="37"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -29657,11 +29643,11 @@
       <c r="BO30" s="3"/>
     </row>
     <row r="31" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A31" s="183"/>
-      <c r="B31" s="272"/>
-      <c r="C31" s="273"/>
-      <c r="D31" s="274"/>
-      <c r="E31" s="276"/>
+      <c r="A31" s="201"/>
+      <c r="B31" s="241"/>
+      <c r="C31" s="244"/>
+      <c r="D31" s="245"/>
+      <c r="E31" s="247"/>
       <c r="F31" s="38"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -29745,6 +29731,48 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="AJ1:BM1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:AI1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="C28:D29"/>
     <mergeCell ref="E28:E29"/>
@@ -29752,48 +29780,6 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:D31"/>
     <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="AJ1:BM1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -29837,63 +29823,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="10.5" customHeight="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="234" t="s">
+      <c r="C1" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="235"/>
-      <c r="E1" s="277" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="240" t="s">
+      <c r="D1" s="269"/>
+      <c r="E1" s="313" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="194">
+      <c r="G1" s="215">
         <v>45078</v>
       </c>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="195"/>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="195"/>
-      <c r="Z1" s="195"/>
-      <c r="AA1" s="195"/>
-      <c r="AB1" s="195"/>
-      <c r="AC1" s="195"/>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="195"/>
-      <c r="AH1" s="195"/>
-      <c r="AI1" s="195"/>
-      <c r="AJ1" s="203"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="216"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="216"/>
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="216"/>
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="216"/>
+      <c r="AD1" s="216"/>
+      <c r="AE1" s="216"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="216"/>
+      <c r="AH1" s="216"/>
+      <c r="AI1" s="216"/>
+      <c r="AJ1" s="220"/>
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" ht="10.5" customHeight="1">
-      <c r="A2" s="205"/>
-      <c r="B2" s="208"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="241"/>
+      <c r="A2" s="222"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="314"/>
+      <c r="F2" s="275"/>
       <c r="G2" s="46">
         <v>42156</v>
       </c>
@@ -29987,23 +29973,23 @@
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="206"/>
-      <c r="B3" s="209"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="239"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="242"/>
+      <c r="A3" s="223"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="273"/>
+      <c r="E3" s="315"/>
+      <c r="F3" s="276"/>
       <c r="G3" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="J3" s="57" t="s">
         <v>115</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>117</v>
       </c>
       <c r="K3" s="56" t="s">
         <v>5</v>
@@ -30012,19 +29998,19 @@
         <v>6</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N3" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="P3" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="O3" s="57" t="s">
+      <c r="Q3" s="57" t="s">
         <v>115</v>
-      </c>
-      <c r="P3" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q3" s="57" t="s">
-        <v>117</v>
       </c>
       <c r="R3" s="56" t="s">
         <v>5</v>
@@ -30033,19 +30019,19 @@
         <v>6</v>
       </c>
       <c r="T3" s="56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="U3" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="V3" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="W3" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="V3" s="57" t="s">
+      <c r="X3" s="57" t="s">
         <v>115</v>
-      </c>
-      <c r="W3" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="X3" s="57" t="s">
-        <v>117</v>
       </c>
       <c r="Y3" s="56" t="s">
         <v>5</v>
@@ -30054,19 +30040,19 @@
         <v>6</v>
       </c>
       <c r="AA3" s="56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AB3" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC3" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD3" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="AC3" s="57" t="s">
+      <c r="AE3" s="57" t="s">
         <v>115</v>
-      </c>
-      <c r="AD3" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE3" s="57" t="s">
-        <v>117</v>
       </c>
       <c r="AF3" s="56" t="s">
         <v>5</v>
@@ -30075,31 +30061,31 @@
         <v>6</v>
       </c>
       <c r="AH3" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI3" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ3" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK3" s="45"/>
+    </row>
+    <row r="4" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A4" s="303">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="304" t="s">
         <v>118</v>
       </c>
-      <c r="AI3" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ3" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK3" s="45"/>
-    </row>
-    <row r="4" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="285">
-        <v>1</v>
-      </c>
-      <c r="B4" s="34" t="s">
+      <c r="D4" s="305"/>
+      <c r="E4" s="306" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="286" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="287"/>
-      <c r="E4" s="288" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="290"/>
+      <c r="F4" s="308"/>
       <c r="G4" s="49"/>
       <c r="H4" s="11"/>
       <c r="I4" s="13"/>
@@ -30128,20 +30114,20 @@
       <c r="AF4" s="11"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="280" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ4" s="280" t="s">
-        <v>123</v>
+      <c r="AI4" s="298" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ4" s="298" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="183"/>
+      <c r="A5" s="201"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="291"/>
+      <c r="C5" s="250"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="307"/>
+      <c r="F5" s="309"/>
       <c r="G5" s="50"/>
       <c r="H5" s="10"/>
       <c r="I5" s="17"/>
@@ -30170,22 +30156,22 @@
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
-      <c r="AI5" s="281"/>
-      <c r="AJ5" s="281"/>
+      <c r="AI5" s="299"/>
+      <c r="AJ5" s="299"/>
     </row>
     <row r="6" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="182">
+      <c r="A6" s="200">
         <v>2</v>
       </c>
       <c r="B6" s="35"/>
-      <c r="C6" s="243" t="s">
+      <c r="C6" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="244"/>
-      <c r="E6" s="283" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="247"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="301" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="266"/>
       <c r="G6" s="51"/>
       <c r="H6" s="8"/>
       <c r="I6" s="14"/>
@@ -30214,16 +30200,16 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
-      <c r="AI6" s="281"/>
-      <c r="AJ6" s="281"/>
+      <c r="AI6" s="299"/>
+      <c r="AJ6" s="299"/>
     </row>
     <row r="7" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="183"/>
+      <c r="A7" s="201"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="248"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="267"/>
       <c r="G7" s="52"/>
       <c r="H7" s="25"/>
       <c r="I7" s="26"/>
@@ -30252,24 +30238,24 @@
       <c r="AF7" s="25"/>
       <c r="AG7" s="25"/>
       <c r="AH7" s="25"/>
-      <c r="AI7" s="281"/>
-      <c r="AJ7" s="281"/>
+      <c r="AI7" s="299"/>
+      <c r="AJ7" s="299"/>
     </row>
     <row r="8" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="292">
+      <c r="A8" s="280">
         <v>3</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="249" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="250"/>
-      <c r="E8" s="294" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="253"/>
+      <c r="C8" s="262" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="263"/>
+      <c r="E8" s="310" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="257"/>
       <c r="G8" s="37"/>
       <c r="H8" s="7"/>
       <c r="I8" s="16"/>
@@ -30298,16 +30284,16 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="281"/>
-      <c r="AJ8" s="281"/>
+      <c r="AI8" s="299"/>
+      <c r="AJ8" s="299"/>
     </row>
     <row r="9" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="293"/>
+      <c r="A9" s="281"/>
       <c r="B9" s="81"/>
-      <c r="C9" s="251"/>
-      <c r="D9" s="252"/>
-      <c r="E9" s="295"/>
-      <c r="F9" s="254"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="265"/>
+      <c r="E9" s="287"/>
+      <c r="F9" s="253"/>
       <c r="G9" s="53"/>
       <c r="H9" s="42"/>
       <c r="I9" s="43"/>
@@ -30336,24 +30322,24 @@
       <c r="AF9" s="42"/>
       <c r="AG9" s="42"/>
       <c r="AH9" s="42"/>
-      <c r="AI9" s="281"/>
-      <c r="AJ9" s="281"/>
+      <c r="AI9" s="299"/>
+      <c r="AJ9" s="299"/>
     </row>
     <row r="10" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="296">
+      <c r="A10" s="288">
         <v>4</v>
       </c>
       <c r="B10" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="311" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="312"/>
+      <c r="E10" s="292" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="297" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="298"/>
-      <c r="E10" s="301" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="303"/>
+      <c r="F10" s="293"/>
       <c r="G10" s="50"/>
       <c r="H10" s="10"/>
       <c r="I10" s="17"/>
@@ -30382,16 +30368,16 @@
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
-      <c r="AI10" s="281"/>
-      <c r="AJ10" s="281"/>
+      <c r="AI10" s="299"/>
+      <c r="AJ10" s="299"/>
     </row>
     <row r="11" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="293"/>
+      <c r="A11" s="281"/>
       <c r="B11" s="80"/>
-      <c r="C11" s="299"/>
-      <c r="D11" s="300"/>
-      <c r="E11" s="302"/>
-      <c r="F11" s="259"/>
+      <c r="C11" s="296"/>
+      <c r="D11" s="297"/>
+      <c r="E11" s="283"/>
+      <c r="F11" s="258"/>
       <c r="G11" s="50"/>
       <c r="H11" s="10"/>
       <c r="I11" s="17"/>
@@ -30420,22 +30406,22 @@
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
-      <c r="AI11" s="281"/>
-      <c r="AJ11" s="281"/>
+      <c r="AI11" s="299"/>
+      <c r="AJ11" s="299"/>
     </row>
     <row r="12" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="292">
+      <c r="A12" s="280">
         <v>5</v>
       </c>
       <c r="B12" s="80"/>
-      <c r="C12" s="304" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="305"/>
-      <c r="E12" s="306" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="260"/>
+      <c r="C12" s="294" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="295"/>
+      <c r="E12" s="282" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="252"/>
       <c r="G12" s="51"/>
       <c r="H12" s="8"/>
       <c r="I12" s="14"/>
@@ -30464,16 +30450,16 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
-      <c r="AI12" s="281"/>
-      <c r="AJ12" s="281"/>
+      <c r="AI12" s="299"/>
+      <c r="AJ12" s="299"/>
     </row>
     <row r="13" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A13" s="293"/>
+      <c r="A13" s="281"/>
       <c r="B13" s="80"/>
-      <c r="C13" s="299"/>
-      <c r="D13" s="300"/>
-      <c r="E13" s="302"/>
-      <c r="F13" s="259"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="258"/>
       <c r="G13" s="51"/>
       <c r="H13" s="8"/>
       <c r="I13" s="14"/>
@@ -30502,22 +30488,22 @@
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="281"/>
-      <c r="AJ13" s="281"/>
+      <c r="AI13" s="299"/>
+      <c r="AJ13" s="299"/>
     </row>
     <row r="14" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="292">
+      <c r="A14" s="280">
         <v>6</v>
       </c>
       <c r="B14" s="80"/>
-      <c r="C14" s="243" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="244"/>
-      <c r="E14" s="309" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="260"/>
+      <c r="C14" s="259" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="249"/>
+      <c r="E14" s="291" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="252"/>
       <c r="G14" s="51"/>
       <c r="H14" s="8"/>
       <c r="I14" s="14"/>
@@ -30546,16 +30532,16 @@
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
-      <c r="AI14" s="281"/>
-      <c r="AJ14" s="281"/>
+      <c r="AI14" s="299"/>
+      <c r="AJ14" s="299"/>
     </row>
     <row r="15" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="296"/>
+      <c r="A15" s="288"/>
       <c r="B15" s="80"/>
-      <c r="C15" s="307"/>
-      <c r="D15" s="308"/>
-      <c r="E15" s="301"/>
-      <c r="F15" s="303"/>
+      <c r="C15" s="289"/>
+      <c r="D15" s="290"/>
+      <c r="E15" s="292"/>
+      <c r="F15" s="293"/>
       <c r="G15" s="52"/>
       <c r="H15" s="25"/>
       <c r="I15" s="26"/>
@@ -30584,24 +30570,24 @@
       <c r="AF15" s="25"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="25"/>
-      <c r="AI15" s="281"/>
-      <c r="AJ15" s="281"/>
+      <c r="AI15" s="299"/>
+      <c r="AJ15" s="299"/>
     </row>
     <row r="16" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="310">
+      <c r="A16" s="286">
         <v>7</v>
       </c>
       <c r="B16" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="242" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="243"/>
+      <c r="E16" s="285" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="255" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="256"/>
-      <c r="E16" s="311" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="253"/>
+      <c r="F16" s="257"/>
       <c r="G16" s="37"/>
       <c r="H16" s="7"/>
       <c r="I16" s="16"/>
@@ -30630,16 +30616,16 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="281"/>
-      <c r="AJ16" s="281"/>
+      <c r="AI16" s="299"/>
+      <c r="AJ16" s="299"/>
     </row>
     <row r="17" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="310"/>
+      <c r="A17" s="286"/>
       <c r="B17" s="80"/>
-      <c r="C17" s="257"/>
-      <c r="D17" s="258"/>
-      <c r="E17" s="302"/>
-      <c r="F17" s="259"/>
+      <c r="C17" s="250"/>
+      <c r="D17" s="251"/>
+      <c r="E17" s="283"/>
+      <c r="F17" s="258"/>
       <c r="G17" s="52"/>
       <c r="H17" s="25"/>
       <c r="I17" s="26"/>
@@ -30668,22 +30654,22 @@
       <c r="AF17" s="25"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="25"/>
-      <c r="AI17" s="281"/>
-      <c r="AJ17" s="281"/>
+      <c r="AI17" s="299"/>
+      <c r="AJ17" s="299"/>
     </row>
     <row r="18" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="310">
+      <c r="A18" s="286">
         <v>7</v>
       </c>
       <c r="B18" s="80"/>
-      <c r="C18" s="243" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="244"/>
-      <c r="E18" s="306" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="260"/>
+      <c r="C18" s="259" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="249"/>
+      <c r="E18" s="282" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="252"/>
       <c r="G18" s="51"/>
       <c r="H18" s="8"/>
       <c r="I18" s="14"/>
@@ -30712,16 +30698,16 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
-      <c r="AI18" s="281"/>
-      <c r="AJ18" s="281"/>
+      <c r="AI18" s="299"/>
+      <c r="AJ18" s="299"/>
     </row>
     <row r="19" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="310"/>
+      <c r="A19" s="286"/>
       <c r="B19" s="80"/>
-      <c r="C19" s="257"/>
-      <c r="D19" s="258"/>
-      <c r="E19" s="302"/>
-      <c r="F19" s="259"/>
+      <c r="C19" s="250"/>
+      <c r="D19" s="251"/>
+      <c r="E19" s="283"/>
+      <c r="F19" s="258"/>
       <c r="G19" s="52"/>
       <c r="H19" s="25"/>
       <c r="I19" s="26"/>
@@ -30750,22 +30736,22 @@
       <c r="AF19" s="25"/>
       <c r="AG19" s="25"/>
       <c r="AH19" s="25"/>
-      <c r="AI19" s="281"/>
-      <c r="AJ19" s="281"/>
+      <c r="AI19" s="299"/>
+      <c r="AJ19" s="299"/>
     </row>
     <row r="20" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="310">
+      <c r="A20" s="286">
         <v>8</v>
       </c>
       <c r="B20" s="80"/>
-      <c r="C20" s="243" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="244"/>
-      <c r="E20" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="260"/>
+      <c r="C20" s="259" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="249"/>
+      <c r="E20" s="282" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="252"/>
       <c r="G20" s="52"/>
       <c r="H20" s="25"/>
       <c r="I20" s="26"/>
@@ -30794,16 +30780,16 @@
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
       <c r="AH20" s="25"/>
-      <c r="AI20" s="281"/>
-      <c r="AJ20" s="281"/>
+      <c r="AI20" s="299"/>
+      <c r="AJ20" s="299"/>
     </row>
     <row r="21" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="310"/>
+      <c r="A21" s="286"/>
       <c r="B21" s="81"/>
-      <c r="C21" s="245"/>
-      <c r="D21" s="246"/>
-      <c r="E21" s="295"/>
-      <c r="F21" s="254"/>
+      <c r="C21" s="260"/>
+      <c r="D21" s="261"/>
+      <c r="E21" s="287"/>
+      <c r="F21" s="253"/>
       <c r="G21" s="54"/>
       <c r="H21" s="9"/>
       <c r="I21" s="18"/>
@@ -30832,24 +30818,24 @@
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
-      <c r="AI21" s="281"/>
-      <c r="AJ21" s="281"/>
+      <c r="AI21" s="299"/>
+      <c r="AJ21" s="299"/>
     </row>
     <row r="22" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="292">
+      <c r="A22" s="280">
         <v>9</v>
       </c>
       <c r="B22" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="255" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="256"/>
-      <c r="E22" s="311" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="253"/>
+      <c r="C22" s="242" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="243"/>
+      <c r="E22" s="285" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="257"/>
       <c r="G22" s="37"/>
       <c r="H22" s="7"/>
       <c r="I22" s="16"/>
@@ -30878,16 +30864,16 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="281"/>
-      <c r="AJ22" s="281"/>
+      <c r="AI22" s="299"/>
+      <c r="AJ22" s="299"/>
     </row>
     <row r="23" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="293"/>
+      <c r="A23" s="281"/>
       <c r="B23" s="80"/>
-      <c r="C23" s="257"/>
-      <c r="D23" s="258"/>
-      <c r="E23" s="302"/>
-      <c r="F23" s="259"/>
+      <c r="C23" s="250"/>
+      <c r="D23" s="251"/>
+      <c r="E23" s="283"/>
+      <c r="F23" s="258"/>
       <c r="G23" s="51"/>
       <c r="H23" s="8"/>
       <c r="I23" s="14"/>
@@ -30916,22 +30902,22 @@
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="281"/>
-      <c r="AJ23" s="281"/>
+      <c r="AI23" s="299"/>
+      <c r="AJ23" s="299"/>
     </row>
     <row r="24" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="292">
+      <c r="A24" s="280">
         <v>10</v>
       </c>
       <c r="B24" s="80"/>
-      <c r="C24" s="261" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="244"/>
-      <c r="E24" s="306" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="260"/>
+      <c r="C24" s="248" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="249"/>
+      <c r="E24" s="282" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="252"/>
       <c r="G24" s="51"/>
       <c r="H24" s="8"/>
       <c r="I24" s="14"/>
@@ -30960,16 +30946,16 @@
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
-      <c r="AI24" s="281"/>
-      <c r="AJ24" s="281"/>
+      <c r="AI24" s="299"/>
+      <c r="AJ24" s="299"/>
     </row>
     <row r="25" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="293"/>
+      <c r="A25" s="281"/>
       <c r="B25" s="80"/>
-      <c r="C25" s="257"/>
-      <c r="D25" s="258"/>
-      <c r="E25" s="302"/>
-      <c r="F25" s="259"/>
+      <c r="C25" s="250"/>
+      <c r="D25" s="251"/>
+      <c r="E25" s="283"/>
+      <c r="F25" s="258"/>
       <c r="G25" s="51"/>
       <c r="H25" s="8"/>
       <c r="I25" s="14"/>
@@ -30998,22 +30984,22 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
-      <c r="AI25" s="281"/>
-      <c r="AJ25" s="281"/>
+      <c r="AI25" s="299"/>
+      <c r="AJ25" s="299"/>
     </row>
     <row r="26" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="292">
+      <c r="A26" s="280">
         <v>12</v>
       </c>
       <c r="B26" s="80"/>
-      <c r="C26" s="261" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="244"/>
-      <c r="E26" s="306" t="s">
-        <v>142</v>
-      </c>
-      <c r="F26" s="260"/>
+      <c r="C26" s="248" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="249"/>
+      <c r="E26" s="282" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="252"/>
       <c r="G26" s="52"/>
       <c r="H26" s="25"/>
       <c r="I26" s="26"/>
@@ -31042,16 +31028,16 @@
       <c r="AF26" s="25"/>
       <c r="AG26" s="25"/>
       <c r="AH26" s="25"/>
-      <c r="AI26" s="281"/>
-      <c r="AJ26" s="281"/>
+      <c r="AI26" s="299"/>
+      <c r="AJ26" s="299"/>
     </row>
     <row r="27" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="293"/>
+      <c r="A27" s="281"/>
       <c r="B27" s="81"/>
-      <c r="C27" s="257"/>
-      <c r="D27" s="258"/>
-      <c r="E27" s="302"/>
-      <c r="F27" s="254"/>
+      <c r="C27" s="250"/>
+      <c r="D27" s="251"/>
+      <c r="E27" s="283"/>
+      <c r="F27" s="253"/>
       <c r="G27" s="54"/>
       <c r="H27" s="9"/>
       <c r="I27" s="18"/>
@@ -31080,24 +31066,24 @@
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
-      <c r="AI27" s="281"/>
-      <c r="AJ27" s="281"/>
+      <c r="AI27" s="299"/>
+      <c r="AJ27" s="299"/>
     </row>
     <row r="28" spans="1:37" ht="12" customHeight="1">
-      <c r="A28" s="182">
+      <c r="A28" s="200">
         <v>13</v>
       </c>
       <c r="B28" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="262" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="263"/>
-      <c r="E28" s="312" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="266"/>
+        <v>141</v>
+      </c>
+      <c r="C28" s="254" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="255"/>
+      <c r="E28" s="284" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="256"/>
       <c r="G28" s="37"/>
       <c r="H28" s="7"/>
       <c r="I28" s="16"/>
@@ -31126,17 +31112,17 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
-      <c r="AI28" s="281"/>
-      <c r="AJ28" s="281"/>
+      <c r="AI28" s="299"/>
+      <c r="AJ28" s="299"/>
       <c r="AK28" s="3"/>
     </row>
     <row r="29" spans="1:37" ht="12" customHeight="1">
-      <c r="A29" s="183"/>
+      <c r="A29" s="201"/>
       <c r="B29" s="35"/>
-      <c r="C29" s="264"/>
-      <c r="D29" s="265"/>
-      <c r="E29" s="313"/>
-      <c r="F29" s="267"/>
+      <c r="C29" s="234"/>
+      <c r="D29" s="235"/>
+      <c r="E29" s="277"/>
+      <c r="F29" s="238"/>
       <c r="G29" s="51"/>
       <c r="H29" s="8"/>
       <c r="I29" s="14"/>
@@ -31165,23 +31151,23 @@
       <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
-      <c r="AI29" s="281"/>
-      <c r="AJ29" s="281"/>
+      <c r="AI29" s="299"/>
+      <c r="AJ29" s="299"/>
       <c r="AK29" s="3"/>
     </row>
     <row r="30" spans="1:37" ht="12" customHeight="1">
-      <c r="A30" s="182">
+      <c r="A30" s="200">
         <v>14</v>
       </c>
       <c r="B30" s="35"/>
-      <c r="C30" s="264" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="265"/>
-      <c r="E30" s="313" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" s="267"/>
+      <c r="C30" s="234" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="235"/>
+      <c r="E30" s="277" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="238"/>
       <c r="G30" s="51"/>
       <c r="H30" s="8"/>
       <c r="I30" s="14"/>
@@ -31210,17 +31196,17 @@
       <c r="AF30" s="8"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
-      <c r="AI30" s="281"/>
-      <c r="AJ30" s="281"/>
+      <c r="AI30" s="299"/>
+      <c r="AJ30" s="299"/>
       <c r="AK30" s="3"/>
     </row>
     <row r="31" spans="1:37" ht="12" customHeight="1">
-      <c r="A31" s="183"/>
+      <c r="A31" s="201"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="268"/>
-      <c r="D31" s="269"/>
-      <c r="E31" s="314"/>
-      <c r="F31" s="270"/>
+      <c r="C31" s="236"/>
+      <c r="D31" s="237"/>
+      <c r="E31" s="278"/>
+      <c r="F31" s="239"/>
       <c r="G31" s="54"/>
       <c r="H31" s="9"/>
       <c r="I31" s="18"/>
@@ -31249,25 +31235,25 @@
       <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
       <c r="AH31" s="9"/>
-      <c r="AI31" s="281"/>
-      <c r="AJ31" s="281"/>
+      <c r="AI31" s="299"/>
+      <c r="AJ31" s="299"/>
       <c r="AK31" s="3"/>
     </row>
     <row r="32" spans="1:37" ht="12" customHeight="1">
-      <c r="A32" s="182">
+      <c r="A32" s="200">
         <v>15</v>
       </c>
-      <c r="B32" s="271" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="255" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="256"/>
-      <c r="E32" s="271" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="275"/>
+      <c r="B32" s="240" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="242" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="243"/>
+      <c r="E32" s="240" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="246"/>
       <c r="G32" s="37"/>
       <c r="H32" s="7"/>
       <c r="I32" s="16"/>
@@ -31296,17 +31282,17 @@
       <c r="AF32" s="39"/>
       <c r="AG32" s="39"/>
       <c r="AH32" s="39"/>
-      <c r="AI32" s="281"/>
-      <c r="AJ32" s="281"/>
+      <c r="AI32" s="299"/>
+      <c r="AJ32" s="299"/>
       <c r="AK32" s="3"/>
     </row>
     <row r="33" spans="1:37" ht="12" customHeight="1" thickBot="1">
-      <c r="A33" s="315"/>
-      <c r="B33" s="272"/>
-      <c r="C33" s="273"/>
-      <c r="D33" s="274"/>
-      <c r="E33" s="272"/>
-      <c r="F33" s="276"/>
+      <c r="A33" s="279"/>
+      <c r="B33" s="241"/>
+      <c r="C33" s="244"/>
+      <c r="D33" s="245"/>
+      <c r="E33" s="241"/>
+      <c r="F33" s="247"/>
       <c r="G33" s="38"/>
       <c r="H33" s="12"/>
       <c r="I33" s="15"/>
@@ -31335,8 +31321,8 @@
       <c r="AF33" s="12"/>
       <c r="AG33" s="12"/>
       <c r="AH33" s="12"/>
-      <c r="AI33" s="282"/>
-      <c r="AJ33" s="282"/>
+      <c r="AI33" s="300"/>
+      <c r="AJ33" s="300"/>
       <c r="AK33" s="3"/>
     </row>
     <row r="34" spans="1:37">
@@ -31357,53 +31343,12 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AJ4:AJ33"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -31420,12 +31365,53 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
